--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -3,33 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-resource\init-data\saas\hzero-file\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
+    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">角色权限!$F$1:$F$94</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="533">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-17</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2133,7 +2132,7 @@
     <t>expert-library</t>
   </si>
   <si>
-    <t>/hfile/file-aggregate?pv=site</t>
+    <t>/hfile/file-aggregate</t>
   </si>
   <si>
     <t>hzero.file|hzero.file-aggregate</t>
@@ -2310,6 +2309,9 @@
     <t>文件水印配置</t>
   </si>
   <si>
+    <t>File watermark</t>
+  </si>
+  <si>
     <t>SYPZ</t>
   </si>
   <si>
@@ -2382,9 +2384,6 @@
     <t>File summary query</t>
   </si>
   <si>
-    <t>/hfile/file-aggregate</t>
-  </si>
-  <si>
     <t>hzero.site.file|hzero.site.file.aggregate</t>
   </si>
   <si>
@@ -2979,166 +2978,166 @@
     <t>iam_menu_permission-25</t>
   </si>
   <si>
+    <t>HFLE.SERVER_CONFIG</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>HPFM.TENANT_PAGING</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
     <t>hzero-file.file-capacity-config-site-level.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-28</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.createUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.updateUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
-  </si>
-  <si>
-    <t>HFLE.SERVER_CONFIG</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
   </si>
   <si>
     <t>hzero-file.file-capacity-config-site-level.pageCapacityConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.deleteUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-36</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.detailUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-35</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-36</t>
-  </si>
-  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
     <t>HPFM.SERVER</t>
   </si>
   <si>
-    <t>iam_menu_permission-39</t>
+    <t>iam_menu_permission-42</t>
   </si>
   <si>
     <t>HPFM.SERVER_CLUSTER</t>
   </si>
   <si>
-    <t>iam_menu_permission-40</t>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.createConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-41</t>
+    <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.detailConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.pageConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.updateConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-44</t>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>hzero-file.file-edit-log-site-level.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>hzero-workflow-plus.process-monitor-site-level.activeProc</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>hzero-workflow-plus.process-monitor-site-level.suspendProc</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-52</t>
   </si>
   <si>
     <t>hzero-workflow-plus.service-definition-site-level.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>hzero-file.file-storage-config-v2-site-level.defaultConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>hzero-file.file-storage-config-v2-site-level.deleteConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>hzero-file.file-storage-config-v2-site-level.detail</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>hzero-file.file-storage-config-v2-site-level.insertOrUpdate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.createWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-53</t>
+    <t>iam_menu_permission-56</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.detailWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-54</t>
+    <t>iam_menu_permission-57</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.pageWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-55</t>
+    <t>iam_menu_permission-58</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.updateWatermark</t>
@@ -3201,7 +3200,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>HZERO.T.role/site/default/administrator</t>
+    <t>abcf</t>
   </si>
   <si>
     <t>iam_role-9</t>
@@ -3216,63 +3215,12 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>HZERO.T.role/organization/default/administrator</t>
+    <t>abce</t>
   </si>
   <si>
     <t>iam_role-10</t>
   </si>
   <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>HZERO.P..role/project/default/administrator</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>游客(平台层)</t>
-  </si>
-  <si>
-    <t>Site Guest</t>
-  </si>
-  <si>
-    <t>role/site/default/guest</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>游客(租户层)</t>
-  </si>
-  <si>
-    <t>Organization Guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/guest</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
     <t>租户管理员模板</t>
   </si>
   <si>
@@ -3309,18 +3257,27 @@
     <t>#type</t>
   </si>
   <si>
+    <t>iam_role_permission-13</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-14</t>
+  </si>
+  <si>
+    <t>iam_role_permission-15</t>
+  </si>
+  <si>
     <t>iam_role_permission-16</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>iam_role_permission-17</t>
   </si>
   <si>
@@ -3399,109 +3356,101 @@
     <t>iam_role_permission-42</t>
   </si>
   <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
     <t>iam_role_permission-44</t>
   </si>
   <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
     <t>iam_role_permission-46</t>
   </si>
   <si>
+    <t>iam_role_permission-47</t>
+  </si>
+  <si>
     <t>iam_role_permission-48</t>
   </si>
   <si>
+    <t>iam_role_permission-49</t>
+  </si>
+  <si>
     <t>iam_role_permission-50</t>
   </si>
   <si>
+    <t>iam_role_permission-51</t>
+  </si>
+  <si>
     <t>iam_role_permission-52</t>
   </si>
   <si>
+    <t>iam_role_permission-53</t>
+  </si>
+  <si>
     <t>iam_role_permission-54</t>
   </si>
   <si>
+    <t>iam_role_permission-55</t>
+  </si>
+  <si>
     <t>iam_role_permission-56</t>
   </si>
   <si>
+    <t>iam_role_permission-57</t>
+  </si>
+  <si>
     <t>iam_role_permission-58</t>
   </si>
   <si>
+    <t>iam_role_permission-59</t>
+  </si>
+  <si>
     <t>iam_role_permission-60</t>
   </si>
   <si>
+    <t>iam_role_permission-61</t>
+  </si>
+  <si>
     <t>iam_role_permission-62</t>
   </si>
   <si>
+    <t>iam_role_permission-63</t>
+  </si>
+  <si>
     <t>iam_role_permission-64</t>
   </si>
   <si>
+    <t>iam_role_permission-65</t>
+  </si>
+  <si>
     <t>iam_role_permission-66</t>
   </si>
   <si>
+    <t>iam_role_permission-67</t>
+  </si>
+  <si>
     <t>iam_role_permission-68</t>
   </si>
   <si>
+    <t>iam_role_permission-69</t>
+  </si>
+  <si>
     <t>iam_role_permission-70</t>
   </si>
   <si>
+    <t>iam_role_permission-71</t>
+  </si>
+  <si>
     <t>iam_role_permission-72</t>
-  </si>
-  <si>
-    <t>iam_role_permission-74</t>
-  </si>
-  <si>
-    <t>iam_role_permission-76</t>
-  </si>
-  <si>
-    <t>iam_role_permission-78</t>
-  </si>
-  <si>
-    <t>iam_role_permission-80</t>
-  </si>
-  <si>
-    <t>iam_role_permission-82</t>
-  </si>
-  <si>
-    <t>iam_role_permission-84</t>
-  </si>
-  <si>
-    <t>iam_role_permission-86</t>
-  </si>
-  <si>
-    <t>iam_role_permission-88</t>
-  </si>
-  <si>
-    <t>iam_role_permission-90</t>
-  </si>
-  <si>
-    <t>iam_role_permission-92</t>
-  </si>
-  <si>
-    <t>iam_role_permission-94</t>
-  </si>
-  <si>
-    <t>iam_role_permission-96</t>
-  </si>
-  <si>
-    <t>iam_role_permission-98</t>
-  </si>
-  <si>
-    <t>iam_role_permission-100</t>
-  </si>
-  <si>
-    <t>iam_role_permission-102</t>
-  </si>
-  <si>
-    <t>iam_role_permission-104</t>
-  </si>
-  <si>
-    <t>iam_role_permission-105</t>
-  </si>
-  <si>
-    <t>iam_role_permission-106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="61">
     <font>
       <sz val="12"/>
@@ -3621,262 +3570,219 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4069,49 +3975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4127,6 +3990,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4473,33 +4379,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4508,21 +4414,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4633,11 +4539,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4675,19 +4581,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="70"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4711,39 +4617,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4753,13 +4659,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="54">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="55">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4771,10 +4677,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" t="s" s="56">
         <v>59</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" t="s" s="57">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4795,7 +4701,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" t="s" s="58">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4820,7 +4726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4873,7 +4779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4892,9 +4798,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4930,7 +4835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -4946,9 +4851,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4981,7 +4885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4997,9 +4901,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -5032,7 +4935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>107</v>
       </c>
@@ -5048,9 +4951,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -5083,7 +4985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -5099,9 +5001,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -5134,7 +5035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -5150,9 +5051,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
         <v>100</v>
@@ -5182,7 +5082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -5201,9 +5101,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5236,7 +5135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -5252,9 +5151,8 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -5284,7 +5182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
+    <row r="17">
       <c r="E17" t="s">
         <v>129</v>
       </c>
@@ -5300,9 +5198,8 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -5332,7 +5229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
+    <row r="18">
       <c r="E18" t="s">
         <v>133</v>
       </c>
@@ -5351,9 +5248,8 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
         <v>92</v>
@@ -5389,7 +5285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
+    <row r="19">
       <c r="E19" t="s">
         <v>142</v>
       </c>
@@ -5405,9 +5301,8 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5437,7 +5332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
+    <row r="20">
       <c r="E20" t="s">
         <v>146</v>
       </c>
@@ -5456,9 +5351,8 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -5488,7 +5382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
+    <row r="21">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -5499,29 +5393,28 @@
         <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
       </c>
       <c r="M21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s">
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" t="s">
         <v>81</v>
@@ -5530,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T21" t="s">
         <v>81</v>
@@ -5542,25 +5435,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22">
       <c r="E22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -5578,7 +5470,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T22" t="s">
         <v>81</v>
@@ -5590,25 +5482,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23">
       <c r="E23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5626,7 +5517,7 @@
         <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T23" t="s">
         <v>81</v>
@@ -5638,25 +5529,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24">
       <c r="E24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -5674,13 +5564,13 @@
         <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T24" t="s">
         <v>81</v>
       </c>
       <c r="U24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V24" t="s">
         <v>86</v>
@@ -5689,12 +5579,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25">
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -5706,7 +5596,7 @@
         <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s">
         <v>81</v>
@@ -5715,7 +5605,7 @@
         <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s">
         <v>84</v>
@@ -5730,7 +5620,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T25" t="s">
         <v>81</v>
@@ -5742,34 +5632,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26">
       <c r="E26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
         <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" t="str">
+        <v>174</v>
+      </c>
+      <c r="K26">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>92</v>
       </c>
       <c r="M26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N26" t="s">
         <v>84</v>
@@ -5778,7 +5667,7 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="Q26" t="s">
         <v>81</v>
@@ -5799,7 +5688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="5:24">
+    <row r="27">
       <c r="E27" t="s">
         <v>180</v>
       </c>
@@ -5813,11 +5702,10 @@
         <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
-      </c>
-      <c r="K27" t="str">
+        <v>174</v>
+      </c>
+      <c r="K27">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -5850,7 +5738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="5:24">
+    <row r="28">
       <c r="E28" t="s">
         <v>183</v>
       </c>
@@ -5864,11 +5752,10 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" t="str">
+        <v>174</v>
+      </c>
+      <c r="K28">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5901,7 +5788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="5:24">
+    <row r="29">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5915,11 +5802,10 @@
         <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" t="str">
+        <v>174</v>
+      </c>
+      <c r="K29">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -5952,7 +5838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="5:24">
+    <row r="30">
       <c r="E30" t="s">
         <v>189</v>
       </c>
@@ -5966,11 +5852,10 @@
         <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" t="str">
+        <v>174</v>
+      </c>
+      <c r="K30">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -6003,7 +5888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:24">
+    <row r="31">
       <c r="E31" t="s">
         <v>192</v>
       </c>
@@ -6017,11 +5902,10 @@
         <v>117</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
-      </c>
-      <c r="K31" t="str">
+        <v>174</v>
+      </c>
+      <c r="K31">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L31" t="s">
         <v>100</v>
@@ -6051,7 +5935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="5:24">
+    <row r="32">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -6065,11 +5949,10 @@
         <v>121</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" t="str">
+        <v>174</v>
+      </c>
+      <c r="K32">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -6099,7 +5982,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="5:24">
+    <row r="33">
       <c r="E33" t="s">
         <v>198</v>
       </c>
@@ -6113,11 +5996,10 @@
         <v>127</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
-      </c>
-      <c r="K33" t="str">
+        <v>174</v>
+      </c>
+      <c r="K33">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L33" t="s">
         <v>100</v>
@@ -6147,7 +6029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="5:24">
+    <row r="34">
       <c r="E34" t="s">
         <v>201</v>
       </c>
@@ -6161,11 +6043,10 @@
         <v>131</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" t="str">
+        <v>174</v>
+      </c>
+      <c r="K34">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L34" t="s">
         <v>100</v>
@@ -6195,7 +6076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="5:24">
+    <row r="35">
       <c r="E35" t="s">
         <v>204</v>
       </c>
@@ -6212,11 +6093,10 @@
         <v>208</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
-      </c>
-      <c r="K35" t="str">
+        <v>174</v>
+      </c>
+      <c r="K35">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6252,7 +6132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="5:24">
+    <row r="36">
       <c r="E36" t="s">
         <v>212</v>
       </c>
@@ -6266,11 +6146,10 @@
         <v>214</v>
       </c>
       <c r="J36" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" t="str">
+        <v>174</v>
+      </c>
+      <c r="K36">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6303,7 +6182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="5:24">
+    <row r="37">
       <c r="E37" t="s">
         <v>216</v>
       </c>
@@ -6317,11 +6196,10 @@
         <v>218</v>
       </c>
       <c r="J37" t="s">
-        <v>173</v>
-      </c>
-      <c r="K37" t="str">
+        <v>174</v>
+      </c>
+      <c r="K37">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L37" t="s">
         <v>100</v>
@@ -6354,7 +6232,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="5:24">
+    <row r="38">
       <c r="E38" t="s">
         <v>220</v>
       </c>
@@ -6368,11 +6246,10 @@
         <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" t="str">
+        <v>174</v>
+      </c>
+      <c r="K38">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6405,7 +6282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="5:24">
+    <row r="39">
       <c r="E39" t="s">
         <v>224</v>
       </c>
@@ -6419,11 +6296,10 @@
         <v>226</v>
       </c>
       <c r="J39" t="s">
-        <v>173</v>
-      </c>
-      <c r="K39" t="str">
+        <v>174</v>
+      </c>
+      <c r="K39">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L39" t="s">
         <v>100</v>
@@ -6456,7 +6332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="5:24">
+    <row r="40">
       <c r="E40" t="s">
         <v>228</v>
       </c>
@@ -6470,11 +6346,10 @@
         <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>173</v>
-      </c>
-      <c r="K40" t="str">
+        <v>174</v>
+      </c>
+      <c r="K40">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L40" t="s">
         <v>100</v>
@@ -6504,7 +6379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="5:24">
+    <row r="41">
       <c r="E41" t="s">
         <v>232</v>
       </c>
@@ -6518,11 +6393,10 @@
         <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" t="str">
+        <v>174</v>
+      </c>
+      <c r="K41">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6555,7 +6429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="5:24">
+    <row r="42">
       <c r="E42" t="s">
         <v>237</v>
       </c>
@@ -6569,11 +6443,10 @@
         <v>239</v>
       </c>
       <c r="J42" t="s">
-        <v>173</v>
-      </c>
-      <c r="K42" t="str">
+        <v>174</v>
+      </c>
+      <c r="K42">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L42" t="s">
         <v>100</v>
@@ -6603,7 +6476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="5:24">
+    <row r="43">
       <c r="E43" t="s">
         <v>241</v>
       </c>
@@ -6617,11 +6490,10 @@
         <v>243</v>
       </c>
       <c r="J43" t="s">
-        <v>173</v>
-      </c>
-      <c r="K43" t="str">
+        <v>174</v>
+      </c>
+      <c r="K43">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6651,7 +6523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="5:24">
+    <row r="44">
       <c r="E44" t="s">
         <v>245</v>
       </c>
@@ -6668,11 +6540,10 @@
         <v>249</v>
       </c>
       <c r="J44" t="s">
-        <v>173</v>
-      </c>
-      <c r="K44" t="str">
+        <v>174</v>
+      </c>
+      <c r="K44">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -6708,7 +6579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="5:24">
+    <row r="45">
       <c r="E45" t="s">
         <v>253</v>
       </c>
@@ -6722,11 +6593,10 @@
         <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>173</v>
-      </c>
-      <c r="K45" t="str">
+        <v>174</v>
+      </c>
+      <c r="K45">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L45" t="s">
         <v>100</v>
@@ -6759,7 +6629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="5:24">
+    <row r="46">
       <c r="E46" t="s">
         <v>257</v>
       </c>
@@ -6773,11 +6643,10 @@
         <v>259</v>
       </c>
       <c r="J46" t="s">
-        <v>173</v>
-      </c>
-      <c r="K46" t="str">
+        <v>174</v>
+      </c>
+      <c r="K46">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -6810,7 +6679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="5:24">
+    <row r="47">
       <c r="E47" t="s">
         <v>261</v>
       </c>
@@ -6824,11 +6693,10 @@
         <v>263</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
-      </c>
-      <c r="K47" t="str">
+        <v>174</v>
+      </c>
+      <c r="K47">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L47" t="s">
         <v>100</v>
@@ -6861,7 +6729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="5:24">
+    <row r="48">
       <c r="E48" t="s">
         <v>265</v>
       </c>
@@ -6875,11 +6743,10 @@
         <v>267</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" t="str">
+        <v>174</v>
+      </c>
+      <c r="K48">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -6912,7 +6779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="5:24">
+    <row r="49">
       <c r="E49" t="s">
         <v>269</v>
       </c>
@@ -6926,11 +6793,10 @@
         <v>271</v>
       </c>
       <c r="J49" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" t="str">
+        <v>174</v>
+      </c>
+      <c r="K49">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L49" t="s">
         <v>100</v>
@@ -6963,7 +6829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="5:24">
+    <row r="50">
       <c r="E50" t="s">
         <v>273</v>
       </c>
@@ -6977,11 +6843,10 @@
         <v>275</v>
       </c>
       <c r="J50" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" t="str">
+        <v>174</v>
+      </c>
+      <c r="K50">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -7014,7 +6879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="5:24">
+    <row r="51">
       <c r="E51" t="s">
         <v>277</v>
       </c>
@@ -7031,11 +6896,10 @@
         <v>280</v>
       </c>
       <c r="J51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K51" t="str">
+        <v>174</v>
+      </c>
+      <c r="K51">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L51" t="s">
         <v>100</v>
@@ -7065,7 +6929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="5:24">
+    <row r="52">
       <c r="E52" t="s">
         <v>282</v>
       </c>
@@ -7082,17 +6946,16 @@
         <v>137</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
-      </c>
-      <c r="K52" t="str">
+        <v>174</v>
+      </c>
+      <c r="K52">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L52" t="s">
         <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s">
         <v>84</v>
@@ -7122,7 +6985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="5:24">
+    <row r="53">
       <c r="E53" t="s">
         <v>285</v>
       </c>
@@ -7139,11 +7002,10 @@
         <v>149</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
-      </c>
-      <c r="K53" t="str">
+        <v>174</v>
+      </c>
+      <c r="K53">
         <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-52</v>
       </c>
       <c r="L53" t="s">
         <v>100</v>
@@ -7173,7 +7035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="5:24">
+    <row r="54">
       <c r="E54" t="s">
         <v>288</v>
       </c>
@@ -7190,11 +7052,10 @@
         <v>292</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" t="str">
+        <v>174</v>
+      </c>
+      <c r="K54">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L54" t="s">
         <v>92</v>
@@ -7230,7 +7091,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="5:24">
+    <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
@@ -7244,11 +7105,10 @@
         <v>298</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
-      </c>
-      <c r="K55" t="str">
+        <v>174</v>
+      </c>
+      <c r="K55">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L55" t="s">
         <v>100</v>
@@ -7281,7 +7141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="5:24">
+    <row r="56">
       <c r="E56" t="s">
         <v>300</v>
       </c>
@@ -7295,11 +7155,10 @@
         <v>302</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
-      </c>
-      <c r="K56" t="str">
+        <v>174</v>
+      </c>
+      <c r="K56">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -7332,7 +7191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="5:24">
+    <row r="57">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -7346,11 +7205,10 @@
         <v>306</v>
       </c>
       <c r="J57" t="s">
-        <v>173</v>
-      </c>
-      <c r="K57" t="str">
+        <v>174</v>
+      </c>
+      <c r="K57">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L57" t="s">
         <v>100</v>
@@ -7383,7 +7241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="5:24">
+    <row r="58">
       <c r="E58" t="s">
         <v>308</v>
       </c>
@@ -7397,11 +7255,10 @@
         <v>310</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K58" t="str">
+        <v>174</v>
+      </c>
+      <c r="K58">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L58" t="s">
         <v>100</v>
@@ -7431,7 +7288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="5:24">
+    <row r="59">
       <c r="E59" t="s">
         <v>312</v>
       </c>
@@ -7448,11 +7305,10 @@
         <v>315</v>
       </c>
       <c r="J59" t="s">
-        <v>173</v>
-      </c>
-      <c r="K59" t="str">
+        <v>174</v>
+      </c>
+      <c r="K59">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L59" t="s">
         <v>100</v>
@@ -7485,7 +7341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="5:24">
+    <row r="60">
       <c r="E60" t="s">
         <v>317</v>
       </c>
@@ -7499,11 +7355,10 @@
         <v>319</v>
       </c>
       <c r="J60" t="s">
-        <v>173</v>
-      </c>
-      <c r="K60" t="str">
+        <v>174</v>
+      </c>
+      <c r="K60">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L60" t="s">
         <v>100</v>
@@ -7533,7 +7388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="5:24">
+    <row r="61">
       <c r="E61" t="s">
         <v>321</v>
       </c>
@@ -7547,11 +7402,10 @@
         <v>323</v>
       </c>
       <c r="J61" t="s">
-        <v>173</v>
-      </c>
-      <c r="K61" t="str">
+        <v>174</v>
+      </c>
+      <c r="K61">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L61" t="s">
         <v>100</v>
@@ -7581,7 +7435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="5:24">
+    <row r="62">
       <c r="E62" t="s">
         <v>325</v>
       </c>
@@ -7595,14 +7449,13 @@
         <v>327</v>
       </c>
       <c r="I62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J62" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" t="str">
+        <v>174</v>
+      </c>
+      <c r="K62">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L62" t="s">
         <v>92</v>
@@ -7614,7 +7467,7 @@
         <v>84</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62" t="s">
         <v>81</v>
@@ -7635,7 +7488,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="5:24">
+    <row r="63">
       <c r="E63" t="s">
         <v>330</v>
       </c>
@@ -7643,17 +7496,16 @@
         <v>331</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J63" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" t="str">
+        <v>174</v>
+      </c>
+      <c r="K63">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L63" t="s">
         <v>100</v>
@@ -7683,7 +7535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="5:24">
+    <row r="64">
       <c r="E64" t="s">
         <v>333</v>
       </c>
@@ -7691,17 +7543,16 @@
         <v>334</v>
       </c>
       <c r="G64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64" t="str">
+        <v>174</v>
+      </c>
+      <c r="K64">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L64" t="s">
         <v>100</v>
@@ -7731,7 +7582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="5:24">
+    <row r="65">
       <c r="E65" t="s">
         <v>336</v>
       </c>
@@ -7739,17 +7590,16 @@
         <v>337</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
-      </c>
-      <c r="K65" t="str">
+        <v>174</v>
+      </c>
+      <c r="K65">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L65" t="s">
         <v>100</v>
@@ -7773,7 +7623,7 @@
         <v>81</v>
       </c>
       <c r="U65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V65" t="s">
         <v>86</v>
@@ -7783,45 +7633,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7831,641 +7680,619 @@
       <c r="C7" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" t="s" s="59">
         <v>340</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" t="s" s="60">
         <v>54</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" t="s" s="61">
         <v>341</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" t="s" s="62">
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="E8" t="s">
         <v>343</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
       </c>
       <c r="G8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="E9" t="s">
         <v>345</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
       </c>
       <c r="G9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="E10" t="s">
         <v>347</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
       </c>
       <c r="G10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="E11" t="s">
         <v>348</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="E12" t="s">
         <v>350</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="E13" t="s">
         <v>352</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="E14" t="s">
         <v>354</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="E15" t="s">
         <v>356</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="E16" t="s">
         <v>358</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17">
       <c r="E17" t="s">
         <v>360</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18">
       <c r="E18" t="s">
         <v>362</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19">
       <c r="E19" t="s">
         <v>364</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20">
       <c r="E20" t="s">
         <v>366</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="G20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="5:7">
+    <row r="21">
       <c r="E21" t="s">
         <v>368</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
       </c>
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="5:7">
+    <row r="22">
       <c r="E22" t="s">
         <v>370</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
       </c>
       <c r="G22" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="5:7">
+    <row r="23">
       <c r="E23" t="s">
         <v>372</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
       </c>
       <c r="G23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="5:7">
+    <row r="24">
       <c r="E24" t="s">
         <v>374</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
       </c>
       <c r="G24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="5:7">
+    <row r="25">
       <c r="E25" t="s">
         <v>376</v>
       </c>
-      <c r="F25" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+      <c r="F25">
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="G25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="5:7">
+    <row r="26">
       <c r="E26" t="s">
         <v>378</v>
       </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+      <c r="F26">
+        <f>菜单SAAS版!$E$32</f>
       </c>
       <c r="G26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="5:7">
+    <row r="27">
       <c r="E27" t="s">
         <v>380</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
       </c>
       <c r="G27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28" spans="5:7">
+    <row r="28">
       <c r="E28" t="s">
         <v>382</v>
       </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F28">
+        <f>菜单SAAS版!$E$40</f>
       </c>
       <c r="G28" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="5:7">
+    <row r="29">
       <c r="E29" t="s">
         <v>384</v>
       </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+      <c r="F29">
+        <f>菜单SAAS版!$E$40</f>
       </c>
       <c r="G29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="5:7">
+    <row r="30">
       <c r="E30" t="s">
         <v>386</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
       </c>
       <c r="G30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="5:7">
+    <row r="31">
       <c r="E31" t="s">
         <v>387</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
       </c>
       <c r="G31" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="5:7">
+    <row r="32">
       <c r="E32" t="s">
         <v>388</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
       </c>
       <c r="G32" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="5:7">
+    <row r="33">
       <c r="E33" t="s">
         <v>390</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
       </c>
       <c r="G33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
+      <c r="F34">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
         <v>392</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
+      </c>
+      <c r="G35" t="s">
         <v>393</v>
       </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
+    </row>
+    <row r="36">
       <c r="E36" t="s">
         <v>394</v>
       </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
+      <c r="F36">
+        <f>菜单SAAS版!$E$41</f>
       </c>
       <c r="G36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>396</v>
+      </c>
+      <c r="F37">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>395</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="G37" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
+    <row r="38">
       <c r="E38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F38" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+        <v>397</v>
+      </c>
+      <c r="F38">
+        <f>菜单SAAS版!$E$42</f>
       </c>
       <c r="G38" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
         <v>398</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="G39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>399</v>
+      </c>
+      <c r="F40">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="G40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>400</v>
-      </c>
-      <c r="F40" t="str">
+      </c>
+      <c r="G41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>402</v>
+      </c>
+      <c r="F42">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>402</v>
-      </c>
-      <c r="F41" t="str">
+      </c>
+      <c r="G42" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>404</v>
+      </c>
+      <c r="F43">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>404</v>
-      </c>
-      <c r="F42" t="str">
+      </c>
+      <c r="G43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>405</v>
+      </c>
+      <c r="F44">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
+      </c>
+      <c r="G44" t="s">
         <v>406</v>
       </c>
-      <c r="F43" t="str">
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>407</v>
+      </c>
+      <c r="F45">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
+      </c>
+      <c r="G45" t="s">
         <v>408</v>
       </c>
-      <c r="F44" t="str">
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>411</v>
+      </c>
+      <c r="F47">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>413</v>
+      </c>
+      <c r="F48">
         <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G44" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>410</v>
-      </c>
-      <c r="F45" t="str">
+      </c>
+      <c r="G48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>414</v>
+      </c>
+      <c r="F49">
         <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" t="s">
-        <v>412</v>
-      </c>
-      <c r="F46" t="str">
+      </c>
+      <c r="G49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>416</v>
+      </c>
+      <c r="F50">
         <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G46" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" t="s">
-        <v>414</v>
-      </c>
-      <c r="F47" t="str">
+      </c>
+      <c r="G50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51">
         <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
-        <v>416</v>
-      </c>
-      <c r="F48" t="str">
+      </c>
+      <c r="G51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>420</v>
+      </c>
+      <c r="F52">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53">
         <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="G48" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
-        <v>418</v>
-      </c>
-      <c r="F49" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" t="s">
-        <v>420</v>
-      </c>
-      <c r="F50" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="G50" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>422</v>
-      </c>
-      <c r="F51" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="G51" t="s">
+      </c>
+      <c r="G53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
+      <c r="F54">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
         <v>424</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F55">
         <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G52" t="s">
+      </c>
+      <c r="G55" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
-      <c r="E53" t="s">
+    <row r="56">
+      <c r="E56" t="s">
         <v>426</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F56">
         <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G53" t="s">
+      </c>
+      <c r="G56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
-      <c r="E54" t="s">
+    <row r="57">
+      <c r="E57" t="s">
         <v>428</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F57">
         <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G54" t="s">
+      </c>
+      <c r="G57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="5:7">
-      <c r="E55" t="s">
+    <row r="58">
+      <c r="E58" t="s">
         <v>430</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F58">
         <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G55" t="s">
+      </c>
+      <c r="G58" t="s">
         <v>431</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8475,10 +8302,10 @@
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" t="s" s="63">
         <v>433</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" t="s" s="64">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -8487,7 +8314,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" t="s" s="65">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -8496,16 +8323,16 @@
       <c r="J7" t="s">
         <v>435</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" t="s" s="66">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>436</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" t="s" s="67">
         <v>437</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" t="s" s="68">
         <v>438</v>
       </c>
       <c r="O7" t="s">
@@ -8532,11 +8359,11 @@
       <c r="V7" t="s">
         <v>445</v>
       </c>
-      <c r="W7" s="64" t="s">
+      <c r="W7" t="s" s="69">
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8">
       <c r="E8" t="s">
         <v>447</v>
       </c>
@@ -8549,8 +8376,11 @@
       <c r="H8" t="s">
         <v>450</v>
       </c>
+      <c r="I8" t="s">
+        <v>451</v>
+      </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -8586,13 +8416,13 @@
         <v>450</v>
       </c>
       <c r="V8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9">
       <c r="E9" t="s">
         <v>452</v>
       </c>
@@ -8605,6 +8435,9 @@
       <c r="H9" t="s">
         <v>455</v>
       </c>
+      <c r="I9" t="s">
+        <v>456</v>
+      </c>
       <c r="J9" t="s">
         <v>80</v>
       </c>
@@ -8642,13 +8475,13 @@
         <v>455</v>
       </c>
       <c r="V9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10">
       <c r="E10" t="s">
         <v>457</v>
       </c>
@@ -8656,13 +8489,13 @@
         <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J10" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -8670,11 +8503,11 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" t="s">
-        <v>81</v>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -8695,1541 +8528,1248 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="V10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="E11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
         <v>463</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D12" t="s" s="70">
         <v>464</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E12" t="s" s="71">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="72">
         <v>465</v>
       </c>
-      <c r="J11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="G12" t="s" s="73">
+        <v>466</v>
+      </c>
+      <c r="H12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J12" t="s" s="74">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H13" t="s">
+        <v>471</v>
+      </c>
+      <c r="I13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>475</v>
+      </c>
+      <c r="F15">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G15">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H15" t="s">
+        <v>471</v>
+      </c>
+      <c r="I15" t="s">
+        <v>472</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G16">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H16" t="s">
+        <v>471</v>
+      </c>
+      <c r="I16" t="s">
+        <v>472</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H17" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17" t="s">
+        <v>472</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H18" t="s">
+        <v>471</v>
+      </c>
+      <c r="I18" t="s">
+        <v>472</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G19">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H19" t="s">
+        <v>471</v>
+      </c>
+      <c r="I19" t="s">
+        <v>472</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H20" t="s">
+        <v>471</v>
+      </c>
+      <c r="I20" t="s">
+        <v>472</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F21">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H21" t="s">
+        <v>471</v>
+      </c>
+      <c r="I21" t="s">
+        <v>472</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H22" t="s">
+        <v>471</v>
+      </c>
+      <c r="I22" t="s">
+        <v>472</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H23" t="s">
+        <v>471</v>
+      </c>
+      <c r="I23" t="s">
+        <v>472</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>484</v>
+      </c>
+      <c r="F24">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" t="s">
+        <v>472</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H25" t="s">
+        <v>471</v>
+      </c>
+      <c r="I25" t="s">
+        <v>472</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H26" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" t="s">
+        <v>472</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>487</v>
+      </c>
+      <c r="F27">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>471</v>
+      </c>
+      <c r="I27" t="s">
+        <v>472</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G28">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H28" t="s">
+        <v>471</v>
+      </c>
+      <c r="I28" t="s">
+        <v>472</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H29" t="s">
+        <v>471</v>
+      </c>
+      <c r="I29" t="s">
+        <v>472</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H30" t="s">
+        <v>471</v>
+      </c>
+      <c r="I30" t="s">
+        <v>472</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>491</v>
+      </c>
+      <c r="F31">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H31" t="s">
+        <v>471</v>
+      </c>
+      <c r="I31" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H32" t="s">
+        <v>471</v>
+      </c>
+      <c r="I32" t="s">
+        <v>472</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H33" t="s">
+        <v>471</v>
+      </c>
+      <c r="I33" t="s">
+        <v>472</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>494</v>
+      </c>
+      <c r="F34">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H34" t="s">
+        <v>471</v>
+      </c>
+      <c r="I34" t="s">
+        <v>472</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H35" t="s">
+        <v>471</v>
+      </c>
+      <c r="I35" t="s">
+        <v>472</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>496</v>
+      </c>
+      <c r="F36">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H36" t="s">
+        <v>471</v>
+      </c>
+      <c r="I36" t="s">
+        <v>472</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>497</v>
+      </c>
+      <c r="F37">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H37" t="s">
+        <v>471</v>
+      </c>
+      <c r="I37" t="s">
+        <v>472</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H38" t="s">
+        <v>471</v>
+      </c>
+      <c r="I38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>499</v>
+      </c>
+      <c r="F39">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" t="s">
-        <v>466</v>
-      </c>
-      <c r="V11" t="s">
-        <v>467</v>
-      </c>
-      <c r="W11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="E12" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" t="s">
-        <v>469</v>
-      </c>
-      <c r="G12" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" t="s">
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H39" t="s">
         <v>471</v>
       </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="I39" t="s">
         <v>472</v>
       </c>
-      <c r="V12" t="s">
+      <c r="J39" t="s">
         <v>473</v>
       </c>
-      <c r="W12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="E13" t="s">
-        <v>474</v>
-      </c>
-      <c r="F13" t="s">
-        <v>475</v>
-      </c>
-      <c r="G13" t="s">
-        <v>476</v>
-      </c>
-      <c r="H13" t="s">
-        <v>477</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" t="s">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s">
-        <v>478</v>
-      </c>
-      <c r="V13" t="s">
-        <v>479</v>
-      </c>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="H15" t="s">
-        <v>484</v>
-      </c>
-      <c r="I15" t="s">
-        <v>485</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="E16" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>488</v>
-      </c>
-      <c r="I16" t="s">
-        <v>489</v>
-      </c>
-      <c r="J16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" t="s">
-        <v>491</v>
-      </c>
-      <c r="F17" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>488</v>
-      </c>
-      <c r="I17" t="s">
-        <v>489</v>
-      </c>
-      <c r="J17" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>492</v>
-      </c>
-      <c r="F18" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>488</v>
-      </c>
-      <c r="I18" t="s">
-        <v>489</v>
-      </c>
-      <c r="J18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
-        <v>493</v>
-      </c>
-      <c r="F19" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>488</v>
-      </c>
-      <c r="I19" t="s">
-        <v>489</v>
-      </c>
-      <c r="J19" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>488</v>
-      </c>
-      <c r="I20" t="s">
-        <v>489</v>
-      </c>
-      <c r="J20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
-        <v>495</v>
-      </c>
-      <c r="F21" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>488</v>
-      </c>
-      <c r="I21" t="s">
-        <v>489</v>
-      </c>
-      <c r="J21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="E22" t="s">
-        <v>496</v>
-      </c>
-      <c r="F22" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>488</v>
-      </c>
-      <c r="I22" t="s">
-        <v>489</v>
-      </c>
-      <c r="J22" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F23" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>488</v>
-      </c>
-      <c r="I23" t="s">
-        <v>489</v>
-      </c>
-      <c r="J23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>488</v>
-      </c>
-      <c r="I24" t="s">
-        <v>489</v>
-      </c>
-      <c r="J24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" t="s">
-        <v>499</v>
-      </c>
-      <c r="F25" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>488</v>
-      </c>
-      <c r="I25" t="s">
-        <v>489</v>
-      </c>
-      <c r="J25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" t="s">
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
         <v>500</v>
       </c>
-      <c r="F26" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>488</v>
-      </c>
-      <c r="I26" t="s">
-        <v>489</v>
-      </c>
-      <c r="J26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" t="s">
+      <c r="F40">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H40" t="s">
+        <v>471</v>
+      </c>
+      <c r="I40" t="s">
+        <v>472</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
         <v>501</v>
       </c>
-      <c r="F27" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>488</v>
-      </c>
-      <c r="I27" t="s">
-        <v>489</v>
-      </c>
-      <c r="J27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10">
-      <c r="E28" t="s">
+      <c r="F41">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H41" t="s">
+        <v>471</v>
+      </c>
+      <c r="I41" t="s">
+        <v>472</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
         <v>502</v>
       </c>
-      <c r="F28" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>488</v>
-      </c>
-      <c r="I28" t="s">
-        <v>489</v>
-      </c>
-      <c r="J28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10">
-      <c r="E29" t="s">
+      <c r="F42">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H42" t="s">
+        <v>471</v>
+      </c>
+      <c r="I42" t="s">
+        <v>472</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
         <v>503</v>
       </c>
-      <c r="F29" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>488</v>
-      </c>
-      <c r="I29" t="s">
-        <v>489</v>
-      </c>
-      <c r="J29" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10">
-      <c r="E30" t="s">
+      <c r="F43">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H43" t="s">
+        <v>471</v>
+      </c>
+      <c r="I43" t="s">
+        <v>472</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
         <v>504</v>
       </c>
-      <c r="F30" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>488</v>
-      </c>
-      <c r="I30" t="s">
-        <v>489</v>
-      </c>
-      <c r="J30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10">
-      <c r="E31" t="s">
+      <c r="F44">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="H44" t="s">
+        <v>471</v>
+      </c>
+      <c r="I44" t="s">
+        <v>472</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
         <v>505</v>
       </c>
-      <c r="F31" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>488</v>
-      </c>
-      <c r="I31" t="s">
-        <v>489</v>
-      </c>
-      <c r="J31" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10">
-      <c r="E32" t="s">
+      <c r="F45">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H45" t="s">
+        <v>471</v>
+      </c>
+      <c r="I45" t="s">
+        <v>472</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
         <v>506</v>
       </c>
-      <c r="F32" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>488</v>
-      </c>
-      <c r="I32" t="s">
-        <v>489</v>
-      </c>
-      <c r="J32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" t="s">
+      <c r="F46">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H46" t="s">
+        <v>471</v>
+      </c>
+      <c r="I46" t="s">
+        <v>472</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
         <v>507</v>
       </c>
-      <c r="F33" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>488</v>
-      </c>
-      <c r="I33" t="s">
-        <v>489</v>
-      </c>
-      <c r="J33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" t="s">
+      <c r="F47">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H47" t="s">
+        <v>471</v>
+      </c>
+      <c r="I47" t="s">
+        <v>472</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
         <v>508</v>
       </c>
-      <c r="F34" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>488</v>
-      </c>
-      <c r="I34" t="s">
-        <v>489</v>
-      </c>
-      <c r="J34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10">
-      <c r="E35" t="s">
+      <c r="F48">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H48" t="s">
+        <v>471</v>
+      </c>
+      <c r="I48" t="s">
+        <v>472</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
         <v>509</v>
       </c>
-      <c r="F35" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>488</v>
-      </c>
-      <c r="I35" t="s">
-        <v>489</v>
-      </c>
-      <c r="J35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10">
-      <c r="E36" t="s">
+      <c r="F49">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H49" t="s">
+        <v>471</v>
+      </c>
+      <c r="I49" t="s">
+        <v>472</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
         <v>510</v>
       </c>
-      <c r="F36" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>488</v>
-      </c>
-      <c r="I36" t="s">
-        <v>489</v>
-      </c>
-      <c r="J36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10">
-      <c r="E37" t="s">
+      <c r="F50">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$39</f>
+      </c>
+      <c r="H50" t="s">
+        <v>471</v>
+      </c>
+      <c r="I50" t="s">
+        <v>472</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
         <v>511</v>
       </c>
-      <c r="F37" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>488</v>
-      </c>
-      <c r="I37" t="s">
-        <v>489</v>
-      </c>
-      <c r="J37" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10">
-      <c r="E38" t="s">
+      <c r="F51">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G51">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="H51" t="s">
+        <v>471</v>
+      </c>
+      <c r="I51" t="s">
+        <v>472</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
         <v>512</v>
       </c>
-      <c r="F38" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>488</v>
-      </c>
-      <c r="I38" t="s">
-        <v>489</v>
-      </c>
-      <c r="J38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10">
-      <c r="E39" t="s">
+      <c r="F52">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="H52" t="s">
+        <v>471</v>
+      </c>
+      <c r="I52" t="s">
+        <v>472</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
         <v>513</v>
       </c>
-      <c r="F39" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H39" t="s">
-        <v>488</v>
-      </c>
-      <c r="I39" t="s">
-        <v>489</v>
-      </c>
-      <c r="J39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10">
-      <c r="E40" t="s">
+      <c r="F53">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G53">
+        <f>菜单SAAS版!$E$42</f>
+      </c>
+      <c r="H53" t="s">
+        <v>471</v>
+      </c>
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
         <v>514</v>
       </c>
-      <c r="F40" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H40" t="s">
-        <v>488</v>
-      </c>
-      <c r="I40" t="s">
-        <v>489</v>
-      </c>
-      <c r="J40" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10">
-      <c r="E41" t="s">
+      <c r="F54">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="H54" t="s">
+        <v>471</v>
+      </c>
+      <c r="I54" t="s">
+        <v>472</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
         <v>515</v>
       </c>
-      <c r="F41" t="str">
-        <f>角色权限!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H41" t="s">
-        <v>488</v>
-      </c>
-      <c r="I41" t="s">
-        <v>489</v>
-      </c>
-      <c r="J41" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10">
-      <c r="E42" t="s">
+      <c r="F55">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$45</f>
+      </c>
+      <c r="H55" t="s">
+        <v>471</v>
+      </c>
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
         <v>516</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F56">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H42" t="s">
-        <v>488</v>
-      </c>
-      <c r="I42" t="s">
-        <v>489</v>
-      </c>
-      <c r="J42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10">
-      <c r="E43" t="s">
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H56" t="s">
+        <v>471</v>
+      </c>
+      <c r="I56" t="s">
+        <v>472</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
         <v>517</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F57">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>488</v>
-      </c>
-      <c r="I43" t="s">
-        <v>489</v>
-      </c>
-      <c r="J43" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10">
-      <c r="E44" t="s">
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H57" t="s">
+        <v>471</v>
+      </c>
+      <c r="I57" t="s">
+        <v>472</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
         <v>518</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F58">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H44" t="s">
-        <v>488</v>
-      </c>
-      <c r="I44" t="s">
-        <v>489</v>
-      </c>
-      <c r="J44" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10">
-      <c r="E45" t="s">
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$48</f>
+      </c>
+      <c r="H58" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
         <v>519</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F59">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H45" t="s">
-        <v>488</v>
-      </c>
-      <c r="I45" t="s">
-        <v>489</v>
-      </c>
-      <c r="J45" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10">
-      <c r="E46" t="s">
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H59" t="s">
+        <v>471</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
         <v>520</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F60">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H46" t="s">
-        <v>488</v>
-      </c>
-      <c r="I46" t="s">
-        <v>489</v>
-      </c>
-      <c r="J46" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10">
-      <c r="E47" t="s">
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H60" t="s">
+        <v>471</v>
+      </c>
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
         <v>521</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F61">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H47" t="s">
-        <v>488</v>
-      </c>
-      <c r="I47" t="s">
-        <v>489</v>
-      </c>
-      <c r="J47" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10">
-      <c r="E48" t="s">
+      </c>
+      <c r="G61">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="H61" t="s">
+        <v>471</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
         <v>522</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F62">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H48" t="s">
-        <v>488</v>
-      </c>
-      <c r="I48" t="s">
-        <v>489</v>
-      </c>
-      <c r="J48" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10">
-      <c r="E49" t="s">
+      </c>
+      <c r="G62">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="H62" t="s">
+        <v>471</v>
+      </c>
+      <c r="I62" t="s">
+        <v>472</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
         <v>523</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F63">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H49" t="s">
-        <v>488</v>
-      </c>
-      <c r="I49" t="s">
-        <v>489</v>
-      </c>
-      <c r="J49" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10">
-      <c r="E50" t="s">
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$55</f>
+      </c>
+      <c r="H63" t="s">
+        <v>471</v>
+      </c>
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
         <v>524</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F64">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H50" t="s">
-        <v>488</v>
-      </c>
-      <c r="I50" t="s">
-        <v>489</v>
-      </c>
-      <c r="J50" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10">
-      <c r="E51" t="s">
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$56</f>
+      </c>
+      <c r="H64" t="s">
+        <v>471</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
         <v>525</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F65">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H51" t="s">
-        <v>488</v>
-      </c>
-      <c r="I51" t="s">
-        <v>489</v>
-      </c>
-      <c r="J51" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10">
-      <c r="E52" t="s">
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$57</f>
+      </c>
+      <c r="H65" t="s">
+        <v>471</v>
+      </c>
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
         <v>526</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F66">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H52" t="s">
-        <v>488</v>
-      </c>
-      <c r="I52" t="s">
-        <v>489</v>
-      </c>
-      <c r="J52" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10">
-      <c r="E53" t="s">
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H66" t="s">
+        <v>471</v>
+      </c>
+      <c r="I66" t="s">
+        <v>472</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
         <v>527</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F67">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="H53" t="s">
-        <v>488</v>
-      </c>
-      <c r="I53" t="s">
-        <v>489</v>
-      </c>
-      <c r="J53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10">
-      <c r="E54" t="s">
+      </c>
+      <c r="G67">
+        <f>菜单SAAS版!$E$59</f>
+      </c>
+      <c r="H67" t="s">
+        <v>471</v>
+      </c>
+      <c r="I67" t="s">
+        <v>472</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
         <v>528</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F68">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H54" t="s">
-        <v>488</v>
-      </c>
-      <c r="I54" t="s">
-        <v>489</v>
-      </c>
-      <c r="J54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10">
-      <c r="E55" t="s">
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$60</f>
+      </c>
+      <c r="H68" t="s">
+        <v>471</v>
+      </c>
+      <c r="I68" t="s">
+        <v>472</v>
+      </c>
+      <c r="J68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
         <v>529</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F69">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H55" t="s">
-        <v>488</v>
-      </c>
-      <c r="I55" t="s">
-        <v>489</v>
-      </c>
-      <c r="J55" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10">
-      <c r="E56" t="s">
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$61</f>
+      </c>
+      <c r="H69" t="s">
+        <v>471</v>
+      </c>
+      <c r="I69" t="s">
+        <v>472</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
         <v>530</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F70">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="H56" t="s">
-        <v>488</v>
-      </c>
-      <c r="I56" t="s">
-        <v>489</v>
-      </c>
-      <c r="J56" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10">
-      <c r="E57" t="s">
+      </c>
+      <c r="G70">
+        <f>菜单SAAS版!$E$63</f>
+      </c>
+      <c r="H70" t="s">
+        <v>471</v>
+      </c>
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
         <v>531</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F71">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="H57" t="s">
-        <v>488</v>
-      </c>
-      <c r="I57" t="s">
-        <v>489</v>
-      </c>
-      <c r="J57" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10">
-      <c r="E58" t="s">
+      </c>
+      <c r="G71">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H71" t="s">
+        <v>471</v>
+      </c>
+      <c r="I71" t="s">
+        <v>472</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
         <v>532</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F72">
         <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$45</f>
-        <v>iam_menu-45</v>
-      </c>
-      <c r="H58" t="s">
-        <v>488</v>
-      </c>
-      <c r="I58" t="s">
-        <v>489</v>
-      </c>
-      <c r="J58" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10">
-      <c r="E59" t="s">
-        <v>533</v>
-      </c>
-      <c r="F59" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$46</f>
-        <v>iam_menu-46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>488</v>
-      </c>
-      <c r="I59" t="s">
-        <v>489</v>
-      </c>
-      <c r="J59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10">
-      <c r="E60" t="s">
-        <v>534</v>
-      </c>
-      <c r="F60" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$47</f>
-        <v>iam_menu-47</v>
-      </c>
-      <c r="H60" t="s">
-        <v>488</v>
-      </c>
-      <c r="I60" t="s">
-        <v>489</v>
-      </c>
-      <c r="J60" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10">
-      <c r="E61" t="s">
-        <v>535</v>
-      </c>
-      <c r="F61" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$48</f>
-        <v>iam_menu-48</v>
-      </c>
-      <c r="H61" t="s">
-        <v>488</v>
-      </c>
-      <c r="I61" t="s">
-        <v>489</v>
-      </c>
-      <c r="J61" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" t="s">
-        <v>536</v>
-      </c>
-      <c r="F62" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$49</f>
-        <v>iam_menu-49</v>
-      </c>
-      <c r="H62" t="s">
-        <v>488</v>
-      </c>
-      <c r="I62" t="s">
-        <v>489</v>
-      </c>
-      <c r="J62" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
-      <c r="E63" t="s">
-        <v>537</v>
-      </c>
-      <c r="F63" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$50</f>
-        <v>iam_menu-50</v>
-      </c>
-      <c r="H63" t="s">
-        <v>488</v>
-      </c>
-      <c r="I63" t="s">
-        <v>489</v>
-      </c>
-      <c r="J63" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10">
-      <c r="E64" t="s">
-        <v>538</v>
-      </c>
-      <c r="F64" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="H64" t="s">
-        <v>488</v>
-      </c>
-      <c r="I64" t="s">
-        <v>489</v>
-      </c>
-      <c r="J64" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10">
-      <c r="E65" t="s">
-        <v>539</v>
-      </c>
-      <c r="F65" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="H65" t="s">
-        <v>488</v>
-      </c>
-      <c r="I65" t="s">
-        <v>489</v>
-      </c>
-      <c r="J65" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10">
-      <c r="E66" t="s">
-        <v>540</v>
-      </c>
-      <c r="F66" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$55</f>
-        <v>iam_menu-55</v>
-      </c>
-      <c r="H66" t="s">
-        <v>488</v>
-      </c>
-      <c r="I66" t="s">
-        <v>489</v>
-      </c>
-      <c r="J66" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10">
-      <c r="E67" t="s">
-        <v>541</v>
-      </c>
-      <c r="F67" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$56</f>
-        <v>iam_menu-56</v>
-      </c>
-      <c r="H67" t="s">
-        <v>488</v>
-      </c>
-      <c r="I67" t="s">
-        <v>489</v>
-      </c>
-      <c r="J67" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10">
-      <c r="E68" t="s">
-        <v>542</v>
-      </c>
-      <c r="F68" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
-      </c>
-      <c r="H68" t="s">
-        <v>488</v>
-      </c>
-      <c r="I68" t="s">
-        <v>489</v>
-      </c>
-      <c r="J68" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10">
-      <c r="E69" t="s">
-        <v>543</v>
-      </c>
-      <c r="F69" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G69" t="str">
-        <f>菜单SAAS版!$E$58</f>
-        <v>iam_menu-58</v>
-      </c>
-      <c r="H69" t="s">
-        <v>488</v>
-      </c>
-      <c r="I69" t="s">
-        <v>489</v>
-      </c>
-      <c r="J69" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10">
-      <c r="E70" t="s">
-        <v>544</v>
-      </c>
-      <c r="F70" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G70" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="H70" t="s">
-        <v>488</v>
-      </c>
-      <c r="I70" t="s">
-        <v>489</v>
-      </c>
-      <c r="J70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10">
-      <c r="E71" t="s">
-        <v>545</v>
-      </c>
-      <c r="F71" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G71" t="str">
-        <f>菜单SAAS版!$E$60</f>
-        <v>iam_menu-60</v>
-      </c>
-      <c r="H71" t="s">
-        <v>488</v>
-      </c>
-      <c r="I71" t="s">
-        <v>489</v>
-      </c>
-      <c r="J71" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10">
-      <c r="E72" t="s">
-        <v>546</v>
-      </c>
-      <c r="F72" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G72" t="str">
-        <f>菜单SAAS版!$E$61</f>
-        <v>iam_menu-61</v>
+      </c>
+      <c r="G72">
+        <f>菜单SAAS版!$E$65</f>
       </c>
       <c r="H72" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I72" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="J72" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="73" spans="5:10">
-      <c r="E73" t="s">
-        <v>547</v>
-      </c>
-      <c r="F73" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G73" t="str">
-        <f>菜单SAAS版!$E$63</f>
-        <v>iam_menu-63</v>
-      </c>
-      <c r="H73" t="s">
-        <v>488</v>
-      </c>
-      <c r="I73" t="s">
-        <v>489</v>
-      </c>
-      <c r="J73" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="74" spans="5:10">
-      <c r="E74" t="s">
-        <v>548</v>
-      </c>
-      <c r="F74" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G74" t="str">
-        <f>菜单SAAS版!$E$64</f>
-        <v>iam_menu-64</v>
-      </c>
-      <c r="H74" t="s">
-        <v>488</v>
-      </c>
-      <c r="I74" t="s">
-        <v>489</v>
-      </c>
-      <c r="J74" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" spans="5:10">
-      <c r="E75" t="s">
-        <v>549</v>
-      </c>
-      <c r="F75" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G75" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="H75" t="s">
-        <v>488</v>
-      </c>
-      <c r="I75" t="s">
-        <v>489</v>
-      </c>
-      <c r="J75" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-file\src\main\resources\script\db\init-data\hzero_file\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6ACAD-B7CE-4CB0-8E58-FB2DEDF7D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单标签" sheetId="5" r:id="rId3"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId4"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="557">
   <si>
     <r>
       <rPr>
@@ -3444,13 +3454,84 @@
   </si>
   <si>
     <t>iam_role_permission-72</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="61">
     <font>
       <sz val="12"/>
@@ -3570,219 +3651,262 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3923,7 +4047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3975,6 +4099,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3990,53 +4157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4376,36 +4501,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4414,21 +4539,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4539,11 +4664,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4581,19 +4706,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4617,39 +4742,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4659,13 +4786,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4677,10 +4804,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" s="52" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4701,7 +4828,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" s="53" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4726,7 +4853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4779,7 +4906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4798,8 +4925,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4835,7 +4963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -4851,8 +4979,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -4885,7 +5014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -4901,8 +5030,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -4935,7 +5065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>107</v>
       </c>
@@ -4951,8 +5081,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -4985,7 +5116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -5001,8 +5132,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -5035,7 +5167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -5051,8 +5183,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
         <v>100</v>
@@ -5082,7 +5215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -5101,8 +5234,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5135,7 +5269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -5151,8 +5285,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -5182,7 +5317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>129</v>
       </c>
@@ -5198,8 +5333,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -5229,7 +5365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>133</v>
       </c>
@@ -5248,8 +5384,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
         <v>92</v>
@@ -5285,7 +5422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>142</v>
       </c>
@@ -5301,8 +5438,9 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5332,7 +5470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>146</v>
       </c>
@@ -5351,8 +5489,9 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -5382,7 +5521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -5401,8 +5540,9 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -5435,7 +5575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>159</v>
       </c>
@@ -5451,8 +5591,9 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -5482,7 +5623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>163</v>
       </c>
@@ -5498,8 +5639,9 @@
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5529,7 +5671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>167</v>
       </c>
@@ -5545,8 +5687,9 @@
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -5579,7 +5722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>172</v>
       </c>
@@ -5632,7 +5775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>176</v>
       </c>
@@ -5651,8 +5794,9 @@
       <c r="J26" t="s">
         <v>174</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>92</v>
@@ -5688,7 +5832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>180</v>
       </c>
@@ -5704,8 +5848,9 @@
       <c r="J27" t="s">
         <v>174</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -5738,7 +5883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>183</v>
       </c>
@@ -5754,8 +5899,9 @@
       <c r="J28" t="s">
         <v>174</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5788,7 +5934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5804,8 +5950,9 @@
       <c r="J29" t="s">
         <v>174</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -5838,7 +5985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:24">
       <c r="E30" t="s">
         <v>189</v>
       </c>
@@ -5854,8 +6001,9 @@
       <c r="J30" t="s">
         <v>174</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -5888,7 +6036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:24">
       <c r="E31" t="s">
         <v>192</v>
       </c>
@@ -5904,8 +6052,9 @@
       <c r="J31" t="s">
         <v>174</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L31" t="s">
         <v>100</v>
@@ -5935,7 +6084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:24">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -5951,8 +6100,9 @@
       <c r="J32" t="s">
         <v>174</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -5982,7 +6132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24">
       <c r="E33" t="s">
         <v>198</v>
       </c>
@@ -5998,8 +6148,9 @@
       <c r="J33" t="s">
         <v>174</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L33" t="s">
         <v>100</v>
@@ -6029,7 +6180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24">
       <c r="E34" t="s">
         <v>201</v>
       </c>
@@ -6045,8 +6196,9 @@
       <c r="J34" t="s">
         <v>174</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L34" t="s">
         <v>100</v>
@@ -6076,7 +6228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24">
       <c r="E35" t="s">
         <v>204</v>
       </c>
@@ -6095,8 +6247,9 @@
       <c r="J35" t="s">
         <v>174</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6132,7 +6285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24">
       <c r="E36" t="s">
         <v>212</v>
       </c>
@@ -6148,8 +6301,9 @@
       <c r="J36" t="s">
         <v>174</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6182,7 +6336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24">
       <c r="E37" t="s">
         <v>216</v>
       </c>
@@ -6198,8 +6352,9 @@
       <c r="J37" t="s">
         <v>174</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L37" t="s">
         <v>100</v>
@@ -6232,7 +6387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24">
       <c r="E38" t="s">
         <v>220</v>
       </c>
@@ -6248,8 +6403,9 @@
       <c r="J38" t="s">
         <v>174</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6282,7 +6438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:24">
       <c r="E39" t="s">
         <v>224</v>
       </c>
@@ -6298,8 +6454,9 @@
       <c r="J39" t="s">
         <v>174</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L39" t="s">
         <v>100</v>
@@ -6332,7 +6489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:24">
       <c r="E40" t="s">
         <v>228</v>
       </c>
@@ -6348,8 +6505,9 @@
       <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L40" t="s">
         <v>100</v>
@@ -6379,7 +6537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24">
       <c r="E41" t="s">
         <v>232</v>
       </c>
@@ -6395,8 +6553,9 @@
       <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6429,7 +6588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24">
       <c r="E42" t="s">
         <v>237</v>
       </c>
@@ -6445,8 +6604,9 @@
       <c r="J42" t="s">
         <v>174</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L42" t="s">
         <v>100</v>
@@ -6476,7 +6636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24">
       <c r="E43" t="s">
         <v>241</v>
       </c>
@@ -6492,8 +6652,9 @@
       <c r="J43" t="s">
         <v>174</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6523,7 +6684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24">
       <c r="E44" t="s">
         <v>245</v>
       </c>
@@ -6542,8 +6703,9 @@
       <c r="J44" t="s">
         <v>174</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -6579,7 +6741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24">
       <c r="E45" t="s">
         <v>253</v>
       </c>
@@ -6595,8 +6757,9 @@
       <c r="J45" t="s">
         <v>174</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L45" t="s">
         <v>100</v>
@@ -6629,7 +6792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24">
       <c r="E46" t="s">
         <v>257</v>
       </c>
@@ -6645,8 +6808,9 @@
       <c r="J46" t="s">
         <v>174</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -6679,7 +6843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:24">
       <c r="E47" t="s">
         <v>261</v>
       </c>
@@ -6695,8 +6859,9 @@
       <c r="J47" t="s">
         <v>174</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L47" t="s">
         <v>100</v>
@@ -6729,7 +6894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24">
       <c r="E48" t="s">
         <v>265</v>
       </c>
@@ -6745,8 +6910,9 @@
       <c r="J48" t="s">
         <v>174</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -6779,7 +6945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:24">
       <c r="E49" t="s">
         <v>269</v>
       </c>
@@ -6795,8 +6961,9 @@
       <c r="J49" t="s">
         <v>174</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L49" t="s">
         <v>100</v>
@@ -6829,7 +6996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:24">
       <c r="E50" t="s">
         <v>273</v>
       </c>
@@ -6845,8 +7012,9 @@
       <c r="J50" t="s">
         <v>174</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -6879,7 +7047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:24">
       <c r="E51" t="s">
         <v>277</v>
       </c>
@@ -6898,8 +7066,9 @@
       <c r="J51" t="s">
         <v>174</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L51" t="s">
         <v>100</v>
@@ -6929,7 +7098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:24">
       <c r="E52" t="s">
         <v>282</v>
       </c>
@@ -6948,8 +7117,9 @@
       <c r="J52" t="s">
         <v>174</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L52" t="s">
         <v>92</v>
@@ -6985,7 +7155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:24">
       <c r="E53" t="s">
         <v>285</v>
       </c>
@@ -7004,8 +7174,9 @@
       <c r="J53" t="s">
         <v>174</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="L53" t="s">
         <v>100</v>
@@ -7035,7 +7206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:24">
       <c r="E54" t="s">
         <v>288</v>
       </c>
@@ -7054,8 +7225,9 @@
       <c r="J54" t="s">
         <v>174</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L54" t="s">
         <v>92</v>
@@ -7091,7 +7263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:24">
       <c r="E55" t="s">
         <v>296</v>
       </c>
@@ -7107,8 +7279,9 @@
       <c r="J55" t="s">
         <v>174</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L55" t="s">
         <v>100</v>
@@ -7141,7 +7314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:24">
       <c r="E56" t="s">
         <v>300</v>
       </c>
@@ -7157,8 +7330,9 @@
       <c r="J56" t="s">
         <v>174</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -7191,7 +7365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:24">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -7207,8 +7381,9 @@
       <c r="J57" t="s">
         <v>174</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L57" t="s">
         <v>100</v>
@@ -7241,7 +7416,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:24">
       <c r="E58" t="s">
         <v>308</v>
       </c>
@@ -7257,8 +7432,9 @@
       <c r="J58" t="s">
         <v>174</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L58" t="s">
         <v>100</v>
@@ -7288,7 +7464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:24">
       <c r="E59" t="s">
         <v>312</v>
       </c>
@@ -7307,8 +7483,9 @@
       <c r="J59" t="s">
         <v>174</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L59" t="s">
         <v>100</v>
@@ -7341,7 +7518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:24">
       <c r="E60" t="s">
         <v>317</v>
       </c>
@@ -7357,8 +7534,9 @@
       <c r="J60" t="s">
         <v>174</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L60" t="s">
         <v>100</v>
@@ -7388,7 +7566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:24">
       <c r="E61" t="s">
         <v>321</v>
       </c>
@@ -7404,8 +7582,9 @@
       <c r="J61" t="s">
         <v>174</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L61" t="s">
         <v>100</v>
@@ -7435,7 +7614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:24">
       <c r="E62" t="s">
         <v>325</v>
       </c>
@@ -7454,8 +7633,9 @@
       <c r="J62" t="s">
         <v>174</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L62" t="s">
         <v>92</v>
@@ -7488,7 +7668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:24">
       <c r="E63" t="s">
         <v>330</v>
       </c>
@@ -7504,8 +7684,9 @@
       <c r="J63" t="s">
         <v>174</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L63" t="s">
         <v>100</v>
@@ -7535,7 +7716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:24">
       <c r="E64" t="s">
         <v>333</v>
       </c>
@@ -7551,8 +7732,9 @@
       <c r="J64" t="s">
         <v>174</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L64" t="s">
         <v>100</v>
@@ -7582,7 +7764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:24">
       <c r="E65" t="s">
         <v>336</v>
       </c>
@@ -7598,8 +7780,9 @@
       <c r="J65" t="s">
         <v>174</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L65" t="s">
         <v>100</v>
@@ -7633,44 +7816,1301 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEFFA09-F635-454A-8227-008EBA885921}">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="E4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="H7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M7" t="s">
+        <v>540</v>
+      </c>
+      <c r="N7" t="s">
+        <v>541</v>
+      </c>
+      <c r="O7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>546</v>
+      </c>
+      <c r="J8" t="s">
+        <v>547</v>
+      </c>
+      <c r="K8" t="s">
+        <v>547</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="I10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" t="s">
+        <v>545</v>
+      </c>
+      <c r="G11" t="str">
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H11" s="75" t="str">
+        <f>$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F12" t="s">
+        <v>545</v>
+      </c>
+      <c r="G12" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H12" s="75" t="str">
+        <f t="shared" ref="H12:H68" si="0">$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>555</v>
+      </c>
+      <c r="F13" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H13" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" t="s">
+        <v>545</v>
+      </c>
+      <c r="G14" t="str">
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H14" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" t="s">
+        <v>545</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H15" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>555</v>
+      </c>
+      <c r="F16" t="s">
+        <v>545</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H16" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" t="s">
+        <v>545</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H17" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>555</v>
+      </c>
+      <c r="F18" t="s">
+        <v>545</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H18" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>555</v>
+      </c>
+      <c r="F19" t="s">
+        <v>545</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H19" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" t="s">
+        <v>545</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H20" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H21" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>555</v>
+      </c>
+      <c r="F22" t="s">
+        <v>545</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H22" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" t="s">
+        <v>555</v>
+      </c>
+      <c r="F23" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="H23" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>555</v>
+      </c>
+      <c r="F24" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E21</f>
+        <v>iam_menu-21</v>
+      </c>
+      <c r="H24" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>555</v>
+      </c>
+      <c r="F25" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!E22</f>
+        <v>iam_menu-22</v>
+      </c>
+      <c r="H25" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>555</v>
+      </c>
+      <c r="F26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!E23</f>
+        <v>iam_menu-23</v>
+      </c>
+      <c r="H26" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" t="s">
+        <v>555</v>
+      </c>
+      <c r="F27" t="s">
+        <v>545</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!E24</f>
+        <v>iam_menu-24</v>
+      </c>
+      <c r="H27" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" t="s">
+        <v>555</v>
+      </c>
+      <c r="F28" t="s">
+        <v>545</v>
+      </c>
+      <c r="G28" t="str">
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H28" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>555</v>
+      </c>
+      <c r="F29" t="s">
+        <v>545</v>
+      </c>
+      <c r="G29" t="str">
+        <f>菜单SAAS版!E26</f>
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H29" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" t="s">
+        <v>555</v>
+      </c>
+      <c r="F30" t="s">
+        <v>545</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!E27</f>
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H30" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" t="s">
+        <v>555</v>
+      </c>
+      <c r="F31" t="s">
+        <v>545</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!E28</f>
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H31" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" t="s">
+        <v>555</v>
+      </c>
+      <c r="F32" t="s">
+        <v>545</v>
+      </c>
+      <c r="G32" t="str">
+        <f>菜单SAAS版!E29</f>
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H32" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G33" t="str">
+        <f>菜单SAAS版!E30</f>
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H33" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>555</v>
+      </c>
+      <c r="F34" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" t="str">
+        <f>菜单SAAS版!E31</f>
+        <v>iam_menu-31</v>
+      </c>
+      <c r="H34" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" t="s">
+        <v>555</v>
+      </c>
+      <c r="F35" t="s">
+        <v>545</v>
+      </c>
+      <c r="G35" t="str">
+        <f>菜单SAAS版!E32</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="H35" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" t="s">
+        <v>555</v>
+      </c>
+      <c r="F36" t="s">
+        <v>545</v>
+      </c>
+      <c r="G36" t="str">
+        <f>菜单SAAS版!E33</f>
+        <v>iam_menu-33</v>
+      </c>
+      <c r="H36" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>555</v>
+      </c>
+      <c r="F37" t="s">
+        <v>545</v>
+      </c>
+      <c r="G37" t="str">
+        <f>菜单SAAS版!E34</f>
+        <v>iam_menu-34</v>
+      </c>
+      <c r="H37" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>555</v>
+      </c>
+      <c r="F38" t="s">
+        <v>545</v>
+      </c>
+      <c r="G38" t="str">
+        <f>菜单SAAS版!E35</f>
+        <v>iam_menu-35</v>
+      </c>
+      <c r="H38" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" t="s">
+        <v>555</v>
+      </c>
+      <c r="F39" t="s">
+        <v>545</v>
+      </c>
+      <c r="G39" t="str">
+        <f>菜单SAAS版!E36</f>
+        <v>iam_menu-36</v>
+      </c>
+      <c r="H39" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" t="s">
+        <v>555</v>
+      </c>
+      <c r="F40" t="s">
+        <v>545</v>
+      </c>
+      <c r="G40" t="str">
+        <f>菜单SAAS版!E37</f>
+        <v>iam_menu-37</v>
+      </c>
+      <c r="H40" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" t="s">
+        <v>555</v>
+      </c>
+      <c r="F41" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" t="str">
+        <f>菜单SAAS版!E38</f>
+        <v>iam_menu-38</v>
+      </c>
+      <c r="H41" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" t="s">
+        <v>555</v>
+      </c>
+      <c r="F42" t="s">
+        <v>545</v>
+      </c>
+      <c r="G42" t="str">
+        <f>菜单SAAS版!E39</f>
+        <v>iam_menu-39</v>
+      </c>
+      <c r="H42" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" t="s">
+        <v>555</v>
+      </c>
+      <c r="F43" t="s">
+        <v>545</v>
+      </c>
+      <c r="G43" t="str">
+        <f>菜单SAAS版!E40</f>
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H43" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" t="s">
+        <v>555</v>
+      </c>
+      <c r="F44" t="s">
+        <v>545</v>
+      </c>
+      <c r="G44" t="str">
+        <f>菜单SAAS版!E41</f>
+        <v>iam_menu-41</v>
+      </c>
+      <c r="H44" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" t="s">
+        <v>555</v>
+      </c>
+      <c r="F45" t="s">
+        <v>545</v>
+      </c>
+      <c r="G45" t="str">
+        <f>菜单SAAS版!E42</f>
+        <v>iam_menu-42</v>
+      </c>
+      <c r="H45" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" t="s">
+        <v>555</v>
+      </c>
+      <c r="F46" t="s">
+        <v>545</v>
+      </c>
+      <c r="G46" t="str">
+        <f>菜单SAAS版!E43</f>
+        <v>iam_menu-43</v>
+      </c>
+      <c r="H46" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" t="s">
+        <v>555</v>
+      </c>
+      <c r="F47" t="s">
+        <v>545</v>
+      </c>
+      <c r="G47" t="str">
+        <f>菜单SAAS版!E44</f>
+        <v>iam_menu-44</v>
+      </c>
+      <c r="H47" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I47" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" t="s">
+        <v>555</v>
+      </c>
+      <c r="F48" t="s">
+        <v>545</v>
+      </c>
+      <c r="G48" t="str">
+        <f>菜单SAAS版!E45</f>
+        <v>iam_menu-45</v>
+      </c>
+      <c r="H48" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" t="s">
+        <v>555</v>
+      </c>
+      <c r="F49" t="s">
+        <v>545</v>
+      </c>
+      <c r="G49" t="str">
+        <f>菜单SAAS版!E46</f>
+        <v>iam_menu-46</v>
+      </c>
+      <c r="H49" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" t="s">
+        <v>555</v>
+      </c>
+      <c r="F50" t="s">
+        <v>545</v>
+      </c>
+      <c r="G50" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
+      </c>
+      <c r="H50" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" t="s">
+        <v>555</v>
+      </c>
+      <c r="F51" t="s">
+        <v>545</v>
+      </c>
+      <c r="G51" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
+      </c>
+      <c r="H51" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
+      <c r="E52" t="s">
+        <v>555</v>
+      </c>
+      <c r="F52" t="s">
+        <v>545</v>
+      </c>
+      <c r="G52" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
+      </c>
+      <c r="H52" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" t="s">
+        <v>555</v>
+      </c>
+      <c r="F53" t="s">
+        <v>545</v>
+      </c>
+      <c r="G53" t="str">
+        <f>菜单SAAS版!E50</f>
+        <v>iam_menu-50</v>
+      </c>
+      <c r="H53" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" t="s">
+        <v>555</v>
+      </c>
+      <c r="F54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G54" t="str">
+        <f>菜单SAAS版!E51</f>
+        <v>iam_menu-51</v>
+      </c>
+      <c r="H54" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9">
+      <c r="E55" t="s">
+        <v>555</v>
+      </c>
+      <c r="F55" t="s">
+        <v>545</v>
+      </c>
+      <c r="G55" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
+      </c>
+      <c r="H55" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
+      <c r="E56" t="s">
+        <v>555</v>
+      </c>
+      <c r="F56" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
+      </c>
+      <c r="H56" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9">
+      <c r="E57" t="s">
+        <v>555</v>
+      </c>
+      <c r="F57" t="s">
+        <v>545</v>
+      </c>
+      <c r="G57" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
+      </c>
+      <c r="H57" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" t="s">
+        <v>555</v>
+      </c>
+      <c r="F58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G58" t="str">
+        <f>菜单SAAS版!E55</f>
+        <v>iam_menu-55</v>
+      </c>
+      <c r="H58" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9">
+      <c r="E59" t="s">
+        <v>555</v>
+      </c>
+      <c r="F59" t="s">
+        <v>545</v>
+      </c>
+      <c r="G59" t="str">
+        <f>菜单SAAS版!E56</f>
+        <v>iam_menu-56</v>
+      </c>
+      <c r="H59" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9">
+      <c r="E60" t="s">
+        <v>555</v>
+      </c>
+      <c r="F60" t="s">
+        <v>545</v>
+      </c>
+      <c r="G60" t="str">
+        <f>菜单SAAS版!E57</f>
+        <v>iam_menu-57</v>
+      </c>
+      <c r="H60" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" t="s">
+        <v>555</v>
+      </c>
+      <c r="F61" t="s">
+        <v>545</v>
+      </c>
+      <c r="G61" t="str">
+        <f>菜单SAAS版!E58</f>
+        <v>iam_menu-58</v>
+      </c>
+      <c r="H61" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9">
+      <c r="E62" t="s">
+        <v>555</v>
+      </c>
+      <c r="F62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G62" t="str">
+        <f>菜单SAAS版!E59</f>
+        <v>iam_menu-59</v>
+      </c>
+      <c r="H62" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9">
+      <c r="E63" t="s">
+        <v>555</v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" t="str">
+        <f>菜单SAAS版!E60</f>
+        <v>iam_menu-60</v>
+      </c>
+      <c r="H63" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" t="s">
+        <v>555</v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+      <c r="G64" t="str">
+        <f>菜单SAAS版!E61</f>
+        <v>iam_menu-61</v>
+      </c>
+      <c r="H64" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F65" t="s">
+        <v>545</v>
+      </c>
+      <c r="G65" t="str">
+        <f>菜单SAAS版!E62</f>
+        <v>iam_menu-62</v>
+      </c>
+      <c r="H65" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" t="s">
+        <v>555</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+      <c r="G66" t="str">
+        <f>菜单SAAS版!E63</f>
+        <v>iam_menu-63</v>
+      </c>
+      <c r="H66" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" t="s">
+        <v>555</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" t="str">
+        <f>菜单SAAS版!E64</f>
+        <v>iam_menu-64</v>
+      </c>
+      <c r="H67" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" t="s">
+        <v>555</v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="str">
+        <f>菜单SAAS版!E65</f>
+        <v>iam_menu-65</v>
+      </c>
+      <c r="H68" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7680,619 +9120,671 @@
       <c r="C7" t="s">
         <v>339</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" s="57" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>343</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>345</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>347</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>348</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>350</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>352</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>354</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>356</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>358</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>360</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>362</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>364</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>366</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>368</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>370</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G22" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>372</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>374</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>376</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>378</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>380</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>382</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G28" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>384</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>386</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>387</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G31" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>388</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G32" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>390</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G33" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>391</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G34" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>392</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G35" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>394</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G37" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>397</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="G38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>398</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>399</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G40" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>400</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G41" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>402</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G42" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>404</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G43" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>405</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G44" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>407</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G45" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>409</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G46" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>411</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>413</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G48" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>414</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G49" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:7">
       <c r="E50" t="s">
         <v>416</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:7">
       <c r="E51" t="s">
         <v>418</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G51" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:7">
       <c r="E52" t="s">
         <v>420</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G52" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:7">
       <c r="E53" t="s">
         <v>422</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="G53" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:7">
       <c r="E54" t="s">
         <v>423</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:7">
       <c r="E55" t="s">
         <v>424</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G55" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:7">
       <c r="E56" t="s">
         <v>426</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G56" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:7">
       <c r="E57" t="s">
         <v>428</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:7">
       <c r="E58" t="s">
         <v>430</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G58" t="s">
         <v>431</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:23">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:23">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8302,10 +9794,10 @@
       <c r="C7" t="s">
         <v>432</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" s="59" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -8314,7 +9806,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="65">
+      <c r="H7" s="60" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -8323,16 +9815,16 @@
       <c r="J7" t="s">
         <v>435</v>
       </c>
-      <c r="K7" t="s" s="66">
+      <c r="K7" s="61" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>436</v>
       </c>
-      <c r="M7" t="s" s="67">
+      <c r="M7" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="N7" t="s" s="68">
+      <c r="N7" s="63" t="s">
         <v>438</v>
       </c>
       <c r="O7" t="s">
@@ -8359,11 +9851,11 @@
       <c r="V7" t="s">
         <v>445</v>
       </c>
-      <c r="W7" t="s" s="69">
+      <c r="W7" s="64" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>447</v>
       </c>
@@ -8422,7 +9914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>452</v>
       </c>
@@ -8481,7 +9973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23">
       <c r="E10" t="s">
         <v>457</v>
       </c>
@@ -8503,8 +9995,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -8537,7 +10030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8547,16 +10040,16 @@
       <c r="C12" t="s">
         <v>463</v>
       </c>
-      <c r="D12" t="s" s="70">
+      <c r="D12" s="65" t="s">
         <v>464</v>
       </c>
-      <c r="E12" t="s" s="71">
+      <c r="E12" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="72">
+      <c r="F12" s="67" t="s">
         <v>465</v>
       </c>
-      <c r="G12" t="s" s="73">
+      <c r="G12" s="68" t="s">
         <v>466</v>
       </c>
       <c r="H12" t="s">
@@ -8565,19 +10058,21 @@
       <c r="I12" t="s">
         <v>468</v>
       </c>
-      <c r="J12" t="s" s="74">
+      <c r="J12" s="69" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23">
       <c r="E13" t="s">
         <v>470</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H13" t="s">
         <v>471</v>
@@ -8589,15 +10084,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23">
       <c r="E14" t="s">
         <v>474</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H14" t="s">
         <v>471</v>
@@ -8609,15 +10106,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
         <v>475</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H15" t="s">
         <v>471</v>
@@ -8629,15 +10128,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23">
       <c r="E16" t="s">
         <v>476</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H16" t="s">
         <v>471</v>
@@ -8649,15 +10150,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
         <v>477</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H17" t="s">
         <v>471</v>
@@ -8669,15 +10172,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
         <v>478</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H18" t="s">
         <v>471</v>
@@ -8689,15 +10194,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
         <v>479</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H19" t="s">
         <v>471</v>
@@ -8709,15 +10216,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
         <v>480</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H20" t="s">
         <v>471</v>
@@ -8729,15 +10238,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:10">
       <c r="E21" t="s">
         <v>481</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H21" t="s">
         <v>471</v>
@@ -8749,15 +10260,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
         <v>482</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
         <v>471</v>
@@ -8769,15 +10282,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:10">
       <c r="E23" t="s">
         <v>483</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
         <v>471</v>
@@ -8789,15 +10304,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
         <v>484</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H24" t="s">
         <v>471</v>
@@ -8809,15 +10326,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:10">
       <c r="E25" t="s">
         <v>485</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G25">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H25" t="s">
         <v>471</v>
@@ -8829,15 +10348,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:10">
       <c r="E26" t="s">
         <v>486</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G26">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H26" t="s">
         <v>471</v>
@@ -8849,15 +10370,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:10">
       <c r="E27" t="s">
         <v>487</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G27">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
         <v>471</v>
@@ -8869,15 +10392,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:10">
       <c r="E28" t="s">
         <v>488</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G28">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
         <v>471</v>
@@ -8889,15 +10414,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:10">
       <c r="E29" t="s">
         <v>489</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G29">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
         <v>471</v>
@@ -8909,15 +10436,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:10">
       <c r="E30" t="s">
         <v>490</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G30">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
         <v>471</v>
@@ -8929,15 +10458,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:10">
       <c r="E31" t="s">
         <v>491</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G31">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H31" t="s">
         <v>471</v>
@@ -8949,15 +10480,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:10">
       <c r="E32" t="s">
         <v>492</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G32">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H32" t="s">
         <v>471</v>
@@ -8969,15 +10502,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:10">
       <c r="E33" t="s">
         <v>493</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G33">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H33" t="s">
         <v>471</v>
@@ -8989,15 +10524,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:10">
       <c r="E34" t="s">
         <v>494</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G34">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H34" t="s">
         <v>471</v>
@@ -9009,15 +10546,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:10">
       <c r="E35" t="s">
         <v>495</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G35">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H35" t="s">
         <v>471</v>
@@ -9029,15 +10568,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:10">
       <c r="E36" t="s">
         <v>496</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G36">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H36" t="s">
         <v>471</v>
@@ -9049,15 +10590,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:10">
       <c r="E37" t="s">
         <v>497</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G37">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H37" t="s">
         <v>471</v>
@@ -9069,15 +10612,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:10">
       <c r="E38" t="s">
         <v>498</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G38">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H38" t="s">
         <v>471</v>
@@ -9089,15 +10634,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:10">
       <c r="E39" t="s">
         <v>499</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G39">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
         <v>471</v>
@@ -9109,15 +10656,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:10">
       <c r="E40" t="s">
         <v>500</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G40">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H40" t="s">
         <v>471</v>
@@ -9129,15 +10678,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:10">
       <c r="E41" t="s">
         <v>501</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G41">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H41" t="s">
         <v>471</v>
@@ -9149,15 +10700,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:10">
       <c r="E42" t="s">
         <v>502</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G42">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H42" t="s">
         <v>471</v>
@@ -9169,15 +10722,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:10">
       <c r="E43" t="s">
         <v>503</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G43">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H43" t="s">
         <v>471</v>
@@ -9189,15 +10744,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:10">
       <c r="E44" t="s">
         <v>504</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G44">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H44" t="s">
         <v>471</v>
@@ -9209,15 +10766,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:10">
       <c r="E45" t="s">
         <v>505</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G45">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G45" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="H45" t="s">
         <v>471</v>
@@ -9229,15 +10788,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:10">
       <c r="E46" t="s">
         <v>506</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G46">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H46" t="s">
         <v>471</v>
@@ -9249,15 +10810,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:10">
       <c r="E47" t="s">
         <v>507</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G47">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H47" t="s">
         <v>471</v>
@@ -9269,15 +10832,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:10">
       <c r="E48" t="s">
         <v>508</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G48">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H48" t="s">
         <v>471</v>
@@ -9289,15 +10854,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:10">
       <c r="E49" t="s">
         <v>509</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G49">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G49" t="str">
         <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H49" t="s">
         <v>471</v>
@@ -9309,15 +10876,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:10">
       <c r="E50" t="s">
         <v>510</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G50">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H50" t="s">
         <v>471</v>
@@ -9329,15 +10898,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:10">
       <c r="E51" t="s">
         <v>511</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G51">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H51" t="s">
         <v>471</v>
@@ -9349,15 +10920,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:10">
       <c r="E52" t="s">
         <v>512</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G52">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G52" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H52" t="s">
         <v>471</v>
@@ -9369,15 +10942,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:10">
       <c r="E53" t="s">
         <v>513</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G53">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G53" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H53" t="s">
         <v>471</v>
@@ -9389,15 +10964,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:10">
       <c r="E54" t="s">
         <v>514</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G54">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H54" t="s">
         <v>471</v>
@@ -9409,15 +10986,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:10">
       <c r="E55" t="s">
         <v>515</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G55">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G55" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="H55" t="s">
         <v>471</v>
@@ -9429,15 +11008,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:10">
       <c r="E56" t="s">
         <v>516</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G56">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="H56" t="s">
         <v>471</v>
@@ -9449,15 +11030,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:10">
       <c r="E57" t="s">
         <v>517</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G57">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="H57" t="s">
         <v>471</v>
@@ -9469,15 +11052,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:10">
       <c r="E58" t="s">
         <v>518</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G58">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="H58" t="s">
         <v>471</v>
@@ -9489,15 +11074,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:10">
       <c r="E59" t="s">
         <v>519</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G59">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G59" t="str">
         <f>菜单SAAS版!$E$49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="H59" t="s">
         <v>471</v>
@@ -9509,15 +11096,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:10">
       <c r="E60" t="s">
         <v>520</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G60">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G60" t="str">
         <f>菜单SAAS版!$E$50</f>
+        <v>iam_menu-50</v>
       </c>
       <c r="H60" t="s">
         <v>471</v>
@@ -9529,15 +11118,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:10">
       <c r="E61" t="s">
         <v>521</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G61">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G61" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="H61" t="s">
         <v>471</v>
@@ -9549,15 +11140,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:10">
       <c r="E62" t="s">
         <v>522</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G62">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G62" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="H62" t="s">
         <v>471</v>
@@ -9569,15 +11162,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:10">
       <c r="E63" t="s">
         <v>523</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G63">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G63" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="H63" t="s">
         <v>471</v>
@@ -9589,15 +11184,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:10">
       <c r="E64" t="s">
         <v>524</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G64">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G64" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="H64" t="s">
         <v>471</v>
@@ -9609,15 +11206,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:10">
       <c r="E65" t="s">
         <v>525</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G65">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G65" t="str">
         <f>菜单SAAS版!$E$57</f>
+        <v>iam_menu-57</v>
       </c>
       <c r="H65" t="s">
         <v>471</v>
@@ -9629,15 +11228,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:10">
       <c r="E66" t="s">
         <v>526</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G66">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G66" t="str">
         <f>菜单SAAS版!$E$58</f>
+        <v>iam_menu-58</v>
       </c>
       <c r="H66" t="s">
         <v>471</v>
@@ -9649,15 +11250,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:10">
       <c r="E67" t="s">
         <v>527</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G67">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G67" t="str">
         <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="H67" t="s">
         <v>471</v>
@@ -9669,15 +11272,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:10">
       <c r="E68" t="s">
         <v>528</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G68">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G68" t="str">
         <f>菜单SAAS版!$E$60</f>
+        <v>iam_menu-60</v>
       </c>
       <c r="H68" t="s">
         <v>471</v>
@@ -9689,15 +11294,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:10">
       <c r="E69" t="s">
         <v>529</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G69">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G69" t="str">
         <f>菜单SAAS版!$E$61</f>
+        <v>iam_menu-61</v>
       </c>
       <c r="H69" t="s">
         <v>471</v>
@@ -9709,15 +11316,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="5:10">
       <c r="E70" t="s">
         <v>530</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G70">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G70" t="str">
         <f>菜单SAAS版!$E$63</f>
+        <v>iam_menu-63</v>
       </c>
       <c r="H70" t="s">
         <v>471</v>
@@ -9729,15 +11338,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="5:10">
       <c r="E71" t="s">
         <v>531</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G71">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G71" t="str">
         <f>菜单SAAS版!$E$64</f>
+        <v>iam_menu-64</v>
       </c>
       <c r="H71" t="s">
         <v>471</v>
@@ -9749,15 +11360,17 @@
         <v>473</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="5:10">
       <c r="E72" t="s">
         <v>532</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G72">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G72" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="H72" t="s">
         <v>471</v>
@@ -9770,6 +11383,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -1,44 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-file\src\main\resources\script\db\init-data\hzero_file\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F6ACAD-B7CE-4CB0-8E58-FB2DEDF7D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单标签" sheetId="5" r:id="rId3"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId4"/>
-    <sheet name="角色权限" sheetId="4" r:id="rId5"/>
+    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
+    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="566">
   <si>
     <r>
       <rPr>
@@ -2007,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2895,162 +2886,168 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
+    <t>hzero-file.file-summary-list.pageFileList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
     <t>hzero-file.file-edit-log.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-10</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
     <t>HDPM.HDFM_DATASOURCE</t>
   </si>
   <si>
-    <t>iam_menu_permission-12</t>
+    <t>iam_menu_permission-13</t>
   </si>
   <si>
     <t>HDPM.LOV_DATA</t>
   </si>
   <si>
-    <t>iam_menu_permission-13</t>
+    <t>iam_menu_permission-14</t>
   </si>
   <si>
     <t>HDPM.PRI_ATTR_LOV</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
+    <t>iam_menu_permission-15</t>
   </si>
   <si>
     <t>HLOD.BASIC_EVENT_FRNOT</t>
   </si>
   <si>
-    <t>iam_menu_permission-15</t>
+    <t>iam_menu_permission-16</t>
   </si>
   <si>
     <t>HLOD.EVENT_COL_FRONT</t>
   </si>
   <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-17</t>
   </si>
   <si>
     <t>HLOD.EVENT_COL_SERVICE</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
+    <t>iam_menu_permission-18</t>
   </si>
   <si>
     <t>HLOD.EXEDCUTE_EVENT_TYPE</t>
   </si>
   <si>
-    <t>iam_menu_permission-18</t>
+    <t>iam_menu_permission-19</t>
   </si>
   <si>
     <t>HLOD.OPEN_EVENT_TYPE</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-20</t>
   </si>
   <si>
     <t>hzero-platform.lov-manage.listLovHeaders</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>hzero-platform.lov-view-manage.pageLovViewHeaders</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>hzero-file.watermark-config.createWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>hzero-file.watermark-config.detailWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-23</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>hzero-file.watermark-config.pageWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>hzero-file.watermark-config.updateWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-26</t>
   </si>
   <si>
     <t>HFLE.SERVER_CONFIG</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-27</t>
   </si>
   <si>
     <t>HPFM.TENANT_PAGING</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>hzero-file.file-summary-list-site-level.pageFileList</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>hzero-file.file-capacity-config-site-level.update</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-30</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.createUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-31</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.updateUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
     <t>hzero-file.file-capacity-config-site-level.pageCapacityConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-34</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
     <t>hzero-file.file-upload-config-site-level.deleteUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
+    <t>iam_menu_permission-38</t>
   </si>
   <si>
     <t>hzero-file.file-upload-config-site-level.detailUploadConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-37</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-38</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
@@ -3060,94 +3057,100 @@
     <t>iam_menu_permission-41</t>
   </si>
   <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
     <t>HPFM.SERVER</t>
   </si>
   <si>
-    <t>iam_menu_permission-42</t>
+    <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>HPFM.SERVER_CLUSTER</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.createConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-45</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.detailConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-46</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.pageConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-47</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>hzero-file.server-upload-config-site-level.updateConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>hzero-file.file-edit-log-site-level.list</t>
   </si>
   <si>
-    <t>iam_menu_permission-50</t>
+    <t>iam_menu_permission-52</t>
   </si>
   <si>
     <t>hzero-workflow-plus.process-monitor-site-level.activeProc</t>
   </si>
   <si>
-    <t>iam_menu_permission-51</t>
+    <t>iam_menu_permission-53</t>
   </si>
   <si>
     <t>hzero-workflow-plus.process-monitor-site-level.suspendProc</t>
   </si>
   <si>
-    <t>iam_menu_permission-52</t>
+    <t>iam_menu_permission-54</t>
   </si>
   <si>
     <t>hzero-workflow-plus.service-definition-site-level.delete</t>
   </si>
   <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
     <t>iam_menu_permission-55</t>
   </si>
   <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
     <t>hzero-file.watermark-config-site-level.createWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-56</t>
+    <t>iam_menu_permission-58</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.detailWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-57</t>
+    <t>iam_menu_permission-59</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.pageWatermark</t>
   </si>
   <si>
-    <t>iam_menu_permission-58</t>
+    <t>iam_menu_permission-60</t>
   </si>
   <si>
     <t>hzero-file.watermark-config-site-level.updateWatermark</t>
@@ -3198,6 +3201,12 @@
     <t>#created_by_tenant_id</t>
   </si>
   <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -3246,6 +3255,9 @@
     <t>HZERO.T.role/organization/default/template/administrator</t>
   </si>
   <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -3499,6 +3511,12 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>iam_label-9</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3531,8 +3549,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3651,262 +3670,299 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4047,7 +4103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4099,49 +4155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4157,11 +4170,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4501,36 +4572,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4539,21 +4610,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4664,11 +4735,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4706,19 +4777,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="70"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4742,41 +4813,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4786,13 +4855,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4804,10 +4873,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4828,7 +4897,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4853,7 +4922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4906,7 +4975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4925,9 +4994,8 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -4963,7 +5031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -4979,9 +5047,8 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -5014,7 +5081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -5030,9 +5097,8 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -5065,7 +5131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12">
       <c r="E12" t="s">
         <v>107</v>
       </c>
@@ -5081,9 +5147,8 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -5116,7 +5181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -5132,9 +5197,8 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -5167,7 +5231,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -5183,9 +5247,8 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
         <v>100</v>
@@ -5215,7 +5278,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -5234,9 +5297,8 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5269,7 +5331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -5285,9 +5347,8 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -5317,7 +5378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
+    <row r="17">
       <c r="E17" t="s">
         <v>129</v>
       </c>
@@ -5333,9 +5394,8 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
         <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -5365,7 +5425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
+    <row r="18">
       <c r="E18" t="s">
         <v>133</v>
       </c>
@@ -5384,9 +5444,8 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
         <v>92</v>
@@ -5422,7 +5481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
+    <row r="19">
       <c r="E19" t="s">
         <v>142</v>
       </c>
@@ -5438,9 +5497,8 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5470,7 +5528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
+    <row r="20">
       <c r="E20" t="s">
         <v>146</v>
       </c>
@@ -5489,9 +5547,8 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -5521,7 +5578,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
+    <row r="21">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -5540,9 +5597,8 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -5575,7 +5631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22">
       <c r="E22" t="s">
         <v>159</v>
       </c>
@@ -5591,9 +5647,8 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -5623,7 +5678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23">
       <c r="E23" t="s">
         <v>163</v>
       </c>
@@ -5639,9 +5694,8 @@
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5671,7 +5725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24">
       <c r="E24" t="s">
         <v>167</v>
       </c>
@@ -5687,9 +5741,8 @@
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
         <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -5722,7 +5775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25">
       <c r="E25" t="s">
         <v>172</v>
       </c>
@@ -5775,7 +5828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26">
       <c r="E26" t="s">
         <v>176</v>
       </c>
@@ -5794,9 +5847,8 @@
       <c r="J26" t="s">
         <v>174</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>92</v>
@@ -5832,7 +5884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="5:24">
+    <row r="27">
       <c r="E27" t="s">
         <v>180</v>
       </c>
@@ -5848,9 +5900,8 @@
       <c r="J27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -5883,7 +5934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="5:24">
+    <row r="28">
       <c r="E28" t="s">
         <v>183</v>
       </c>
@@ -5899,9 +5950,8 @@
       <c r="J28" t="s">
         <v>174</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5934,7 +5984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="5:24">
+    <row r="29">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -5950,9 +6000,8 @@
       <c r="J29" t="s">
         <v>174</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -5985,7 +6034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="5:24">
+    <row r="30">
       <c r="E30" t="s">
         <v>189</v>
       </c>
@@ -6001,9 +6050,8 @@
       <c r="J30" t="s">
         <v>174</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -6036,7 +6084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:24">
+    <row r="31">
       <c r="E31" t="s">
         <v>192</v>
       </c>
@@ -6052,9 +6100,8 @@
       <c r="J31" t="s">
         <v>174</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L31" t="s">
         <v>100</v>
@@ -6084,7 +6131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="5:24">
+    <row r="32">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -6100,9 +6147,8 @@
       <c r="J32" t="s">
         <v>174</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -6132,7 +6178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="5:24">
+    <row r="33">
       <c r="E33" t="s">
         <v>198</v>
       </c>
@@ -6148,9 +6194,8 @@
       <c r="J33" t="s">
         <v>174</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L33" t="s">
         <v>100</v>
@@ -6180,7 +6225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="5:24">
+    <row r="34">
       <c r="E34" t="s">
         <v>201</v>
       </c>
@@ -6196,9 +6241,8 @@
       <c r="J34" t="s">
         <v>174</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34">
         <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
       </c>
       <c r="L34" t="s">
         <v>100</v>
@@ -6228,7 +6272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="5:24">
+    <row r="35">
       <c r="E35" t="s">
         <v>204</v>
       </c>
@@ -6247,9 +6291,8 @@
       <c r="J35" t="s">
         <v>174</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6285,7 +6328,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="5:24">
+    <row r="36">
       <c r="E36" t="s">
         <v>212</v>
       </c>
@@ -6301,9 +6344,8 @@
       <c r="J36" t="s">
         <v>174</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6336,7 +6378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="5:24">
+    <row r="37">
       <c r="E37" t="s">
         <v>216</v>
       </c>
@@ -6352,9 +6394,8 @@
       <c r="J37" t="s">
         <v>174</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L37" t="s">
         <v>100</v>
@@ -6387,7 +6428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="5:24">
+    <row r="38">
       <c r="E38" t="s">
         <v>220</v>
       </c>
@@ -6403,9 +6444,8 @@
       <c r="J38" t="s">
         <v>174</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6438,7 +6478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="5:24">
+    <row r="39">
       <c r="E39" t="s">
         <v>224</v>
       </c>
@@ -6454,9 +6494,8 @@
       <c r="J39" t="s">
         <v>174</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L39" t="s">
         <v>100</v>
@@ -6489,7 +6528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="5:24">
+    <row r="40">
       <c r="E40" t="s">
         <v>228</v>
       </c>
@@ -6505,9 +6544,8 @@
       <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L40" t="s">
         <v>100</v>
@@ -6537,7 +6575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="5:24">
+    <row r="41">
       <c r="E41" t="s">
         <v>232</v>
       </c>
@@ -6553,9 +6591,8 @@
       <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6588,7 +6625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="5:24">
+    <row r="42">
       <c r="E42" t="s">
         <v>237</v>
       </c>
@@ -6604,9 +6641,8 @@
       <c r="J42" t="s">
         <v>174</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L42" t="s">
         <v>100</v>
@@ -6636,7 +6672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="5:24">
+    <row r="43">
       <c r="E43" t="s">
         <v>241</v>
       </c>
@@ -6652,9 +6688,8 @@
       <c r="J43" t="s">
         <v>174</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43">
         <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6684,7 +6719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="5:24">
+    <row r="44">
       <c r="E44" t="s">
         <v>245</v>
       </c>
@@ -6703,9 +6738,8 @@
       <c r="J44" t="s">
         <v>174</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -6741,7 +6775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="5:24">
+    <row r="45">
       <c r="E45" t="s">
         <v>253</v>
       </c>
@@ -6757,9 +6791,8 @@
       <c r="J45" t="s">
         <v>174</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L45" t="s">
         <v>100</v>
@@ -6792,7 +6825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="5:24">
+    <row r="46">
       <c r="E46" t="s">
         <v>257</v>
       </c>
@@ -6808,9 +6841,8 @@
       <c r="J46" t="s">
         <v>174</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -6843,7 +6875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="5:24">
+    <row r="47">
       <c r="E47" t="s">
         <v>261</v>
       </c>
@@ -6859,9 +6891,8 @@
       <c r="J47" t="s">
         <v>174</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L47" t="s">
         <v>100</v>
@@ -6894,7 +6925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="5:24">
+    <row r="48">
       <c r="E48" t="s">
         <v>265</v>
       </c>
@@ -6910,9 +6941,8 @@
       <c r="J48" t="s">
         <v>174</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -6945,7 +6975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="5:24">
+    <row r="49">
       <c r="E49" t="s">
         <v>269</v>
       </c>
@@ -6961,9 +6991,8 @@
       <c r="J49" t="s">
         <v>174</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L49" t="s">
         <v>100</v>
@@ -6996,7 +7025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="5:24">
+    <row r="50">
       <c r="E50" t="s">
         <v>273</v>
       </c>
@@ -7012,9 +7041,8 @@
       <c r="J50" t="s">
         <v>174</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -7047,7 +7075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="5:24">
+    <row r="51">
       <c r="E51" t="s">
         <v>277</v>
       </c>
@@ -7066,9 +7094,8 @@
       <c r="J51" t="s">
         <v>174</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51">
         <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
       </c>
       <c r="L51" t="s">
         <v>100</v>
@@ -7098,7 +7125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="5:24">
+    <row r="52">
       <c r="E52" t="s">
         <v>282</v>
       </c>
@@ -7117,9 +7144,8 @@
       <c r="J52" t="s">
         <v>174</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L52" t="s">
         <v>92</v>
@@ -7155,7 +7181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="5:24">
+    <row r="53">
       <c r="E53" t="s">
         <v>285</v>
       </c>
@@ -7174,9 +7200,8 @@
       <c r="J53" t="s">
         <v>174</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53">
         <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-52</v>
       </c>
       <c r="L53" t="s">
         <v>100</v>
@@ -7206,7 +7231,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="5:24">
+    <row r="54">
       <c r="E54" t="s">
         <v>288</v>
       </c>
@@ -7225,9 +7250,8 @@
       <c r="J54" t="s">
         <v>174</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L54" t="s">
         <v>92</v>
@@ -7263,7 +7287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="5:24">
+    <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
@@ -7279,9 +7303,8 @@
       <c r="J55" t="s">
         <v>174</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L55" t="s">
         <v>100</v>
@@ -7314,7 +7337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="5:24">
+    <row r="56">
       <c r="E56" t="s">
         <v>300</v>
       </c>
@@ -7330,9 +7353,8 @@
       <c r="J56" t="s">
         <v>174</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -7365,7 +7387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="5:24">
+    <row r="57">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -7381,9 +7403,8 @@
       <c r="J57" t="s">
         <v>174</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L57" t="s">
         <v>100</v>
@@ -7416,7 +7437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="5:24">
+    <row r="58">
       <c r="E58" t="s">
         <v>308</v>
       </c>
@@ -7432,9 +7453,8 @@
       <c r="J58" t="s">
         <v>174</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L58" t="s">
         <v>100</v>
@@ -7464,7 +7484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="5:24">
+    <row r="59">
       <c r="E59" t="s">
         <v>312</v>
       </c>
@@ -7483,9 +7503,8 @@
       <c r="J59" t="s">
         <v>174</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L59" t="s">
         <v>100</v>
@@ -7518,7 +7537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="5:24">
+    <row r="60">
       <c r="E60" t="s">
         <v>317</v>
       </c>
@@ -7534,9 +7553,8 @@
       <c r="J60" t="s">
         <v>174</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K60">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L60" t="s">
         <v>100</v>
@@ -7566,7 +7584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="5:24">
+    <row r="61">
       <c r="E61" t="s">
         <v>321</v>
       </c>
@@ -7582,9 +7600,8 @@
       <c r="J61" t="s">
         <v>174</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K61">
         <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-54</v>
       </c>
       <c r="L61" t="s">
         <v>100</v>
@@ -7614,7 +7631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="5:24">
+    <row r="62">
       <c r="E62" t="s">
         <v>325</v>
       </c>
@@ -7633,9 +7650,8 @@
       <c r="J62" t="s">
         <v>174</v>
       </c>
-      <c r="K62" t="str">
+      <c r="K62">
         <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-25</v>
       </c>
       <c r="L62" t="s">
         <v>92</v>
@@ -7668,7 +7684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="5:24">
+    <row r="63">
       <c r="E63" t="s">
         <v>330</v>
       </c>
@@ -7684,9 +7700,8 @@
       <c r="J63" t="s">
         <v>174</v>
       </c>
-      <c r="K63" t="str">
+      <c r="K63">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L63" t="s">
         <v>100</v>
@@ -7716,7 +7731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="5:24">
+    <row r="64">
       <c r="E64" t="s">
         <v>333</v>
       </c>
@@ -7732,9 +7747,8 @@
       <c r="J64" t="s">
         <v>174</v>
       </c>
-      <c r="K64" t="str">
+      <c r="K64">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L64" t="s">
         <v>100</v>
@@ -7764,7 +7778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="5:24">
+    <row r="65">
       <c r="E65" t="s">
         <v>336</v>
       </c>
@@ -7780,9 +7794,8 @@
       <c r="J65" t="s">
         <v>174</v>
       </c>
-      <c r="K65" t="str">
+      <c r="K65">
         <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
       </c>
       <c r="L65" t="s">
         <v>100</v>
@@ -7816,52 +7829,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEFFA09-F635-454A-8227-008EBA885921}">
-  <dimension ref="A1:O68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7869,1248 +7874,643 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>534</v>
-      </c>
-      <c r="E7" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s" s="66">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="H7" t="s">
-        <v>536</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F7" t="s" s="68">
+        <v>341</v>
+      </c>
+      <c r="G7" t="s" s="69">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="G8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="G9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="G21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F22">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="G25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="G26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="G27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="G28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="G29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="G30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="G31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F34">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>395</v>
+      </c>
+      <c r="F36">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>396</v>
+      </c>
+      <c r="F37">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>398</v>
+      </c>
+      <c r="F38">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G38" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>400</v>
+      </c>
+      <c r="F39">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="G39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40">
+        <f>菜单SAAS版!$E$42</f>
+      </c>
+      <c r="G40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>402</v>
+      </c>
+      <c r="F41">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="G41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>403</v>
+      </c>
+      <c r="F42">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="G42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>404</v>
+      </c>
+      <c r="F43">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F45">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G46" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>411</v>
+      </c>
+      <c r="F47">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>413</v>
+      </c>
+      <c r="F48">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>415</v>
+      </c>
+      <c r="F49">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="G49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>417</v>
+      </c>
+      <c r="F50">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>420</v>
+      </c>
+      <c r="F52">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>424</v>
+      </c>
+      <c r="F54">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="G54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>426</v>
+      </c>
+      <c r="F55">
+        <f>菜单SAAS版!$E$59</f>
+      </c>
+      <c r="G55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>427</v>
+      </c>
+      <c r="F56">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>428</v>
+      </c>
+      <c r="F57">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F58">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>432</v>
+      </c>
+      <c r="F59">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>434</v>
+      </c>
+      <c r="F60">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="G60" t="s">
         <v>435</v>
       </c>
-      <c r="J7" t="s">
-        <v>537</v>
-      </c>
-      <c r="K7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L7" t="s">
-        <v>539</v>
-      </c>
-      <c r="M7" t="s">
-        <v>540</v>
-      </c>
-      <c r="N7" t="s">
-        <v>541</v>
-      </c>
-      <c r="O7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="E8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G8" t="s">
-        <v>545</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>546</v>
-      </c>
-      <c r="J8" t="s">
-        <v>547</v>
-      </c>
-      <c r="K8" t="s">
-        <v>547</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="I10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>555</v>
-      </c>
-      <c r="F11" t="s">
-        <v>545</v>
-      </c>
-      <c r="G11" t="str">
-        <f>菜单SAAS版!E8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H11" s="75" t="str">
-        <f>$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F12" t="s">
-        <v>545</v>
-      </c>
-      <c r="G12" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H12" s="75" t="str">
-        <f t="shared" ref="H12:H68" si="0">$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>555</v>
-      </c>
-      <c r="F13" t="s">
-        <v>545</v>
-      </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>555</v>
-      </c>
-      <c r="F14" t="s">
-        <v>545</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H14" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" t="s">
-        <v>545</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H15" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>555</v>
-      </c>
-      <c r="F16" t="s">
-        <v>545</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H16" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
-        <v>555</v>
-      </c>
-      <c r="F17" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H17" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" t="s">
-        <v>555</v>
-      </c>
-      <c r="F18" t="s">
-        <v>545</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H18" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" t="s">
-        <v>555</v>
-      </c>
-      <c r="F19" t="s">
-        <v>545</v>
-      </c>
-      <c r="G19" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H19" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" t="s">
-        <v>555</v>
-      </c>
-      <c r="F20" t="s">
-        <v>545</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!E17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H20" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
-      <c r="E21" t="s">
-        <v>555</v>
-      </c>
-      <c r="F21" t="s">
-        <v>545</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!E18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H21" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>555</v>
-      </c>
-      <c r="F22" t="s">
-        <v>545</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H22" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" t="s">
-        <v>555</v>
-      </c>
-      <c r="F23" t="s">
-        <v>545</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!E20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H23" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" t="s">
-        <v>555</v>
-      </c>
-      <c r="F24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!E21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="H24" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" t="s">
-        <v>555</v>
-      </c>
-      <c r="F25" t="s">
-        <v>545</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!E22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H25" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" t="s">
-        <v>555</v>
-      </c>
-      <c r="F26" t="s">
-        <v>545</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!E23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H26" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" t="s">
-        <v>555</v>
-      </c>
-      <c r="F27" t="s">
-        <v>545</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!E24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H27" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9">
-      <c r="E28" t="s">
-        <v>555</v>
-      </c>
-      <c r="F28" t="s">
-        <v>545</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!E25</f>
-        <v>iam_menu-25</v>
-      </c>
-      <c r="H28" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9">
-      <c r="E29" t="s">
-        <v>555</v>
-      </c>
-      <c r="F29" t="s">
-        <v>545</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!E26</f>
-        <v>iam_menu-26</v>
-      </c>
-      <c r="H29" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" t="s">
-        <v>555</v>
-      </c>
-      <c r="F30" t="s">
-        <v>545</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!E27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H30" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" t="s">
-        <v>555</v>
-      </c>
-      <c r="F31" t="s">
-        <v>545</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!E28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H31" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" t="s">
-        <v>555</v>
-      </c>
-      <c r="F32" t="s">
-        <v>545</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!E29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H32" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" t="s">
-        <v>545</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!E30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H33" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I33" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>555</v>
-      </c>
-      <c r="F34" t="s">
-        <v>545</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!E31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H34" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>555</v>
-      </c>
-      <c r="F35" t="s">
-        <v>545</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!E32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H35" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I35" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>555</v>
-      </c>
-      <c r="F36" t="s">
-        <v>545</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!E33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H36" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>555</v>
-      </c>
-      <c r="F37" t="s">
-        <v>545</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!E34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H37" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>555</v>
-      </c>
-      <c r="F38" t="s">
-        <v>545</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!E35</f>
-        <v>iam_menu-35</v>
-      </c>
-      <c r="H38" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>555</v>
-      </c>
-      <c r="F39" t="s">
-        <v>545</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!E36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H39" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
-        <v>555</v>
-      </c>
-      <c r="F40" t="s">
-        <v>545</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!E37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H40" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>555</v>
-      </c>
-      <c r="F41" t="s">
-        <v>545</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!E38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H41" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I41" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>555</v>
-      </c>
-      <c r="F42" t="s">
-        <v>545</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!E39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="H42" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>555</v>
-      </c>
-      <c r="F43" t="s">
-        <v>545</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!E40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H43" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>555</v>
-      </c>
-      <c r="F44" t="s">
-        <v>545</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!E41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H44" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>555</v>
-      </c>
-      <c r="F45" t="s">
-        <v>545</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!E42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="H45" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>555</v>
-      </c>
-      <c r="F46" t="s">
-        <v>545</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!E43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="H46" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>555</v>
-      </c>
-      <c r="F47" t="s">
-        <v>545</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!E44</f>
-        <v>iam_menu-44</v>
-      </c>
-      <c r="H47" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I47" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>555</v>
-      </c>
-      <c r="F48" t="s">
-        <v>545</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!E45</f>
-        <v>iam_menu-45</v>
-      </c>
-      <c r="H48" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
-        <v>555</v>
-      </c>
-      <c r="F49" t="s">
-        <v>545</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!E46</f>
-        <v>iam_menu-46</v>
-      </c>
-      <c r="H49" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I49" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
-        <v>555</v>
-      </c>
-      <c r="F50" t="s">
-        <v>545</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!E47</f>
-        <v>iam_menu-47</v>
-      </c>
-      <c r="H50" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I50" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
-      <c r="E51" t="s">
-        <v>555</v>
-      </c>
-      <c r="F51" t="s">
-        <v>545</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!E48</f>
-        <v>iam_menu-48</v>
-      </c>
-      <c r="H51" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I51" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" t="s">
-        <v>555</v>
-      </c>
-      <c r="F52" t="s">
-        <v>545</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!E49</f>
-        <v>iam_menu-49</v>
-      </c>
-      <c r="H52" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
-      <c r="E53" t="s">
-        <v>555</v>
-      </c>
-      <c r="F53" t="s">
-        <v>545</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!E50</f>
-        <v>iam_menu-50</v>
-      </c>
-      <c r="H53" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
-      <c r="E54" t="s">
-        <v>555</v>
-      </c>
-      <c r="F54" t="s">
-        <v>545</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!E51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="H54" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9">
-      <c r="E55" t="s">
-        <v>555</v>
-      </c>
-      <c r="F55" t="s">
-        <v>545</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!E52</f>
-        <v>iam_menu-52</v>
-      </c>
-      <c r="H55" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I55" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9">
-      <c r="E56" t="s">
-        <v>555</v>
-      </c>
-      <c r="F56" t="s">
-        <v>545</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!E53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="H56" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="E57" t="s">
-        <v>555</v>
-      </c>
-      <c r="F57" t="s">
-        <v>545</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!E54</f>
-        <v>iam_menu-54</v>
-      </c>
-      <c r="H57" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" t="s">
-        <v>555</v>
-      </c>
-      <c r="F58" t="s">
-        <v>545</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!E55</f>
-        <v>iam_menu-55</v>
-      </c>
-      <c r="H58" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9">
-      <c r="E59" t="s">
-        <v>555</v>
-      </c>
-      <c r="F59" t="s">
-        <v>545</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!E56</f>
-        <v>iam_menu-56</v>
-      </c>
-      <c r="H59" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I59" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9">
-      <c r="E60" t="s">
-        <v>555</v>
-      </c>
-      <c r="F60" t="s">
-        <v>545</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!E57</f>
-        <v>iam_menu-57</v>
-      </c>
-      <c r="H60" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I60" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="5:9">
-      <c r="E61" t="s">
-        <v>555</v>
-      </c>
-      <c r="F61" t="s">
-        <v>545</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!E58</f>
-        <v>iam_menu-58</v>
-      </c>
-      <c r="H61" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="5:9">
-      <c r="E62" t="s">
-        <v>555</v>
-      </c>
-      <c r="F62" t="s">
-        <v>545</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!E59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="H62" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="63" spans="5:9">
-      <c r="E63" t="s">
-        <v>555</v>
-      </c>
-      <c r="F63" t="s">
-        <v>545</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!E60</f>
-        <v>iam_menu-60</v>
-      </c>
-      <c r="H63" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I63" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="64" spans="5:9">
-      <c r="E64" t="s">
-        <v>555</v>
-      </c>
-      <c r="F64" t="s">
-        <v>545</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!E61</f>
-        <v>iam_menu-61</v>
-      </c>
-      <c r="H64" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9">
-      <c r="E65" t="s">
-        <v>555</v>
-      </c>
-      <c r="F65" t="s">
-        <v>545</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!E62</f>
-        <v>iam_menu-62</v>
-      </c>
-      <c r="H65" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="5:9">
-      <c r="E66" t="s">
-        <v>555</v>
-      </c>
-      <c r="F66" t="s">
-        <v>545</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!E63</f>
-        <v>iam_menu-63</v>
-      </c>
-      <c r="H66" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I66" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="67" spans="5:9">
-      <c r="E67" t="s">
-        <v>555</v>
-      </c>
-      <c r="F67" t="s">
-        <v>545</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!E64</f>
-        <v>iam_menu-64</v>
-      </c>
-      <c r="H67" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I67" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="68" spans="5:9">
-      <c r="E68" t="s">
-        <v>555</v>
-      </c>
-      <c r="F68" t="s">
-        <v>545</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!E65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="H68" s="75" t="str">
-        <f t="shared" si="0"/>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I68" t="s">
-        <v>556</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -9118,673 +8518,1526 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" t="s" s="70">
+        <v>437</v>
+      </c>
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="72">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>438</v>
+      </c>
+      <c r="J7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K7" t="s" s="73">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M7" t="s" s="74">
+        <v>441</v>
+      </c>
+      <c r="N7" t="s" s="75">
+        <v>442</v>
+      </c>
+      <c r="O7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>445</v>
+      </c>
+      <c r="R7" t="s">
+        <v>446</v>
+      </c>
+      <c r="S7" t="s">
+        <v>447</v>
+      </c>
+      <c r="T7" t="s">
+        <v>448</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>449</v>
+      </c>
+      <c r="W7" t="s" s="76">
+        <v>450</v>
+      </c>
+      <c r="X7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F8" t="str">
+        <v>453</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" t="s">
+        <v>456</v>
+      </c>
+      <c r="I8" t="s">
+        <v>457</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>456</v>
+      </c>
+      <c r="V8" t="s">
+        <v>456</v>
+      </c>
+      <c r="W8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H9" t="s">
+        <v>461</v>
+      </c>
+      <c r="I9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>461</v>
+      </c>
+      <c r="V9" t="s">
+        <v>461</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>467</v>
+      </c>
+      <c r="V10" t="s">
+        <v>468</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" t="s" s="77">
+        <v>471</v>
+      </c>
+      <c r="E12" t="s" s="78">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="79">
+        <v>472</v>
+      </c>
+      <c r="G12" t="s" s="80">
+        <v>473</v>
+      </c>
+      <c r="H12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J12" t="s" s="81">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H13" t="s">
+        <v>478</v>
+      </c>
+      <c r="I13" t="s">
+        <v>479</v>
+      </c>
+      <c r="J13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H14" t="s">
+        <v>478</v>
+      </c>
+      <c r="I14" t="s">
+        <v>479</v>
+      </c>
+      <c r="J14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G15">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H15" t="s">
+        <v>478</v>
+      </c>
+      <c r="I15" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G16">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H16" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" t="s">
+        <v>479</v>
+      </c>
+      <c r="J16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H17" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" t="s">
+        <v>479</v>
+      </c>
+      <c r="J17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H18" t="s">
+        <v>478</v>
+      </c>
+      <c r="I18" t="s">
+        <v>479</v>
+      </c>
+      <c r="J18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G19">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F9" t="str">
+      </c>
+      <c r="H19" t="s">
+        <v>478</v>
+      </c>
+      <c r="I19" t="s">
+        <v>479</v>
+      </c>
+      <c r="J19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H20" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" t="s">
+        <v>479</v>
+      </c>
+      <c r="J20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H21" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" t="s">
+        <v>479</v>
+      </c>
+      <c r="J21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H22" t="s">
+        <v>478</v>
+      </c>
+      <c r="I22" t="s">
+        <v>479</v>
+      </c>
+      <c r="J22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H23" t="s">
+        <v>478</v>
+      </c>
+      <c r="I23" t="s">
+        <v>479</v>
+      </c>
+      <c r="J23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H24" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>492</v>
+      </c>
+      <c r="F25">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I25" t="s">
+        <v>479</v>
+      </c>
+      <c r="J25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>493</v>
+      </c>
+      <c r="F26">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H26" t="s">
+        <v>478</v>
+      </c>
+      <c r="I26" t="s">
+        <v>479</v>
+      </c>
+      <c r="J26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>478</v>
+      </c>
+      <c r="I27" t="s">
+        <v>479</v>
+      </c>
+      <c r="J27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G28">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H28" t="s">
+        <v>478</v>
+      </c>
+      <c r="I28" t="s">
+        <v>479</v>
+      </c>
+      <c r="J28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>496</v>
+      </c>
+      <c r="F29">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G29">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" t="str">
+      </c>
+      <c r="H29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I29" t="s">
+        <v>479</v>
+      </c>
+      <c r="J29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>497</v>
+      </c>
+      <c r="F30">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" t="s">
+        <v>479</v>
+      </c>
+      <c r="J30" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G31">
         <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>350</v>
-      </c>
-      <c r="F12" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
-        <v>360</v>
-      </c>
-      <c r="F17" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
-        <v>362</v>
-      </c>
-      <c r="F18" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
-        <v>364</v>
-      </c>
-      <c r="F19" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>366</v>
-      </c>
-      <c r="F20" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
-        <v>368</v>
-      </c>
-      <c r="F21" t="str">
+      </c>
+      <c r="H31" t="s">
+        <v>478</v>
+      </c>
+      <c r="I31" t="s">
+        <v>479</v>
+      </c>
+      <c r="J31" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H32" t="s">
+        <v>478</v>
+      </c>
+      <c r="I32" t="s">
+        <v>479</v>
+      </c>
+      <c r="J32" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H33" t="s">
+        <v>478</v>
+      </c>
+      <c r="I33" t="s">
+        <v>479</v>
+      </c>
+      <c r="J33" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F34">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H34" t="s">
+        <v>478</v>
+      </c>
+      <c r="I34" t="s">
+        <v>479</v>
+      </c>
+      <c r="J34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H35" t="s">
+        <v>478</v>
+      </c>
+      <c r="I35" t="s">
+        <v>479</v>
+      </c>
+      <c r="J35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F36">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H36" t="s">
+        <v>478</v>
+      </c>
+      <c r="I36" t="s">
+        <v>479</v>
+      </c>
+      <c r="J36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>504</v>
+      </c>
+      <c r="F37">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G37">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
-        <v>370</v>
-      </c>
-      <c r="F22" t="str">
+      </c>
+      <c r="H37" t="s">
+        <v>478</v>
+      </c>
+      <c r="I37" t="s">
+        <v>479</v>
+      </c>
+      <c r="J37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>505</v>
+      </c>
+      <c r="F38">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G38">
         <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F23" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F24" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" t="str">
+      </c>
+      <c r="H38" t="s">
+        <v>478</v>
+      </c>
+      <c r="I38" t="s">
+        <v>479</v>
+      </c>
+      <c r="J38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>506</v>
+      </c>
+      <c r="F39">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I39" t="s">
+        <v>479</v>
+      </c>
+      <c r="J39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>507</v>
+      </c>
+      <c r="F40">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I40" t="s">
+        <v>479</v>
+      </c>
+      <c r="J40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>508</v>
+      </c>
+      <c r="F41">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H41" t="s">
+        <v>478</v>
+      </c>
+      <c r="I41" t="s">
+        <v>479</v>
+      </c>
+      <c r="J41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>509</v>
+      </c>
+      <c r="F42">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H42" t="s">
+        <v>478</v>
+      </c>
+      <c r="I42" t="s">
+        <v>479</v>
+      </c>
+      <c r="J42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>510</v>
+      </c>
+      <c r="F43">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H43" t="s">
+        <v>478</v>
+      </c>
+      <c r="I43" t="s">
+        <v>479</v>
+      </c>
+      <c r="J43" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>511</v>
+      </c>
+      <c r="F44">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G44">
         <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>378</v>
-      </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>380</v>
-      </c>
-      <c r="F27" t="str">
+      </c>
+      <c r="H44" t="s">
+        <v>478</v>
+      </c>
+      <c r="I44" t="s">
+        <v>479</v>
+      </c>
+      <c r="J44" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>512</v>
+      </c>
+      <c r="F45">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" t="s">
+        <v>479</v>
+      </c>
+      <c r="J45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H46" t="s">
+        <v>478</v>
+      </c>
+      <c r="I46" t="s">
+        <v>479</v>
+      </c>
+      <c r="J46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>514</v>
+      </c>
+      <c r="F47">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H47" t="s">
+        <v>478</v>
+      </c>
+      <c r="I47" t="s">
+        <v>479</v>
+      </c>
+      <c r="J47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>515</v>
+      </c>
+      <c r="F48">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H48" t="s">
+        <v>478</v>
+      </c>
+      <c r="I48" t="s">
+        <v>479</v>
+      </c>
+      <c r="J48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>516</v>
+      </c>
+      <c r="F49">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H49" t="s">
+        <v>478</v>
+      </c>
+      <c r="I49" t="s">
+        <v>479</v>
+      </c>
+      <c r="J49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$39</f>
+      </c>
+      <c r="H50" t="s">
+        <v>478</v>
+      </c>
+      <c r="I50" t="s">
+        <v>479</v>
+      </c>
+      <c r="J50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>518</v>
+      </c>
+      <c r="F51">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G51">
         <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>382</v>
-      </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
-        <v>384</v>
-      </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" t="s">
-        <v>386</v>
-      </c>
-      <c r="F30" t="str">
+      </c>
+      <c r="H51" t="s">
+        <v>478</v>
+      </c>
+      <c r="I51" t="s">
+        <v>479</v>
+      </c>
+      <c r="J51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>519</v>
+      </c>
+      <c r="F52">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G52">
         <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F31" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" t="s">
-        <v>390</v>
-      </c>
-      <c r="F33" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
-        <v>392</v>
-      </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" t="s">
-        <v>394</v>
-      </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>396</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" t="s">
-        <v>397</v>
-      </c>
-      <c r="F38" t="str">
+      </c>
+      <c r="H52" t="s">
+        <v>478</v>
+      </c>
+      <c r="I52" t="s">
+        <v>479</v>
+      </c>
+      <c r="J52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>520</v>
+      </c>
+      <c r="F53">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G53">
         <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="G38" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" t="s">
-        <v>398</v>
-      </c>
-      <c r="F39" t="str">
+      </c>
+      <c r="H53" t="s">
+        <v>478</v>
+      </c>
+      <c r="I53" t="s">
+        <v>479</v>
+      </c>
+      <c r="J53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>521</v>
+      </c>
+      <c r="F54">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G54">
         <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>399</v>
-      </c>
-      <c r="F40" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" t="str">
+      </c>
+      <c r="H54" t="s">
+        <v>478</v>
+      </c>
+      <c r="I54" t="s">
+        <v>479</v>
+      </c>
+      <c r="J54" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>522</v>
+      </c>
+      <c r="F55">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$45</f>
+      </c>
+      <c r="H55" t="s">
+        <v>478</v>
+      </c>
+      <c r="I55" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>523</v>
+      </c>
+      <c r="F56">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H56" t="s">
+        <v>478</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H57" t="s">
+        <v>478</v>
+      </c>
+      <c r="I57" t="s">
+        <v>479</v>
+      </c>
+      <c r="J57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>525</v>
+      </c>
+      <c r="F58">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$48</f>
+      </c>
+      <c r="H58" t="s">
+        <v>478</v>
+      </c>
+      <c r="I58" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H59" t="s">
+        <v>478</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>527</v>
+      </c>
+      <c r="F60">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H60" t="s">
+        <v>478</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>528</v>
+      </c>
+      <c r="F61">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G61">
         <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>402</v>
-      </c>
-      <c r="F42" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
-        <v>404</v>
-      </c>
-      <c r="F43" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
-        <v>405</v>
-      </c>
-      <c r="F44" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>407</v>
-      </c>
-      <c r="F45" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G45" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" t="s">
-        <v>409</v>
-      </c>
-      <c r="F46" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G46" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" t="s">
-        <v>411</v>
-      </c>
-      <c r="F47" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
-        <v>413</v>
-      </c>
-      <c r="F48" t="str">
+      </c>
+      <c r="H61" t="s">
+        <v>478</v>
+      </c>
+      <c r="I61" t="s">
+        <v>479</v>
+      </c>
+      <c r="J61" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>529</v>
+      </c>
+      <c r="F62">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G62">
         <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
-        <v>414</v>
-      </c>
-      <c r="F49" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" t="s">
-        <v>416</v>
-      </c>
-      <c r="F50" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G50" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>418</v>
-      </c>
-      <c r="F51" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
-        <v>420</v>
-      </c>
-      <c r="F52" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="G52" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F53" t="str">
+      </c>
+      <c r="H62" t="s">
+        <v>478</v>
+      </c>
+      <c r="I62" t="s">
+        <v>479</v>
+      </c>
+      <c r="J62" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>530</v>
+      </c>
+      <c r="F63">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$55</f>
+      </c>
+      <c r="H63" t="s">
+        <v>478</v>
+      </c>
+      <c r="I63" t="s">
+        <v>479</v>
+      </c>
+      <c r="J63" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>531</v>
+      </c>
+      <c r="F64">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$56</f>
+      </c>
+      <c r="H64" t="s">
+        <v>478</v>
+      </c>
+      <c r="I64" t="s">
+        <v>479</v>
+      </c>
+      <c r="J64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>532</v>
+      </c>
+      <c r="F65">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$57</f>
+      </c>
+      <c r="H65" t="s">
+        <v>478</v>
+      </c>
+      <c r="I65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>533</v>
+      </c>
+      <c r="F66">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H66" t="s">
+        <v>478</v>
+      </c>
+      <c r="I66" t="s">
+        <v>479</v>
+      </c>
+      <c r="J66" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>534</v>
+      </c>
+      <c r="F67">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G67">
         <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="G53" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" t="s">
-        <v>423</v>
-      </c>
-      <c r="F54" t="str">
+      </c>
+      <c r="H67" t="s">
+        <v>478</v>
+      </c>
+      <c r="I67" t="s">
+        <v>479</v>
+      </c>
+      <c r="J67" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>535</v>
+      </c>
+      <c r="F68">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$60</f>
+      </c>
+      <c r="H68" t="s">
+        <v>478</v>
+      </c>
+      <c r="I68" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>536</v>
+      </c>
+      <c r="F69">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$61</f>
+      </c>
+      <c r="H69" t="s">
+        <v>478</v>
+      </c>
+      <c r="I69" t="s">
+        <v>479</v>
+      </c>
+      <c r="J69" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>537</v>
+      </c>
+      <c r="F70">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G70">
+        <f>菜单SAAS版!$E$63</f>
+      </c>
+      <c r="H70" t="s">
+        <v>478</v>
+      </c>
+      <c r="I70" t="s">
+        <v>479</v>
+      </c>
+      <c r="J70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G71">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H71" t="s">
+        <v>478</v>
+      </c>
+      <c r="I71" t="s">
+        <v>479</v>
+      </c>
+      <c r="J71" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>539</v>
+      </c>
+      <c r="F72">
+        <f>角色权限!$E$8</f>
+      </c>
+      <c r="G72">
         <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G54" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" t="s">
-        <v>424</v>
-      </c>
-      <c r="F55" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" t="s">
-        <v>426</v>
-      </c>
-      <c r="F56" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" t="s">
-        <v>428</v>
-      </c>
-      <c r="F57" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G57" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F58" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="G58" t="s">
-        <v>431</v>
+      </c>
+      <c r="H72" t="s">
+        <v>478</v>
+      </c>
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="J72" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -9792,1599 +10045,1119 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="E7" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" t="s" s="82">
+        <v>541</v>
+      </c>
+      <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>55</v>
+      <c r="F7" t="s" s="84">
+        <v>542</v>
+      </c>
+      <c r="G7" t="s" s="85">
+        <v>476</v>
+      </c>
+      <c r="H7" t="s">
+        <v>543</v>
       </c>
       <c r="I7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>67</v>
+        <v>544</v>
+      </c>
+      <c r="K7" t="s">
+        <v>545</v>
       </c>
       <c r="L7" t="s">
-        <v>436</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>438</v>
+        <v>546</v>
+      </c>
+      <c r="M7" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" t="s">
+        <v>548</v>
       </c>
       <c r="O7" t="s">
-        <v>439</v>
-      </c>
-      <c r="P7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>441</v>
-      </c>
-      <c r="R7" t="s">
-        <v>442</v>
-      </c>
-      <c r="S7" t="s">
-        <v>443</v>
-      </c>
-      <c r="T7" t="s">
-        <v>444</v>
-      </c>
-      <c r="U7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" t="s">
-        <v>445</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="G8" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="H8" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>451</v>
+        <v>553</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>554</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s">
-        <v>450</v>
-      </c>
-      <c r="V8" t="s">
-        <v>450</v>
-      </c>
-      <c r="W8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>452</v>
+        <v>555</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="G9" t="s">
-        <v>454</v>
+        <v>552</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>456</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" t="s">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" t="s">
-        <v>455</v>
-      </c>
-      <c r="V9" t="s">
-        <v>455</v>
-      </c>
-      <c r="W9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="E10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H10" t="s">
-        <v>460</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" t="s">
-        <v>461</v>
-      </c>
-      <c r="V10" t="s">
-        <v>462</v>
-      </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>465</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="H12" t="s">
-        <v>467</v>
+      <c r="C11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" t="s" s="86">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s" s="87">
+        <v>559</v>
+      </c>
+      <c r="F11" t="s" s="88">
+        <v>560</v>
+      </c>
+      <c r="G11" t="s" s="89">
+        <v>561</v>
+      </c>
+      <c r="H11" t="s" s="90">
+        <v>562</v>
+      </c>
+      <c r="I11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H12">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>468</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>470</v>
-      </c>
-      <c r="F13" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G13" t="str">
+        <v>564</v>
+      </c>
+      <c r="F13" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H13">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G14">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H14">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>564</v>
+      </c>
+      <c r="F15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G15">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H15">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>564</v>
+      </c>
+      <c r="F16" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H16">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>564</v>
+      </c>
+      <c r="F17" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17">
         <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>471</v>
-      </c>
-      <c r="I13" t="s">
-        <v>472</v>
-      </c>
-      <c r="J13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="E14" t="s">
-        <v>474</v>
-      </c>
-      <c r="F14" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>471</v>
-      </c>
-      <c r="I14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="E15" t="s">
-        <v>475</v>
-      </c>
-      <c r="F15" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G15" t="str">
+      </c>
+      <c r="H17">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G18">
         <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>471</v>
-      </c>
-      <c r="I15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="E16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F16" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>471</v>
-      </c>
-      <c r="I16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="E17" t="s">
-        <v>477</v>
-      </c>
-      <c r="F17" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G17" t="str">
+      </c>
+      <c r="H18">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F19" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>471</v>
-      </c>
-      <c r="I17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F18" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>471</v>
-      </c>
-      <c r="I18" t="s">
-        <v>472</v>
-      </c>
-      <c r="J18" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G19" t="str">
+      </c>
+      <c r="H19">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20">
         <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
-        <v>480</v>
-      </c>
-      <c r="F20" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G20" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>471</v>
+      </c>
+      <c r="H20">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
-      </c>
-      <c r="J20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>481</v>
-      </c>
-      <c r="F21" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G21" t="str">
+        <v>564</v>
+      </c>
+      <c r="F21" t="s">
+        <v>552</v>
+      </c>
+      <c r="G21">
         <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>471</v>
+      </c>
+      <c r="H21">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I21" t="s">
-        <v>472</v>
-      </c>
-      <c r="J21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>482</v>
-      </c>
-      <c r="F22" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F22" t="s">
+        <v>552</v>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H22">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F23" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H23">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I23" t="s">
-        <v>472</v>
-      </c>
-      <c r="J23" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
-        <v>484</v>
-      </c>
-      <c r="F24" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F24" t="s">
+        <v>552</v>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H24">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I24" t="s">
-        <v>472</v>
-      </c>
-      <c r="J24" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
-        <v>485</v>
-      </c>
-      <c r="F25" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H25">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I25" t="s">
-        <v>472</v>
-      </c>
-      <c r="J25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
-        <v>486</v>
-      </c>
-      <c r="F26" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F26" t="s">
+        <v>552</v>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H26">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I26" t="s">
-        <v>472</v>
-      </c>
-      <c r="J26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
-        <v>487</v>
-      </c>
-      <c r="F27" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H27">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
-      </c>
-      <c r="J27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
-        <v>488</v>
-      </c>
-      <c r="F28" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H28">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
-      </c>
-      <c r="J28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F29" t="s">
+        <v>552</v>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H29">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
-      </c>
-      <c r="J29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="E30" t="s">
-        <v>490</v>
-      </c>
-      <c r="F30" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F30" t="s">
+        <v>552</v>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="H30">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
-      </c>
-      <c r="J30" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="E31" t="s">
-        <v>491</v>
-      </c>
-      <c r="F31" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G31" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F31" t="s">
+        <v>552</v>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$35</f>
+      </c>
+      <c r="H31">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I31" t="s">
-        <v>472</v>
-      </c>
-      <c r="J31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
-        <v>492</v>
-      </c>
-      <c r="F32" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G32" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F32" t="s">
+        <v>552</v>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$44</f>
+      </c>
+      <c r="H32">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I32" t="s">
-        <v>472</v>
-      </c>
-      <c r="J32" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
-        <v>493</v>
-      </c>
-      <c r="F33" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H33" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$52</f>
+      </c>
+      <c r="H33">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I33" t="s">
-        <v>472</v>
-      </c>
-      <c r="J33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
-        <v>494</v>
-      </c>
-      <c r="F34" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F34" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$54</f>
+      </c>
+      <c r="H34">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
-      </c>
-      <c r="J34" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
-        <v>495</v>
-      </c>
-      <c r="F35" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F35" t="s">
+        <v>552</v>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$62</f>
+      </c>
+      <c r="H35">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I35" t="s">
-        <v>472</v>
-      </c>
-      <c r="J35" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="E36" t="s">
-        <v>496</v>
-      </c>
-      <c r="F36" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$23</f>
-        <v>iam_menu-23</v>
-      </c>
-      <c r="H36" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H36">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J36" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
-        <v>497</v>
-      </c>
-      <c r="F37" t="str">
-        <f>角色权限!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="G37" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H37" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F37" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H37">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
-      </c>
-      <c r="J37" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
-        <v>498</v>
-      </c>
-      <c r="F38" t="str">
-        <f>角色权限!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
-      </c>
-      <c r="H38" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F38" t="s">
+        <v>552</v>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H38">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I38" t="s">
-        <v>472</v>
-      </c>
-      <c r="J38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
-        <v>499</v>
-      </c>
-      <c r="F39" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F39" t="s">
+        <v>552</v>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H39">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I39" t="s">
-        <v>472</v>
-      </c>
-      <c r="J39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="E40" t="s">
-        <v>500</v>
-      </c>
-      <c r="F40" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
-      </c>
-      <c r="H40" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F40" t="s">
+        <v>552</v>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H40">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I40" t="s">
-        <v>472</v>
-      </c>
-      <c r="J40" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="E41" t="s">
-        <v>501</v>
-      </c>
-      <c r="F41" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G41" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
-      </c>
-      <c r="H41" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F41" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="H41">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I41" t="s">
-        <v>472</v>
-      </c>
-      <c r="J41" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="E42" t="s">
-        <v>502</v>
-      </c>
-      <c r="F42" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F42" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H42">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
-      </c>
-      <c r="J42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="E43" t="s">
-        <v>503</v>
-      </c>
-      <c r="F43" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
-      </c>
-      <c r="H43" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F43" t="s">
+        <v>552</v>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H43">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I43" t="s">
-        <v>472</v>
-      </c>
-      <c r="J43" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="E44" t="s">
-        <v>504</v>
-      </c>
-      <c r="F44" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
-      </c>
-      <c r="H44" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H44">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I44" t="s">
-        <v>472</v>
-      </c>
-      <c r="J44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="E45" t="s">
-        <v>505</v>
-      </c>
-      <c r="F45" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G45" t="str">
-        <f>菜单SAAS版!$E$33</f>
-        <v>iam_menu-33</v>
-      </c>
-      <c r="H45" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F45" t="s">
+        <v>552</v>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H45">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I45" t="s">
-        <v>472</v>
-      </c>
-      <c r="J45" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="E46" t="s">
-        <v>506</v>
-      </c>
-      <c r="F46" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
-      </c>
-      <c r="H46" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F46" t="s">
+        <v>552</v>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I46" t="s">
-        <v>472</v>
-      </c>
-      <c r="J46" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="E47" t="s">
-        <v>507</v>
-      </c>
-      <c r="F47" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
-      </c>
-      <c r="H47" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F47" t="s">
+        <v>552</v>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$39</f>
+      </c>
+      <c r="H47">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I47" t="s">
-        <v>472</v>
-      </c>
-      <c r="J47" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="E48" t="s">
-        <v>508</v>
-      </c>
-      <c r="F48" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
-      </c>
-      <c r="H48" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F48" t="s">
+        <v>552</v>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="H48">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I48" t="s">
-        <v>472</v>
-      </c>
-      <c r="J48" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="E49" t="s">
-        <v>509</v>
-      </c>
-      <c r="F49" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
-      </c>
-      <c r="H49" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F49" t="s">
+        <v>552</v>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="H49">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I49" t="s">
-        <v>472</v>
-      </c>
-      <c r="J49" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="50" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="E50" t="s">
-        <v>510</v>
-      </c>
-      <c r="F50" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
-      </c>
-      <c r="H50" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$42</f>
+      </c>
+      <c r="H50">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I50" t="s">
-        <v>472</v>
-      </c>
-      <c r="J50" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="51" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="E51" t="s">
-        <v>511</v>
-      </c>
-      <c r="F51" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
-      </c>
-      <c r="H51" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F51" t="s">
+        <v>552</v>
+      </c>
+      <c r="G51">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="H51">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I51" t="s">
-        <v>472</v>
-      </c>
-      <c r="J51" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="52" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="E52" t="s">
-        <v>512</v>
-      </c>
-      <c r="F52" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
-      </c>
-      <c r="H52" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F52" t="s">
+        <v>552</v>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$45</f>
+      </c>
+      <c r="H52">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I52" t="s">
-        <v>472</v>
-      </c>
-      <c r="J52" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="E53" t="s">
-        <v>513</v>
-      </c>
-      <c r="F53" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
-      </c>
-      <c r="H53" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F53" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H53">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I53" t="s">
-        <v>472</v>
-      </c>
-      <c r="J53" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="E54" t="s">
-        <v>514</v>
-      </c>
-      <c r="F54" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
-      </c>
-      <c r="H54" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H54">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
-      </c>
-      <c r="J54" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="E55" t="s">
-        <v>515</v>
-      </c>
-      <c r="F55" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$45</f>
-        <v>iam_menu-45</v>
-      </c>
-      <c r="H55" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F55" t="s">
+        <v>552</v>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$48</f>
+      </c>
+      <c r="H55">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I55" t="s">
-        <v>472</v>
-      </c>
-      <c r="J55" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="E56" t="s">
-        <v>516</v>
-      </c>
-      <c r="F56" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$46</f>
-        <v>iam_menu-46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F56" t="s">
+        <v>552</v>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H56">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
-      </c>
-      <c r="J56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="E57" t="s">
-        <v>517</v>
-      </c>
-      <c r="F57" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$47</f>
-        <v>iam_menu-47</v>
-      </c>
-      <c r="H57" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F57" t="s">
+        <v>552</v>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H57">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I57" t="s">
-        <v>472</v>
-      </c>
-      <c r="J57" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="58" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="E58" t="s">
-        <v>518</v>
-      </c>
-      <c r="F58" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$48</f>
-        <v>iam_menu-48</v>
-      </c>
-      <c r="H58" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F58" t="s">
+        <v>552</v>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="H58">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
-      </c>
-      <c r="J58" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="59" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="E59" t="s">
-        <v>519</v>
-      </c>
-      <c r="F59" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$49</f>
-        <v>iam_menu-49</v>
-      </c>
-      <c r="H59" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F59" t="s">
+        <v>552</v>
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="H59">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
-      </c>
-      <c r="J59" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="E60" t="s">
-        <v>520</v>
-      </c>
-      <c r="F60" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$50</f>
-        <v>iam_menu-50</v>
-      </c>
-      <c r="H60" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F60" t="s">
+        <v>552</v>
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$55</f>
+      </c>
+      <c r="H60">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
-      </c>
-      <c r="J60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="E61" t="s">
-        <v>521</v>
-      </c>
-      <c r="F61" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
-      </c>
-      <c r="H61" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F61" t="s">
+        <v>552</v>
+      </c>
+      <c r="G61">
+        <f>菜单SAAS版!$E$56</f>
+      </c>
+      <c r="H61">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
-      </c>
-      <c r="J61" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="62" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="E62" t="s">
-        <v>522</v>
-      </c>
-      <c r="F62" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G62" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
-      </c>
-      <c r="H62" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F62" t="s">
+        <v>552</v>
+      </c>
+      <c r="G62">
+        <f>菜单SAAS版!$E$57</f>
+      </c>
+      <c r="H62">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I62" t="s">
-        <v>472</v>
-      </c>
-      <c r="J62" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="63" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="E63" t="s">
-        <v>523</v>
-      </c>
-      <c r="F63" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G63" t="str">
-        <f>菜单SAAS版!$E$55</f>
-        <v>iam_menu-55</v>
-      </c>
-      <c r="H63" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H63">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I63" t="s">
-        <v>472</v>
-      </c>
-      <c r="J63" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="64" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="E64" t="s">
-        <v>524</v>
-      </c>
-      <c r="F64" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G64" t="str">
-        <f>菜单SAAS版!$E$56</f>
-        <v>iam_menu-56</v>
-      </c>
-      <c r="H64" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F64" t="s">
+        <v>552</v>
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$59</f>
+      </c>
+      <c r="H64">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
-      </c>
-      <c r="J64" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="E65" t="s">
-        <v>525</v>
-      </c>
-      <c r="F65" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G65" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
-      </c>
-      <c r="H65" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F65" t="s">
+        <v>552</v>
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$60</f>
+      </c>
+      <c r="H65">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
-      </c>
-      <c r="J65" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="E66" t="s">
-        <v>526</v>
-      </c>
-      <c r="F66" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G66" t="str">
-        <f>菜单SAAS版!$E$58</f>
-        <v>iam_menu-58</v>
-      </c>
-      <c r="H66" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F66" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$61</f>
+      </c>
+      <c r="H66">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I66" t="s">
-        <v>472</v>
-      </c>
-      <c r="J66" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="E67" t="s">
-        <v>527</v>
-      </c>
-      <c r="F67" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G67" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
-      </c>
-      <c r="H67" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67">
+        <f>菜单SAAS版!$E$63</f>
+      </c>
+      <c r="H67">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I67" t="s">
-        <v>472</v>
-      </c>
-      <c r="J67" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="E68" t="s">
-        <v>528</v>
-      </c>
-      <c r="F68" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G68" t="str">
-        <f>菜单SAAS版!$E$60</f>
-        <v>iam_menu-60</v>
-      </c>
-      <c r="H68" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H68">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I68" t="s">
-        <v>472</v>
-      </c>
-      <c r="J68" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="E69" t="s">
-        <v>529</v>
-      </c>
-      <c r="F69" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G69" t="str">
-        <f>菜单SAAS版!$E$61</f>
-        <v>iam_menu-61</v>
-      </c>
-      <c r="H69" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="F69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="H69">
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I69" t="s">
-        <v>472</v>
-      </c>
-      <c r="J69" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10">
-      <c r="E70" t="s">
-        <v>530</v>
-      </c>
-      <c r="F70" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G70" t="str">
-        <f>菜单SAAS版!$E$63</f>
-        <v>iam_menu-63</v>
-      </c>
-      <c r="H70" t="s">
-        <v>471</v>
-      </c>
-      <c r="I70" t="s">
-        <v>472</v>
-      </c>
-      <c r="J70" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10">
-      <c r="E71" t="s">
-        <v>531</v>
-      </c>
-      <c r="F71" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G71" t="str">
-        <f>菜单SAAS版!$E$64</f>
-        <v>iam_menu-64</v>
-      </c>
-      <c r="H71" t="s">
-        <v>471</v>
-      </c>
-      <c r="I71" t="s">
-        <v>472</v>
-      </c>
-      <c r="J71" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10">
-      <c r="E72" t="s">
-        <v>532</v>
-      </c>
-      <c r="F72" t="str">
-        <f>角色权限!$E$8</f>
-        <v>iam_role-8</v>
-      </c>
-      <c r="G72" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
-      </c>
-      <c r="H72" t="s">
-        <v>471</v>
-      </c>
-      <c r="I72" t="s">
-        <v>472</v>
-      </c>
-      <c r="J72" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -1,35 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-file\src\main\resources\script\db\init-data\hzero_file\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623338E0-03E3-4DC4-BF32-1F636344BF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
-    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
+    <sheet name="角色权限" sheetId="4" r:id="rId4"/>
+    <sheet name="菜单标签数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="567">
   <si>
     <r>
       <rPr>
@@ -3544,13 +3553,16 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="77">
     <font>
       <sz val="12"/>
@@ -3670,299 +3682,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4103,7 +4174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4155,6 +4226,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4170,69 +4300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4572,36 +4644,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4610,21 +4682,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4735,11 +4807,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4777,19 +4849,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="86"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4813,39 +4885,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4855,13 +4927,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4873,10 +4945,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" s="59" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4897,7 +4969,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" s="60" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4922,7 +4994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4975,7 +5047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>87</v>
       </c>
@@ -4994,8 +5066,9 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>92</v>
@@ -5031,7 +5104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -5047,8 +5120,9 @@
       <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -5081,7 +5155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>103</v>
       </c>
@@ -5097,8 +5171,9 @@
       <c r="J11" t="s">
         <v>80</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -5131,7 +5206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>107</v>
       </c>
@@ -5147,8 +5222,9 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
         <v>100</v>
@@ -5181,7 +5257,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -5197,8 +5273,9 @@
       <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -5231,7 +5308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -5247,8 +5324,9 @@
       <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
         <v>100</v>
@@ -5278,7 +5356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -5297,8 +5375,9 @@
       <c r="J15" t="s">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -5331,7 +5410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -5347,8 +5426,9 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -5378,7 +5458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>129</v>
       </c>
@@ -5394,8 +5474,9 @@
       <c r="J17" t="s">
         <v>80</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L17" t="s">
         <v>100</v>
@@ -5425,7 +5506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>133</v>
       </c>
@@ -5444,8 +5525,9 @@
       <c r="J18" t="s">
         <v>80</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
         <v>92</v>
@@ -5481,7 +5563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>142</v>
       </c>
@@ -5497,8 +5579,9 @@
       <c r="J19" t="s">
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -5528,7 +5611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:24">
       <c r="E20" t="s">
         <v>146</v>
       </c>
@@ -5547,8 +5630,9 @@
       <c r="J20" t="s">
         <v>80</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -5578,7 +5662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:24">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -5597,8 +5681,9 @@
       <c r="J21" t="s">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L21" t="s">
         <v>92</v>
@@ -5631,7 +5716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:24">
       <c r="E22" t="s">
         <v>159</v>
       </c>
@@ -5647,8 +5732,9 @@
       <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -5678,7 +5764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:24">
       <c r="E23" t="s">
         <v>163</v>
       </c>
@@ -5694,8 +5780,9 @@
       <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -5725,7 +5812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:24">
       <c r="E24" t="s">
         <v>167</v>
       </c>
@@ -5741,8 +5828,9 @@
       <c r="J24" t="s">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -5775,7 +5863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:24">
       <c r="E25" t="s">
         <v>172</v>
       </c>
@@ -5828,7 +5916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:24">
       <c r="E26" t="s">
         <v>176</v>
       </c>
@@ -5847,8 +5935,9 @@
       <c r="J26" t="s">
         <v>174</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L26" t="s">
         <v>92</v>
@@ -5884,7 +5973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:24">
       <c r="E27" t="s">
         <v>180</v>
       </c>
@@ -5900,8 +5989,9 @@
       <c r="J27" t="s">
         <v>174</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -5934,7 +6024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:24">
       <c r="E28" t="s">
         <v>183</v>
       </c>
@@ -5950,8 +6040,9 @@
       <c r="J28" t="s">
         <v>174</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5984,7 +6075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:24">
       <c r="E29" t="s">
         <v>186</v>
       </c>
@@ -6000,8 +6091,9 @@
       <c r="J29" t="s">
         <v>174</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -6034,7 +6126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:24">
       <c r="E30" t="s">
         <v>189</v>
       </c>
@@ -6050,8 +6142,9 @@
       <c r="J30" t="s">
         <v>174</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -6084,7 +6177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:24">
       <c r="E31" t="s">
         <v>192</v>
       </c>
@@ -6100,8 +6193,9 @@
       <c r="J31" t="s">
         <v>174</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L31" t="s">
         <v>100</v>
@@ -6131,7 +6225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:24">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -6147,8 +6241,9 @@
       <c r="J32" t="s">
         <v>174</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L32" t="s">
         <v>100</v>
@@ -6178,7 +6273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:24">
       <c r="E33" t="s">
         <v>198</v>
       </c>
@@ -6194,8 +6289,9 @@
       <c r="J33" t="s">
         <v>174</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L33" t="s">
         <v>100</v>
@@ -6225,7 +6321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:24">
       <c r="E34" t="s">
         <v>201</v>
       </c>
@@ -6241,8 +6337,9 @@
       <c r="J34" t="s">
         <v>174</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="str">
         <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="L34" t="s">
         <v>100</v>
@@ -6272,7 +6369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:24">
       <c r="E35" t="s">
         <v>204</v>
       </c>
@@ -6291,8 +6388,9 @@
       <c r="J35" t="s">
         <v>174</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L35" t="s">
         <v>92</v>
@@ -6328,7 +6426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:24">
       <c r="E36" t="s">
         <v>212</v>
       </c>
@@ -6344,8 +6442,9 @@
       <c r="J36" t="s">
         <v>174</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L36" t="s">
         <v>100</v>
@@ -6378,7 +6477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:24">
       <c r="E37" t="s">
         <v>216</v>
       </c>
@@ -6394,8 +6493,9 @@
       <c r="J37" t="s">
         <v>174</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L37" t="s">
         <v>100</v>
@@ -6428,7 +6528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:24">
       <c r="E38" t="s">
         <v>220</v>
       </c>
@@ -6444,8 +6544,9 @@
       <c r="J38" t="s">
         <v>174</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L38" t="s">
         <v>100</v>
@@ -6478,7 +6579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:24">
       <c r="E39" t="s">
         <v>224</v>
       </c>
@@ -6494,8 +6595,9 @@
       <c r="J39" t="s">
         <v>174</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L39" t="s">
         <v>100</v>
@@ -6528,7 +6630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:24">
       <c r="E40" t="s">
         <v>228</v>
       </c>
@@ -6544,8 +6646,9 @@
       <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L40" t="s">
         <v>100</v>
@@ -6575,7 +6678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:24">
       <c r="E41" t="s">
         <v>232</v>
       </c>
@@ -6591,8 +6694,9 @@
       <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L41" t="s">
         <v>100</v>
@@ -6625,7 +6729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:24">
       <c r="E42" t="s">
         <v>237</v>
       </c>
@@ -6641,8 +6745,9 @@
       <c r="J42" t="s">
         <v>174</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L42" t="s">
         <v>100</v>
@@ -6672,7 +6777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:24">
       <c r="E43" t="s">
         <v>241</v>
       </c>
@@ -6688,8 +6793,9 @@
       <c r="J43" t="s">
         <v>174</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="str">
         <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="L43" t="s">
         <v>100</v>
@@ -6719,7 +6825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:24">
       <c r="E44" t="s">
         <v>245</v>
       </c>
@@ -6738,8 +6844,9 @@
       <c r="J44" t="s">
         <v>174</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L44" t="s">
         <v>92</v>
@@ -6775,7 +6882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:24">
       <c r="E45" t="s">
         <v>253</v>
       </c>
@@ -6791,8 +6898,9 @@
       <c r="J45" t="s">
         <v>174</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L45" t="s">
         <v>100</v>
@@ -6825,7 +6933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:24">
       <c r="E46" t="s">
         <v>257</v>
       </c>
@@ -6841,8 +6949,9 @@
       <c r="J46" t="s">
         <v>174</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L46" t="s">
         <v>100</v>
@@ -6875,7 +6984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:24">
       <c r="E47" t="s">
         <v>261</v>
       </c>
@@ -6891,8 +7000,9 @@
       <c r="J47" t="s">
         <v>174</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L47" t="s">
         <v>100</v>
@@ -6925,7 +7035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:24">
       <c r="E48" t="s">
         <v>265</v>
       </c>
@@ -6941,8 +7051,9 @@
       <c r="J48" t="s">
         <v>174</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L48" t="s">
         <v>100</v>
@@ -6975,7 +7086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:24">
       <c r="E49" t="s">
         <v>269</v>
       </c>
@@ -6991,8 +7102,9 @@
       <c r="J49" t="s">
         <v>174</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L49" t="s">
         <v>100</v>
@@ -7025,7 +7137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:24">
       <c r="E50" t="s">
         <v>273</v>
       </c>
@@ -7041,8 +7153,9 @@
       <c r="J50" t="s">
         <v>174</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L50" t="s">
         <v>100</v>
@@ -7075,7 +7188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:24">
       <c r="E51" t="s">
         <v>277</v>
       </c>
@@ -7094,8 +7207,9 @@
       <c r="J51" t="s">
         <v>174</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="str">
         <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="L51" t="s">
         <v>100</v>
@@ -7125,7 +7239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:24">
       <c r="E52" t="s">
         <v>282</v>
       </c>
@@ -7144,8 +7258,9 @@
       <c r="J52" t="s">
         <v>174</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L52" t="s">
         <v>92</v>
@@ -7181,7 +7296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:24">
       <c r="E53" t="s">
         <v>285</v>
       </c>
@@ -7200,8 +7315,9 @@
       <c r="J53" t="s">
         <v>174</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="str">
         <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="L53" t="s">
         <v>100</v>
@@ -7231,7 +7347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:24">
       <c r="E54" t="s">
         <v>288</v>
       </c>
@@ -7250,8 +7366,9 @@
       <c r="J54" t="s">
         <v>174</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L54" t="s">
         <v>92</v>
@@ -7287,7 +7404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:24">
       <c r="E55" t="s">
         <v>296</v>
       </c>
@@ -7303,8 +7420,9 @@
       <c r="J55" t="s">
         <v>174</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L55" t="s">
         <v>100</v>
@@ -7337,7 +7455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:24">
       <c r="E56" t="s">
         <v>300</v>
       </c>
@@ -7353,8 +7471,9 @@
       <c r="J56" t="s">
         <v>174</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L56" t="s">
         <v>100</v>
@@ -7387,7 +7506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:24">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -7403,8 +7522,9 @@
       <c r="J57" t="s">
         <v>174</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L57" t="s">
         <v>100</v>
@@ -7437,7 +7557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:24">
       <c r="E58" t="s">
         <v>308</v>
       </c>
@@ -7453,8 +7573,9 @@
       <c r="J58" t="s">
         <v>174</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L58" t="s">
         <v>100</v>
@@ -7484,7 +7605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:24">
       <c r="E59" t="s">
         <v>312</v>
       </c>
@@ -7503,8 +7624,9 @@
       <c r="J59" t="s">
         <v>174</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L59" t="s">
         <v>100</v>
@@ -7537,7 +7659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:24">
       <c r="E60" t="s">
         <v>317</v>
       </c>
@@ -7553,8 +7675,9 @@
       <c r="J60" t="s">
         <v>174</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L60" t="s">
         <v>100</v>
@@ -7584,7 +7707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:24">
       <c r="E61" t="s">
         <v>321</v>
       </c>
@@ -7600,8 +7723,9 @@
       <c r="J61" t="s">
         <v>174</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="str">
         <f>菜单SAAS版!$E$54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="L61" t="s">
         <v>100</v>
@@ -7631,7 +7755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:24">
       <c r="E62" t="s">
         <v>325</v>
       </c>
@@ -7650,8 +7774,9 @@
       <c r="J62" t="s">
         <v>174</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="str">
         <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="L62" t="s">
         <v>92</v>
@@ -7684,7 +7809,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:24">
       <c r="E63" t="s">
         <v>330</v>
       </c>
@@ -7700,8 +7825,9 @@
       <c r="J63" t="s">
         <v>174</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L63" t="s">
         <v>100</v>
@@ -7731,7 +7857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:24">
       <c r="E64" t="s">
         <v>333</v>
       </c>
@@ -7747,8 +7873,9 @@
       <c r="J64" t="s">
         <v>174</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L64" t="s">
         <v>100</v>
@@ -7778,7 +7905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:24">
       <c r="E65" t="s">
         <v>336</v>
       </c>
@@ -7794,8 +7921,9 @@
       <c r="J65" t="s">
         <v>174</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="str">
         <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="L65" t="s">
         <v>100</v>
@@ -7829,44 +7957,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7876,641 +8005,697 @@
       <c r="C7" t="s">
         <v>339</v>
       </c>
-      <c r="D7" t="s" s="66">
+      <c r="D7" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="E7" t="s" s="67">
+      <c r="E7" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
+      <c r="F7" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="G7" t="s" s="69">
+      <c r="G7" s="64" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>343</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="G8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>345</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="G9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>347</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>349</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="G11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>350</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>352</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>354</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>356</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>358</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>360</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>362</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>364</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>366</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>368</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>370</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G22" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>372</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>374</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>376</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="G25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>378</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>380</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G27" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>382</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G28" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>384</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>386</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G30" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>388</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="G31" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>390</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G32" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>391</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G33" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>392</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G34" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>394</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>395</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G37" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>398</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G38" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>400</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="G39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>401</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="G40" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>402</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G41" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>403</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="G42" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>404</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G43" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>406</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G44" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>408</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G45" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>409</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G46" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>411</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G47" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>413</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G48" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>415</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="G49" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:7">
       <c r="E50" t="s">
         <v>417</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G50" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:7">
       <c r="E51" t="s">
         <v>418</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G51" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:7">
       <c r="E52" t="s">
         <v>420</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G52" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:7">
       <c r="E53" t="s">
         <v>422</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G53" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:7">
       <c r="E54" t="s">
         <v>424</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G54" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:7">
       <c r="E55" t="s">
         <v>426</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="G55" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:7">
       <c r="E56" t="s">
         <v>427</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:7">
       <c r="E57" t="s">
         <v>428</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G57" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:7">
       <c r="E58" t="s">
         <v>430</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:7">
       <c r="E59" t="s">
         <v>432</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G59" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:7">
       <c r="E60" t="s">
         <v>434</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="G60" t="s">
         <v>435</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:25">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:25">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8520,10 +8705,10 @@
       <c r="C7" t="s">
         <v>436</v>
       </c>
-      <c r="D7" t="s" s="70">
+      <c r="D7" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="E7" t="s" s="71">
+      <c r="E7" s="66" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -8532,7 +8717,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="72">
+      <c r="H7" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -8541,16 +8726,16 @@
       <c r="J7" t="s">
         <v>439</v>
       </c>
-      <c r="K7" t="s" s="73">
+      <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>440</v>
       </c>
-      <c r="M7" t="s" s="74">
+      <c r="M7" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="N7" t="s" s="75">
+      <c r="N7" s="70" t="s">
         <v>442</v>
       </c>
       <c r="O7" t="s">
@@ -8577,7 +8762,7 @@
       <c r="V7" t="s">
         <v>449</v>
       </c>
-      <c r="W7" t="s" s="76">
+      <c r="W7" s="71" t="s">
         <v>450</v>
       </c>
       <c r="X7" t="s">
@@ -8587,7 +8772,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>453</v>
       </c>
@@ -8646,7 +8831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>458</v>
       </c>
@@ -8705,7 +8890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>463</v>
       </c>
@@ -8727,8 +8912,9 @@
       <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色权限!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -8760,14 +8946,14 @@
       <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="X10" t="s">
-        <v>459</v>
+      <c r="X10" s="91" t="s">
+        <v>566</v>
       </c>
       <c r="Y10" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8777,16 +8963,16 @@
       <c r="C12" t="s">
         <v>470</v>
       </c>
-      <c r="D12" t="s" s="77">
+      <c r="D12" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="E12" t="s" s="78">
+      <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
+      <c r="F12" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="G12" t="s" s="80">
+      <c r="G12" s="75" t="s">
         <v>473</v>
       </c>
       <c r="H12" t="s">
@@ -8795,19 +8981,21 @@
       <c r="I12" t="s">
         <v>475</v>
       </c>
-      <c r="J12" t="s" s="81">
+      <c r="J12" s="76" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>477</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H13" t="s">
         <v>478</v>
@@ -8819,15 +9007,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>481</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H14" t="s">
         <v>478</v>
@@ -8839,15 +9029,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>482</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H15" t="s">
         <v>478</v>
@@ -8859,15 +9051,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>483</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H16" t="s">
         <v>478</v>
@@ -8879,15 +9073,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
         <v>484</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H17" t="s">
         <v>478</v>
@@ -8899,15 +9095,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
         <v>485</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H18" t="s">
         <v>478</v>
@@ -8919,15 +9117,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
         <v>486</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H19" t="s">
         <v>478</v>
@@ -8939,15 +9139,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
         <v>487</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H20" t="s">
         <v>478</v>
@@ -8959,15 +9161,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:10">
       <c r="E21" t="s">
         <v>488</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G21">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H21" t="s">
         <v>478</v>
@@ -8979,15 +9183,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
         <v>489</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G22">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
         <v>478</v>
@@ -8999,15 +9205,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:10">
       <c r="E23" t="s">
         <v>490</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G23">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
         <v>478</v>
@@ -9019,15 +9227,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
         <v>491</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G24">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H24" t="s">
         <v>478</v>
@@ -9039,15 +9249,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:10">
       <c r="E25" t="s">
         <v>492</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G25">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H25" t="s">
         <v>478</v>
@@ -9059,15 +9271,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:10">
       <c r="E26" t="s">
         <v>493</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G26">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G26" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H26" t="s">
         <v>478</v>
@@ -9079,15 +9293,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:10">
       <c r="E27" t="s">
         <v>494</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G27">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G27" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
         <v>478</v>
@@ -9099,15 +9315,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:10">
       <c r="E28" t="s">
         <v>495</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G28">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
         <v>478</v>
@@ -9119,15 +9337,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:10">
       <c r="E29" t="s">
         <v>496</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G29">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
         <v>478</v>
@@ -9139,15 +9359,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:10">
       <c r="E30" t="s">
         <v>497</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G30">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
         <v>478</v>
@@ -9159,15 +9381,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:10">
       <c r="E31" t="s">
         <v>498</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G31">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G31" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H31" t="s">
         <v>478</v>
@@ -9179,15 +9403,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:10">
       <c r="E32" t="s">
         <v>499</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G32">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H32" t="s">
         <v>478</v>
@@ -9199,15 +9425,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:10">
       <c r="E33" t="s">
         <v>500</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G33">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H33" t="s">
         <v>478</v>
@@ -9219,15 +9447,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:10">
       <c r="E34" t="s">
         <v>501</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G34">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H34" t="s">
         <v>478</v>
@@ -9239,15 +9469,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:10">
       <c r="E35" t="s">
         <v>502</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G35">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H35" t="s">
         <v>478</v>
@@ -9259,15 +9491,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:10">
       <c r="E36" t="s">
         <v>503</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G36">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
+        <v>iam_menu-23</v>
       </c>
       <c r="H36" t="s">
         <v>478</v>
@@ -9279,15 +9513,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:10">
       <c r="E37" t="s">
         <v>504</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>角色权限!$E$9</f>
-      </c>
-      <c r="G37">
+        <v>iam_role-9</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H37" t="s">
         <v>478</v>
@@ -9299,15 +9535,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:10">
       <c r="E38" t="s">
         <v>505</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G38">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H38" t="s">
         <v>478</v>
@@ -9319,15 +9557,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:10">
       <c r="E39" t="s">
         <v>506</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G39">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
         <v>478</v>
@@ -9339,15 +9579,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:10">
       <c r="E40" t="s">
         <v>507</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G40">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H40" t="s">
         <v>478</v>
@@ -9359,15 +9601,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:10">
       <c r="E41" t="s">
         <v>508</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G41">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H41" t="s">
         <v>478</v>
@@ -9379,15 +9623,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:10">
       <c r="E42" t="s">
         <v>509</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G42">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H42" t="s">
         <v>478</v>
@@ -9399,15 +9645,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:10">
       <c r="E43" t="s">
         <v>510</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G43">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H43" t="s">
         <v>478</v>
@@ -9419,15 +9667,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:10">
       <c r="E44" t="s">
         <v>511</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G44">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H44" t="s">
         <v>478</v>
@@ -9439,15 +9689,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:10">
       <c r="E45" t="s">
         <v>512</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G45">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G45" t="str">
         <f>菜单SAAS版!$E$33</f>
+        <v>iam_menu-33</v>
       </c>
       <c r="H45" t="s">
         <v>478</v>
@@ -9459,15 +9711,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:10">
       <c r="E46" t="s">
         <v>513</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G46">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H46" t="s">
         <v>478</v>
@@ -9479,15 +9733,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:10">
       <c r="E47" t="s">
         <v>514</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G47">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H47" t="s">
         <v>478</v>
@@ -9499,15 +9755,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:10">
       <c r="E48" t="s">
         <v>515</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G48">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H48" t="s">
         <v>478</v>
@@ -9519,15 +9777,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:10">
       <c r="E49" t="s">
         <v>516</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G49">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G49" t="str">
         <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H49" t="s">
         <v>478</v>
@@ -9539,15 +9799,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:10">
       <c r="E50" t="s">
         <v>517</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G50">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H50" t="s">
         <v>478</v>
@@ -9559,15 +9821,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:10">
       <c r="E51" t="s">
         <v>518</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G51">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H51" t="s">
         <v>478</v>
@@ -9579,15 +9843,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:10">
       <c r="E52" t="s">
         <v>519</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G52">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G52" t="str">
         <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H52" t="s">
         <v>478</v>
@@ -9599,15 +9865,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:10">
       <c r="E53" t="s">
         <v>520</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G53">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G53" t="str">
         <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H53" t="s">
         <v>478</v>
@@ -9619,15 +9887,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:10">
       <c r="E54" t="s">
         <v>521</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G54">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H54" t="s">
         <v>478</v>
@@ -9639,15 +9909,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:10">
       <c r="E55" t="s">
         <v>522</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G55">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G55" t="str">
         <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="H55" t="s">
         <v>478</v>
@@ -9659,15 +9931,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:10">
       <c r="E56" t="s">
         <v>523</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G56">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="H56" t="s">
         <v>478</v>
@@ -9679,15 +9953,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:10">
       <c r="E57" t="s">
         <v>524</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G57">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="H57" t="s">
         <v>478</v>
@@ -9699,15 +9975,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:10">
       <c r="E58" t="s">
         <v>525</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G58">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="H58" t="s">
         <v>478</v>
@@ -9719,15 +9997,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:10">
       <c r="E59" t="s">
         <v>526</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G59">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G59" t="str">
         <f>菜单SAAS版!$E$49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="H59" t="s">
         <v>478</v>
@@ -9739,15 +10019,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:10">
       <c r="E60" t="s">
         <v>527</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G60">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G60" t="str">
         <f>菜单SAAS版!$E$50</f>
+        <v>iam_menu-50</v>
       </c>
       <c r="H60" t="s">
         <v>478</v>
@@ -9759,15 +10041,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:10">
       <c r="E61" t="s">
         <v>528</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G61">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G61" t="str">
         <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="H61" t="s">
         <v>478</v>
@@ -9779,15 +10063,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:10">
       <c r="E62" t="s">
         <v>529</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G62">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G62" t="str">
         <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="H62" t="s">
         <v>478</v>
@@ -9799,15 +10085,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:10">
       <c r="E63" t="s">
         <v>530</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G63">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G63" t="str">
         <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="H63" t="s">
         <v>478</v>
@@ -9819,15 +10107,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:10">
       <c r="E64" t="s">
         <v>531</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G64">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G64" t="str">
         <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="H64" t="s">
         <v>478</v>
@@ -9839,15 +10129,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:10">
       <c r="E65" t="s">
         <v>532</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G65">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G65" t="str">
         <f>菜单SAAS版!$E$57</f>
+        <v>iam_menu-57</v>
       </c>
       <c r="H65" t="s">
         <v>478</v>
@@ -9859,15 +10151,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:10">
       <c r="E66" t="s">
         <v>533</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G66">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G66" t="str">
         <f>菜单SAAS版!$E$58</f>
+        <v>iam_menu-58</v>
       </c>
       <c r="H66" t="s">
         <v>478</v>
@@ -9879,15 +10173,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:10">
       <c r="E67" t="s">
         <v>534</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G67">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G67" t="str">
         <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="H67" t="s">
         <v>478</v>
@@ -9899,15 +10195,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:10">
       <c r="E68" t="s">
         <v>535</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G68">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G68" t="str">
         <f>菜单SAAS版!$E$60</f>
+        <v>iam_menu-60</v>
       </c>
       <c r="H68" t="s">
         <v>478</v>
@@ -9919,15 +10217,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:10">
       <c r="E69" t="s">
         <v>536</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G69">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G69" t="str">
         <f>菜单SAAS版!$E$61</f>
+        <v>iam_menu-61</v>
       </c>
       <c r="H69" t="s">
         <v>478</v>
@@ -9939,15 +10239,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="5:10">
       <c r="E70" t="s">
         <v>537</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G70">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G70" t="str">
         <f>菜单SAAS版!$E$63</f>
+        <v>iam_menu-63</v>
       </c>
       <c r="H70" t="s">
         <v>478</v>
@@ -9959,15 +10261,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="5:10">
       <c r="E71" t="s">
         <v>538</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G71">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G71" t="str">
         <f>菜单SAAS版!$E$64</f>
+        <v>iam_menu-64</v>
       </c>
       <c r="H71" t="s">
         <v>478</v>
@@ -9979,15 +10283,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="5:10">
       <c r="E72" t="s">
         <v>539</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="str">
         <f>角色权限!$E$8</f>
-      </c>
-      <c r="G72">
+        <v>iam_role-8</v>
+      </c>
+      <c r="G72" t="str">
         <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="H72" t="s">
         <v>478</v>
@@ -10000,44 +10306,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:15">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:15">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -10047,16 +10354,16 @@
       <c r="C7" t="s">
         <v>540</v>
       </c>
-      <c r="D7" t="s" s="82">
+      <c r="D7" s="77" t="s">
         <v>541</v>
       </c>
-      <c r="E7" t="s" s="83">
+      <c r="E7" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
+      <c r="F7" s="79" t="s">
         <v>542</v>
       </c>
-      <c r="G7" t="s" s="85">
+      <c r="G7" s="80" t="s">
         <v>476</v>
       </c>
       <c r="H7" t="s">
@@ -10084,7 +10391,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>550</v>
       </c>
@@ -10116,7 +10423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>555</v>
       </c>
@@ -10142,7 +10449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -10152,1012 +10459,1130 @@
       <c r="C11" t="s">
         <v>557</v>
       </c>
-      <c r="D11" t="s" s="86">
+      <c r="D11" s="81" t="s">
         <v>558</v>
       </c>
-      <c r="E11" t="s" s="87">
+      <c r="E11" s="82" t="s">
         <v>559</v>
       </c>
-      <c r="F11" t="s" s="88">
+      <c r="F11" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="G11" t="s" s="89">
+      <c r="G11" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="H11" t="s" s="90">
+      <c r="H11" s="85" t="s">
         <v>562</v>
       </c>
       <c r="I11" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>564</v>
       </c>
       <c r="F12" t="s">
         <v>552</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H12">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H12" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>564</v>
       </c>
       <c r="F13" t="s">
         <v>552</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <f>菜单SAAS版!$E$25</f>
-      </c>
-      <c r="H13">
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H13" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>564</v>
       </c>
       <c r="F14" t="s">
         <v>552</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H14">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H14" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>564</v>
       </c>
       <c r="F15" t="s">
         <v>552</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H15">
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H15" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>564</v>
       </c>
       <c r="F16" t="s">
         <v>552</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H16">
+        <v>iam_menu-21</v>
+      </c>
+      <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
         <v>564</v>
       </c>
       <c r="F17" t="s">
         <v>552</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H17">
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
         <v>564</v>
       </c>
       <c r="F18" t="s">
         <v>552</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H18">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
         <v>564</v>
       </c>
       <c r="F19" t="s">
         <v>552</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H19">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H19" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
         <v>564</v>
       </c>
       <c r="F20" t="s">
         <v>552</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H20">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H20" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>564</v>
       </c>
       <c r="F21" t="s">
         <v>552</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
         <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H21">
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H21" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>564</v>
       </c>
       <c r="F22" t="s">
         <v>552</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H22">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H22" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
         <v>564</v>
       </c>
       <c r="F23" t="s">
         <v>552</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H23">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H23" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
         <v>564</v>
       </c>
       <c r="F24" t="s">
         <v>552</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H24">
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H24" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
         <v>564</v>
       </c>
       <c r="F25" t="s">
         <v>552</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H25">
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H25" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
         <v>564</v>
       </c>
       <c r="F26" t="s">
         <v>552</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="str">
         <f>菜单SAAS版!$E$20</f>
-      </c>
-      <c r="H26">
+        <v>iam_menu-20</v>
+      </c>
+      <c r="H26" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
         <v>564</v>
       </c>
       <c r="F27" t="s">
         <v>552</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="str">
         <f>菜单SAAS版!$E$22</f>
-      </c>
-      <c r="H27">
+        <v>iam_menu-22</v>
+      </c>
+      <c r="H27" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
         <v>564</v>
       </c>
       <c r="F28" t="s">
         <v>552</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$23</f>
-      </c>
-      <c r="H28">
+        <v>iam_menu-23</v>
+      </c>
+      <c r="H28" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
         <v>564</v>
       </c>
       <c r="F29" t="s">
         <v>552</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$24</f>
-      </c>
-      <c r="H29">
+        <v>iam_menu-24</v>
+      </c>
+      <c r="H29" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>564</v>
       </c>
       <c r="F30" t="s">
         <v>552</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$26</f>
-      </c>
-      <c r="H30">
+        <v>iam_menu-26</v>
+      </c>
+      <c r="H30" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
         <v>564</v>
       </c>
       <c r="F31" t="s">
         <v>552</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="str">
         <f>菜单SAAS版!$E$35</f>
-      </c>
-      <c r="H31">
+        <v>iam_menu-35</v>
+      </c>
+      <c r="H31" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
         <v>564</v>
       </c>
       <c r="F32" t="s">
         <v>552</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$44</f>
-      </c>
-      <c r="H32">
+        <v>iam_menu-44</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
         <v>564</v>
       </c>
       <c r="F33" t="s">
         <v>552</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$52</f>
-      </c>
-      <c r="H33">
+        <v>iam_menu-52</v>
+      </c>
+      <c r="H33" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:9">
       <c r="E34" t="s">
         <v>564</v>
       </c>
       <c r="F34" t="s">
         <v>552</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$54</f>
-      </c>
-      <c r="H34">
+        <v>iam_menu-54</v>
+      </c>
+      <c r="H34" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:9">
       <c r="E35" t="s">
         <v>564</v>
       </c>
       <c r="F35" t="s">
         <v>552</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$62</f>
-      </c>
-      <c r="H35">
+        <v>iam_menu-62</v>
+      </c>
+      <c r="H35" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:9">
       <c r="E36" t="s">
         <v>564</v>
       </c>
       <c r="F36" t="s">
         <v>552</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="H36">
+        <v>iam_menu-27</v>
+      </c>
+      <c r="H36" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:9">
       <c r="E37" t="s">
         <v>564</v>
       </c>
       <c r="F37" t="s">
         <v>552</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$28</f>
-      </c>
-      <c r="H37">
+        <v>iam_menu-28</v>
+      </c>
+      <c r="H37" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:9">
       <c r="E38" t="s">
         <v>564</v>
       </c>
       <c r="F38" t="s">
         <v>552</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="str">
         <f>菜单SAAS版!$E$29</f>
-      </c>
-      <c r="H38">
+        <v>iam_menu-29</v>
+      </c>
+      <c r="H38" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:9">
       <c r="E39" t="s">
         <v>564</v>
       </c>
       <c r="F39" t="s">
         <v>552</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="str">
         <f>菜单SAAS版!$E$30</f>
-      </c>
-      <c r="H39">
+        <v>iam_menu-30</v>
+      </c>
+      <c r="H39" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:9">
       <c r="E40" t="s">
         <v>564</v>
       </c>
       <c r="F40" t="s">
         <v>552</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$31</f>
-      </c>
-      <c r="H40">
+        <v>iam_menu-31</v>
+      </c>
+      <c r="H40" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:9">
       <c r="E41" t="s">
         <v>564</v>
       </c>
       <c r="F41" t="s">
         <v>552</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$32</f>
-      </c>
-      <c r="H41">
+        <v>iam_menu-32</v>
+      </c>
+      <c r="H41" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:9">
       <c r="E42" t="s">
         <v>564</v>
       </c>
       <c r="F42" t="s">
         <v>552</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
-      </c>
-      <c r="H42">
+        <v>iam_menu-33</v>
+      </c>
+      <c r="H42" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:9">
       <c r="E43" t="s">
         <v>564</v>
       </c>
       <c r="F43" t="s">
         <v>552</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$34</f>
-      </c>
-      <c r="H43">
+        <v>iam_menu-34</v>
+      </c>
+      <c r="H43" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:9">
       <c r="E44" t="s">
         <v>564</v>
       </c>
       <c r="F44" t="s">
         <v>552</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$36</f>
-      </c>
-      <c r="H44">
+        <v>iam_menu-36</v>
+      </c>
+      <c r="H44" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:9">
       <c r="E45" t="s">
         <v>564</v>
       </c>
       <c r="F45" t="s">
         <v>552</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="str">
         <f>菜单SAAS版!$E$37</f>
-      </c>
-      <c r="H45">
+        <v>iam_menu-37</v>
+      </c>
+      <c r="H45" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:9">
       <c r="E46" t="s">
         <v>564</v>
       </c>
       <c r="F46" t="s">
         <v>552</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$38</f>
-      </c>
-      <c r="H46">
+        <v>iam_menu-38</v>
+      </c>
+      <c r="H46" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:9">
       <c r="E47" t="s">
         <v>564</v>
       </c>
       <c r="F47" t="s">
         <v>552</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$39</f>
-      </c>
-      <c r="H47">
+        <v>iam_menu-39</v>
+      </c>
+      <c r="H47" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I47" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:9">
       <c r="E48" t="s">
         <v>564</v>
       </c>
       <c r="F48" t="s">
         <v>552</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$40</f>
-      </c>
-      <c r="H48">
+        <v>iam_menu-40</v>
+      </c>
+      <c r="H48" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I48" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:9">
       <c r="E49" t="s">
         <v>564</v>
       </c>
       <c r="F49" t="s">
         <v>552</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="str">
         <f>菜单SAAS版!$E$41</f>
-      </c>
-      <c r="H49">
+        <v>iam_menu-41</v>
+      </c>
+      <c r="H49" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I49" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:9">
       <c r="E50" t="s">
         <v>564</v>
       </c>
       <c r="F50" t="s">
         <v>552</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$42</f>
-      </c>
-      <c r="H50">
+        <v>iam_menu-42</v>
+      </c>
+      <c r="H50" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I50" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:9">
       <c r="E51" t="s">
         <v>564</v>
       </c>
       <c r="F51" t="s">
         <v>552</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$43</f>
-      </c>
-      <c r="H51">
+        <v>iam_menu-43</v>
+      </c>
+      <c r="H51" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I51" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:9">
       <c r="E52" t="s">
         <v>564</v>
       </c>
       <c r="F52" t="s">
         <v>552</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="str">
         <f>菜单SAAS版!$E$45</f>
-      </c>
-      <c r="H52">
+        <v>iam_menu-45</v>
+      </c>
+      <c r="H52" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I52" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:9">
       <c r="E53" t="s">
         <v>564</v>
       </c>
       <c r="F53" t="s">
         <v>552</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="str">
         <f>菜单SAAS版!$E$46</f>
-      </c>
-      <c r="H53">
+        <v>iam_menu-46</v>
+      </c>
+      <c r="H53" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I53" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:9">
       <c r="E54" t="s">
         <v>564</v>
       </c>
       <c r="F54" t="s">
         <v>552</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$47</f>
-      </c>
-      <c r="H54">
+        <v>iam_menu-47</v>
+      </c>
+      <c r="H54" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I54" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:9">
       <c r="E55" t="s">
         <v>564</v>
       </c>
       <c r="F55" t="s">
         <v>552</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="str">
         <f>菜单SAAS版!$E$48</f>
-      </c>
-      <c r="H55">
+        <v>iam_menu-48</v>
+      </c>
+      <c r="H55" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I55" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:9">
       <c r="E56" t="s">
         <v>564</v>
       </c>
       <c r="F56" t="s">
         <v>552</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$49</f>
-      </c>
-      <c r="H56">
+        <v>iam_menu-49</v>
+      </c>
+      <c r="H56" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I56" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:9">
       <c r="E57" t="s">
         <v>564</v>
       </c>
       <c r="F57" t="s">
         <v>552</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$50</f>
-      </c>
-      <c r="H57">
+        <v>iam_menu-50</v>
+      </c>
+      <c r="H57" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I57" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:9">
       <c r="E58" t="s">
         <v>564</v>
       </c>
       <c r="F58" t="s">
         <v>552</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$51</f>
-      </c>
-      <c r="H58">
+        <v>iam_menu-51</v>
+      </c>
+      <c r="H58" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I58" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:9">
       <c r="E59" t="s">
         <v>564</v>
       </c>
       <c r="F59" t="s">
         <v>552</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="str">
         <f>菜单SAAS版!$E$53</f>
-      </c>
-      <c r="H59">
+        <v>iam_menu-53</v>
+      </c>
+      <c r="H59" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I59" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:9">
       <c r="E60" t="s">
         <v>564</v>
       </c>
       <c r="F60" t="s">
         <v>552</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
-      </c>
-      <c r="H60">
+        <v>iam_menu-55</v>
+      </c>
+      <c r="H60" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I60" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:9">
       <c r="E61" t="s">
         <v>564</v>
       </c>
       <c r="F61" t="s">
         <v>552</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="str">
         <f>菜单SAAS版!$E$56</f>
-      </c>
-      <c r="H61">
+        <v>iam_menu-56</v>
+      </c>
+      <c r="H61" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I61" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:9">
       <c r="E62" t="s">
         <v>564</v>
       </c>
       <c r="F62" t="s">
         <v>552</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="str">
         <f>菜单SAAS版!$E$57</f>
-      </c>
-      <c r="H62">
+        <v>iam_menu-57</v>
+      </c>
+      <c r="H62" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I62" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:9">
       <c r="E63" t="s">
         <v>564</v>
       </c>
       <c r="F63" t="s">
         <v>552</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="str">
         <f>菜单SAAS版!$E$58</f>
-      </c>
-      <c r="H63">
+        <v>iam_menu-58</v>
+      </c>
+      <c r="H63" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I63" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:9">
       <c r="E64" t="s">
         <v>564</v>
       </c>
       <c r="F64" t="s">
         <v>552</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="str">
         <f>菜单SAAS版!$E$59</f>
-      </c>
-      <c r="H64">
+        <v>iam_menu-59</v>
+      </c>
+      <c r="H64" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:9">
       <c r="E65" t="s">
         <v>564</v>
       </c>
       <c r="F65" t="s">
         <v>552</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="str">
         <f>菜单SAAS版!$E$60</f>
-      </c>
-      <c r="H65">
+        <v>iam_menu-60</v>
+      </c>
+      <c r="H65" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I65" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:9">
       <c r="E66" t="s">
         <v>564</v>
       </c>
       <c r="F66" t="s">
         <v>552</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="str">
         <f>菜单SAAS版!$E$61</f>
-      </c>
-      <c r="H66">
+        <v>iam_menu-61</v>
+      </c>
+      <c r="H66" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I66" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:9">
       <c r="E67" t="s">
         <v>564</v>
       </c>
       <c r="F67" t="s">
         <v>552</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="str">
         <f>菜单SAAS版!$E$63</f>
-      </c>
-      <c r="H67">
+        <v>iam_menu-63</v>
+      </c>
+      <c r="H67" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I67" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:9">
       <c r="E68" t="s">
         <v>564</v>
       </c>
       <c r="F68" t="s">
         <v>552</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="str">
         <f>菜单SAAS版!$E$64</f>
-      </c>
-      <c r="H68">
+        <v>iam_menu-64</v>
+      </c>
+      <c r="H68" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I68" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:9">
       <c r="E69" t="s">
         <v>564</v>
       </c>
       <c r="F69" t="s">
         <v>552</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="str">
         <f>菜单SAAS版!$E$65</f>
-      </c>
-      <c r="H69">
+        <v>iam_menu-65</v>
+      </c>
+      <c r="H69" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I69" t="s">
         <v>565</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-file\src\main\resources\script\db\init-data\hzero_file\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-file\src\main\resources\script\db\init-data\hzero_file\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623338E0-03E3-4DC4-BF32-1F636344BF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5044CA-D0DB-44BD-9D31-6FC7CE2A231F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2895,15 +2887,9 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-file.file-summary-list.pageFileList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-file.file-edit-log.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
@@ -2958,39 +2944,21 @@
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-platform.lov-manage.listLovHeaders</t>
-  </si>
-  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-platform.lov-view-manage.pageLovViewHeaders</t>
-  </si>
-  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.createWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.detailWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.pageWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.updateWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
@@ -3006,27 +2974,15 @@
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hzero-file.file-summary-list-site-level.pageFileList</t>
-  </si>
-  <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hzero-file.file-capacity-config-site-level.update</t>
-  </si>
-  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.createUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.updateUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
@@ -3036,9 +2992,6 @@
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hzero-file.file-capacity-config-site-level.pageCapacityConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
@@ -3048,15 +3001,9 @@
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.deleteUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.detailUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
@@ -3087,36 +3034,21 @@
     <t>iam_menu_permission-46</t>
   </si>
   <si>
-    <t>hzero-file.server-upload-config-site-level.createConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
-    <t>hzero-file.server-upload-config-site-level.detailConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hzero-file.server-upload-config-site-level.pageConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>hzero-file.server-upload-config-site-level.updateConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>hzero-file.file-edit-log-site-level.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
@@ -3144,25 +3076,13 @@
     <t>iam_menu_permission-57</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config-site-level.createWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config-site-level.detailWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config-site-level.pageWatermark</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>hzero-file.watermark-config-site-level.updateWatermark</t>
   </si>
   <si>
     <t>角色</t>
@@ -3557,6 +3477,78 @@
   <si>
     <t>组织管理员</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon-file.file-summary-list.pageFileList</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-edit-log.list</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config.createWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config.detailWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config.pageWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config.updateWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-summary-list-site-level.pageFileList</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-capacity-config-site-level.update</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-upload-config-site-level.createUploadConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-upload-config-site-level.updateUploadConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-capacity-config-site-level.pageCapacityConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-upload-config-site-level.deleteUploadConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-upload-config-site-level.detailUploadConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.server-upload-config-site-level.createConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.server-upload-config-site-level.detailConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.server-upload-config-site-level.pageConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.server-upload-config-site-level.updateConfig</t>
+  </si>
+  <si>
+    <t>choerodon-file.file-edit-log-site-level.list</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config-site-level.createWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config-site-level.detailWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config-site-level.pageWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-file.watermark-config-site-level.updateWatermark</t>
+  </si>
+  <si>
+    <t>choerodon-platform.lov-manage.listLovHeaders</t>
+  </si>
+  <si>
+    <t>choerodon-platform.lov-view-manage.pageLovViewHeaders</t>
   </si>
 </sst>
 </file>
@@ -4285,6 +4277,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4300,7 +4293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4669,11 +4661,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4682,21 +4674,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4807,11 +4799,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4849,19 +4841,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="86"/>
+      <c r="E25" s="87"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -7966,7 +7958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
@@ -8038,620 +8032,620 @@
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G9" t="s">
-        <v>346</v>
+      <c r="G9" s="86" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G11" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G20" t="s">
-        <v>367</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G21" t="s">
-        <v>369</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G23" t="s">
-        <v>373</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G24" t="s">
-        <v>375</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G25" t="s">
-        <v>377</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$32</f>
         <v>iam_menu-32</v>
       </c>
       <c r="G26" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$32</f>
         <v>iam_menu-32</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$32</f>
         <v>iam_menu-32</v>
       </c>
       <c r="G28" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$40</f>
         <v>iam_menu-40</v>
       </c>
       <c r="G29" t="s">
-        <v>385</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$40</f>
         <v>iam_menu-40</v>
       </c>
       <c r="G30" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$40</f>
         <v>iam_menu-40</v>
       </c>
       <c r="G31" t="s">
-        <v>389</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G32" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G33" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G34" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G36" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G37" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G38" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G39" t="s">
-        <v>389</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$42</f>
         <v>iam_menu-42</v>
       </c>
       <c r="G40" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$43</f>
         <v>iam_menu-43</v>
       </c>
       <c r="G41" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$43</f>
         <v>iam_menu-43</v>
       </c>
       <c r="G42" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G43" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G44" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G45" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G47" t="s">
-        <v>412</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G48" t="s">
-        <v>414</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$51</f>
         <v>iam_menu-51</v>
       </c>
       <c r="G49" t="s">
-        <v>416</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$53</f>
         <v>iam_menu-53</v>
       </c>
       <c r="G50" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$53</f>
         <v>iam_menu-53</v>
       </c>
       <c r="G51" t="s">
-        <v>419</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$53</f>
         <v>iam_menu-53</v>
       </c>
       <c r="G52" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$53</f>
         <v>iam_menu-53</v>
       </c>
       <c r="G53" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$53</f>
         <v>iam_menu-53</v>
       </c>
       <c r="G54" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$59</f>
         <v>iam_menu-59</v>
       </c>
       <c r="G55" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$65</f>
         <v>iam_menu-65</v>
       </c>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$65</f>
         <v>iam_menu-65</v>
       </c>
       <c r="G57" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$65</f>
         <v>iam_menu-65</v>
       </c>
       <c r="G58" t="s">
-        <v>431</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$65</f>
         <v>iam_menu-65</v>
       </c>
       <c r="G59" t="s">
-        <v>433</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$65</f>
         <v>iam_menu-65</v>
       </c>
       <c r="G60" t="s">
-        <v>435</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -8664,8 +8658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8703,10 +8697,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>54</v>
@@ -8721,72 +8715,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="J7" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="N7" s="70" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="O7" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="P7" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="Q7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="R7" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="S7" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="T7" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="W7" s="71" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="X7" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="Y7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="G8" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="H8" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="I8" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
         <v>174</v>
@@ -8822,10 +8816,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="V8" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -8833,19 +8827,19 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="G9" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="H9" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="I9" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -8881,10 +8875,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="V9" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -8892,16 +8886,16 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="F10" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="G10" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="H10" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -8938,19 +8932,19 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="V10" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="91" t="s">
-        <v>566</v>
+      <c r="X10" s="86" t="s">
+        <v>542</v>
       </c>
       <c r="Y10" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8961,33 +8955,33 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="H12" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="I12" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="F13" t="str">
         <f>角色权限!$E$9</f>
@@ -8998,18 +8992,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H13" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I13" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J13" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="F14" t="str">
         <f>角色权限!$E$10</f>
@@ -9020,18 +9014,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H14" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I14" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J14" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="F15" t="str">
         <f>角色权限!$E$9</f>
@@ -9042,18 +9036,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H15" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I15" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J15" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="F16" t="str">
         <f>角色权限!$E$10</f>
@@ -9064,18 +9058,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H16" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I16" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J16" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="F17" t="str">
         <f>角色权限!$E$9</f>
@@ -9086,18 +9080,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H17" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I17" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J17" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="F18" t="str">
         <f>角色权限!$E$10</f>
@@ -9108,18 +9102,18 @@
         <v>iam_menu-12</v>
       </c>
       <c r="H18" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I18" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J18" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="F19" t="str">
         <f>角色权限!$E$9</f>
@@ -9130,18 +9124,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H19" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I19" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J19" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="F20" t="str">
         <f>角色权限!$E$10</f>
@@ -9152,18 +9146,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H20" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I20" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J20" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="F21" t="str">
         <f>角色权限!$E$9</f>
@@ -9174,18 +9168,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H21" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I21" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J21" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="F22" t="str">
         <f>角色权限!$E$10</f>
@@ -9196,18 +9190,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I22" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J22" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="F23" t="str">
         <f>角色权限!$E$9</f>
@@ -9218,18 +9212,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I23" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J23" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="F24" t="str">
         <f>角色权限!$E$10</f>
@@ -9240,18 +9234,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H24" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J24" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="F25" t="str">
         <f>角色权限!$E$9</f>
@@ -9262,18 +9256,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H25" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I25" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J25" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="F26" t="str">
         <f>角色权限!$E$10</f>
@@ -9284,18 +9278,18 @@
         <v>iam_menu-16</v>
       </c>
       <c r="H26" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I26" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J26" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="F27" t="str">
         <f>角色权限!$E$9</f>
@@ -9306,18 +9300,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I27" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J27" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="F28" t="str">
         <f>角色权限!$E$10</f>
@@ -9328,18 +9322,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H28" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I28" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J28" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="F29" t="str">
         <f>角色权限!$E$9</f>
@@ -9350,18 +9344,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I29" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J29" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="F30" t="str">
         <f>角色权限!$E$10</f>
@@ -9372,18 +9366,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H30" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I30" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J30" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="F31" t="str">
         <f>角色权限!$E$9</f>
@@ -9394,18 +9388,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H31" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I31" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J31" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F32" t="str">
         <f>角色权限!$E$10</f>
@@ -9416,18 +9410,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H32" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I32" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J32" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="F33" t="str">
         <f>角色权限!$E$9</f>
@@ -9438,18 +9432,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H33" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I33" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J33" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="F34" t="str">
         <f>角色权限!$E$10</f>
@@ -9460,18 +9454,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H34" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I34" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J34" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F35" t="str">
         <f>角色权限!$E$9</f>
@@ -9482,18 +9476,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H35" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I35" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J35" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="F36" t="str">
         <f>角色权限!$E$10</f>
@@ -9504,18 +9498,18 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H36" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I36" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J36" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="F37" t="str">
         <f>角色权限!$E$9</f>
@@ -9526,18 +9520,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H37" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I37" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J37" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="F38" t="str">
         <f>角色权限!$E$10</f>
@@ -9548,18 +9542,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H38" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I38" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J38" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="F39" t="str">
         <f>角色权限!$E$8</f>
@@ -9570,18 +9564,18 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H39" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I39" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J39" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F40" t="str">
         <f>角色权限!$E$8</f>
@@ -9592,18 +9586,18 @@
         <v>iam_menu-28</v>
       </c>
       <c r="H40" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I40" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J40" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="F41" t="str">
         <f>角色权限!$E$8</f>
@@ -9614,18 +9608,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H41" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I41" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J41" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="F42" t="str">
         <f>角色权限!$E$8</f>
@@ -9636,18 +9630,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H42" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I42" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J42" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="F43" t="str">
         <f>角色权限!$E$8</f>
@@ -9658,18 +9652,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H43" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I43" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J43" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="F44" t="str">
         <f>角色权限!$E$8</f>
@@ -9680,18 +9674,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H44" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I44" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J44" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="F45" t="str">
         <f>角色权限!$E$8</f>
@@ -9702,18 +9696,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H45" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I45" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J45" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="F46" t="str">
         <f>角色权限!$E$8</f>
@@ -9724,18 +9718,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H46" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="F47" t="str">
         <f>角色权限!$E$8</f>
@@ -9746,18 +9740,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H47" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I47" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J47" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="F48" t="str">
         <f>角色权限!$E$8</f>
@@ -9768,18 +9762,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H48" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I48" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J48" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="F49" t="str">
         <f>角色权限!$E$8</f>
@@ -9790,18 +9784,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H49" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F50" t="str">
         <f>角色权限!$E$8</f>
@@ -9812,18 +9806,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H50" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I50" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J50" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="F51" t="str">
         <f>角色权限!$E$8</f>
@@ -9834,18 +9828,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H51" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I51" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F52" t="str">
         <f>角色权限!$E$8</f>
@@ -9856,18 +9850,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H52" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I52" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="F53" t="str">
         <f>角色权限!$E$8</f>
@@ -9878,18 +9872,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H53" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I53" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="F54" t="str">
         <f>角色权限!$E$8</f>
@@ -9900,18 +9894,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H54" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="F55" t="str">
         <f>角色权限!$E$8</f>
@@ -9922,18 +9916,18 @@
         <v>iam_menu-45</v>
       </c>
       <c r="H55" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I55" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J55" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="F56" t="str">
         <f>角色权限!$E$8</f>
@@ -9944,18 +9938,18 @@
         <v>iam_menu-46</v>
       </c>
       <c r="H56" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J56" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="F57" t="str">
         <f>角色权限!$E$8</f>
@@ -9966,18 +9960,18 @@
         <v>iam_menu-47</v>
       </c>
       <c r="H57" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J57" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F58" t="str">
         <f>角色权限!$E$8</f>
@@ -9988,18 +9982,18 @@
         <v>iam_menu-48</v>
       </c>
       <c r="H58" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J58" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="F59" t="str">
         <f>角色权限!$E$8</f>
@@ -10010,18 +10004,18 @@
         <v>iam_menu-49</v>
       </c>
       <c r="H59" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I59" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J59" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="F60" t="str">
         <f>角色权限!$E$8</f>
@@ -10032,18 +10026,18 @@
         <v>iam_menu-50</v>
       </c>
       <c r="H60" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I60" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J60" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="F61" t="str">
         <f>角色权限!$E$8</f>
@@ -10054,18 +10048,18 @@
         <v>iam_menu-51</v>
       </c>
       <c r="H61" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I61" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J61" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F62" t="str">
         <f>角色权限!$E$8</f>
@@ -10076,18 +10070,18 @@
         <v>iam_menu-53</v>
       </c>
       <c r="H62" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I62" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J62" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="F63" t="str">
         <f>角色权限!$E$8</f>
@@ -10098,18 +10092,18 @@
         <v>iam_menu-55</v>
       </c>
       <c r="H63" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I63" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J63" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="F64" t="str">
         <f>角色权限!$E$8</f>
@@ -10120,18 +10114,18 @@
         <v>iam_menu-56</v>
       </c>
       <c r="H64" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I64" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J64" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="F65" t="str">
         <f>角色权限!$E$8</f>
@@ -10142,18 +10136,18 @@
         <v>iam_menu-57</v>
       </c>
       <c r="H65" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I65" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J65" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="F66" t="str">
         <f>角色权限!$E$8</f>
@@ -10164,18 +10158,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H66" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I66" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F67" t="str">
         <f>角色权限!$E$8</f>
@@ -10186,18 +10180,18 @@
         <v>iam_menu-59</v>
       </c>
       <c r="H67" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I67" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J67" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="F68" t="str">
         <f>角色权限!$E$8</f>
@@ -10208,18 +10202,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H68" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I68" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J68" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="F69" t="str">
         <f>角色权限!$E$8</f>
@@ -10230,18 +10224,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H69" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J69" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="F70" t="str">
         <f>角色权限!$E$8</f>
@@ -10252,18 +10246,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H70" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I70" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J70" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="F71" t="str">
         <f>角色权限!$E$8</f>
@@ -10274,18 +10268,18 @@
         <v>iam_menu-64</v>
       </c>
       <c r="H71" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I71" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J71" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="F72" t="str">
         <f>角色权限!$E$8</f>
@@ -10296,13 +10290,13 @@
         <v>iam_menu-65</v>
       </c>
       <c r="H72" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="I72" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="J72" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -10352,66 +10346,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="E7" s="78" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="79" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="H7" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="I7" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J7" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="K7" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="L7" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="M7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="N7" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="O7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="F8" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="G8" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="J8" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="K8" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -10425,19 +10419,19 @@
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F9" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="G9" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -10457,33 +10451,33 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="H11" s="85" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="I11" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -10494,15 +10488,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F13" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -10513,15 +10507,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F14" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -10532,15 +10526,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F15" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -10551,15 +10545,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F16" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -10570,15 +10564,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F17" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -10589,15 +10583,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F18" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -10608,15 +10602,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -10627,15 +10621,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F20" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -10646,15 +10640,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F21" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -10665,15 +10659,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F22" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -10684,15 +10678,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F23" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -10703,15 +10697,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F24" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -10722,15 +10716,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F25" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -10741,15 +10735,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F26" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -10760,15 +10754,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F27" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -10779,15 +10773,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F28" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -10798,15 +10792,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F29" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -10817,15 +10811,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F30" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -10836,15 +10830,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F31" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -10855,15 +10849,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F32" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -10874,15 +10868,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F33" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -10893,15 +10887,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F34" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -10912,15 +10906,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F35" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$62</f>
@@ -10931,15 +10925,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F36" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -10950,15 +10944,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F37" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -10969,15 +10963,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F38" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10988,15 +10982,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F39" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -11007,15 +11001,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F40" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -11026,15 +11020,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F41" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -11045,15 +11039,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F42" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -11064,15 +11058,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F43" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -11083,15 +11077,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F44" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -11102,15 +11096,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F45" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -11121,15 +11115,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F46" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -11140,15 +11134,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F47" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -11159,15 +11153,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I47" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F48" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -11178,15 +11172,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I48" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F49" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -11197,15 +11191,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I49" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F50" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -11216,15 +11210,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I50" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F51" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -11235,15 +11229,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I51" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F52" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$45</f>
@@ -11254,15 +11248,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I52" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F53" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$46</f>
@@ -11273,15 +11267,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I53" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F54" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$47</f>
@@ -11292,15 +11286,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I54" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F55" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$48</f>
@@ -11311,15 +11305,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I55" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F56" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$49</f>
@@ -11330,15 +11324,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I56" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F57" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$50</f>
@@ -11349,15 +11343,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I57" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F58" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -11368,15 +11362,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I58" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F59" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -11387,15 +11381,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I59" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F60" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -11406,15 +11400,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I60" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F61" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$56</f>
@@ -11425,15 +11419,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I61" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F62" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$57</f>
@@ -11444,15 +11438,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I62" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F63" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$58</f>
@@ -11463,15 +11457,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I63" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F64" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$59</f>
@@ -11482,15 +11476,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I64" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F65" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$60</f>
@@ -11501,15 +11495,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I65" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F66" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$61</f>
@@ -11520,15 +11514,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F67" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$63</f>
@@ -11539,15 +11533,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I67" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F68" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$64</f>
@@ -11558,15 +11552,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I68" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F69" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$65</f>
@@ -11577,7 +11571,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_platform/hzero-iam-menu.xlsx
@@ -15,8 +15,8 @@
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="菜单" r:id="rId5" sheetId="2"/>
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="角色权限" r:id="rId7" sheetId="4"/>
-    <sheet name="菜单标签数据" r:id="rId8" sheetId="5"/>
+    <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色权限" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="531">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2169,6 +2169,9 @@
     <t>File summary query - Download</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -3003,294 +3006,276 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>HFLE.SERVER_CONFIG.ORG</t>
+    <t>hzero-file.file-summary-list.pageFileList</t>
   </si>
   <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-file.file-summary-list.pageFileList</t>
+    <t>hzero-file.file-edit-log.list</t>
   </si>
   <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-file.file-edit-log.list</t>
+    <t>hzero-file.watermark-config.createWatermark</t>
   </si>
   <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
+    <t>hzero-file.watermark-config.detailWatermark</t>
+  </si>
+  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>HDPM.HDFM_DATASOURCE</t>
+    <t>hzero-file.watermark-config.pageWatermark</t>
   </si>
   <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>HDPM.LOV_DATA</t>
+    <t>hzero-file.watermark-config.updateWatermark</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>HDPM.PRI_ATTR_LOV</t>
+    <t>HFLE.SERVER_CONFIG</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>HLOD.BASIC_EVENT_FRNOT</t>
+    <t>HPFM.TENANT_PAGING</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>HLOD.EVENT_COL_FRONT</t>
+    <t>hzero-file.file-summary-list-site-level.pageFileList</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>HLOD.EVENT_COL_SERVICE</t>
-  </si>
-  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>HLOD.EXEDCUTE_EVENT_TYPE</t>
-  </si>
-  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>HLOD.OPEN_EVENT_TYPE</t>
+    <t>hzero-file.file-capacity-config-site-level.pageCapacityConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hzero-platform.lov-manage.listLovHeaders</t>
+    <t>hzero-file.file-capacity-config-site-level.update</t>
   </si>
   <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
-    <t>hzero-platform.lov-view-manage.pageLovViewHeaders</t>
+    <t>hzero-file.file-upload-config-site-level.createUploadConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>HPFM.COMPANY</t>
-  </si>
-  <si>
-    <t>124568523237695491</t>
+    <t>hzero-file.file-upload-config-site-level.deleteUploadConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.createWatermark</t>
+    <t>hzero-file.file-upload-config-site-level.detailUploadConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.detailWatermark</t>
+    <t>hzero-file.file-upload-config-site-level.updateUploadConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.pageWatermark</t>
+    <t>HPFM.SERVER</t>
   </si>
   <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hzero-file.watermark-config.updateWatermark</t>
+    <t>HPFM.SERVER_CLUSTER</t>
   </si>
   <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>HFLE.SERVER_CONFIG</t>
-  </si>
-  <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>HPFM.TENANT_PAGING</t>
+    <t>hzero-file.server-upload-config-site-level.createConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hzero-file.file-summary-list-site-level.pageFileList</t>
+    <t>hzero-file.server-upload-config-site-level.detailConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-file.file-capacity-config-site-level.update</t>
+    <t>hzero-file.server-upload-config-site-level.pageConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.createUploadConfig</t>
+    <t>hzero-file.server-upload-config-site-level.updateConfig</t>
   </si>
   <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.updateUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
+    <t>hzero-file.file-edit-log-site-level.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
+    <t>hzero-workflow-plus.process-monitor-site-level.activeProc</t>
+  </si>
+  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hzero-file.file-capacity-config-site-level.pageCapacityConfig</t>
+    <t>hzero-workflow-plus.process-monitor-site-level.suspendProc</t>
   </si>
   <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
+    <t>hzero-workflow-plus.service-definition-site-level.delete</t>
+  </si>
+  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.deleteUploadConfig</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hzero-file.file-upload-config-site-level.detailUploadConfig</t>
+    <t>hzero-file.watermark-config-site-level.createWatermark</t>
   </si>
   <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
+    <t>hzero-file.watermark-config-site-level.detailWatermark</t>
+  </si>
+  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
+    <t>hzero-file.watermark-config-site-level.pageWatermark</t>
+  </si>
+  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>HPFM.SERVER</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
-  </si>
-  <si>
-    <t>HPFM.SERVER_CLUSTER</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-46</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-47</t>
-  </si>
-  <si>
-    <t>hzero-file.server-upload-config-site-level.createConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>hzero-file.server-upload-config-site-level.detailConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>hzero-file.server-upload-config-site-level.pageConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>hzero-file.server-upload-config-site-level.updateConfig</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
-  </si>
-  <si>
-    <t>hzero-file.file-edit-log-site-level.list</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>hzero-workflow-plus.process-monitor-site-level.activeProc</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
-    <t>hzero-workflow-plus.process-monitor-site-level.suspendProc</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>hzero-workflow-plus.service-definition-site-level.delete</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-57</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-58</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-59</t>
-  </si>
-  <si>
-    <t>hzero-file.watermark-config-site-level.createWatermark</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-60</t>
-  </si>
-  <si>
-    <t>hzero-file.watermark-config-site-level.detailWatermark</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-61</t>
-  </si>
-  <si>
-    <t>hzero-file.watermark-config-site-level.pageWatermark</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-62</t>
-  </si>
-  <si>
     <t>hzero-file.watermark-config-site-level.updateWatermark</t>
   </si>
   <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>HZERO_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -3300,9 +3285,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>fd_level</t>
-  </si>
-  <si>
     <t>h_inherit_role_id</t>
   </si>
   <si>
@@ -3357,7 +3339,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
+    <t>134354801085124640</t>
   </si>
   <si>
     <t>iam_role-9</t>
@@ -3408,9 +3390,6 @@
     <t>h_inherit_flag</t>
   </si>
   <si>
-    <t>#type</t>
-  </si>
-  <si>
     <t>iam_role_permission-13</t>
   </si>
   <si>
@@ -3423,6 +3402,9 @@
     <t>PS</t>
   </si>
   <si>
+    <t>542</t>
+  </si>
+  <si>
     <t>iam_role_permission-14</t>
   </si>
   <si>
@@ -3457,222 +3439,6 @@
   </si>
   <si>
     <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
-  </si>
-  <si>
-    <t>iam_role_permission-28</t>
-  </si>
-  <si>
-    <t>iam_role_permission-29</t>
-  </si>
-  <si>
-    <t>iam_role_permission-30</t>
-  </si>
-  <si>
-    <t>iam_role_permission-31</t>
-  </si>
-  <si>
-    <t>iam_role_permission-32</t>
-  </si>
-  <si>
-    <t>iam_role_permission-33</t>
-  </si>
-  <si>
-    <t>iam_role_permission-34</t>
-  </si>
-  <si>
-    <t>iam_role_permission-35</t>
-  </si>
-  <si>
-    <t>iam_role_permission-36</t>
-  </si>
-  <si>
-    <t>iam_role_permission-37</t>
-  </si>
-  <si>
-    <t>iam_role_permission-38</t>
-  </si>
-  <si>
-    <t>iam_role_permission-39</t>
-  </si>
-  <si>
-    <t>iam_role_permission-40</t>
-  </si>
-  <si>
-    <t>iam_role_permission-41</t>
-  </si>
-  <si>
-    <t>iam_role_permission-42</t>
-  </si>
-  <si>
-    <t>iam_role_permission-43</t>
-  </si>
-  <si>
-    <t>iam_role_permission-44</t>
-  </si>
-  <si>
-    <t>iam_role_permission-45</t>
-  </si>
-  <si>
-    <t>iam_role_permission-46</t>
-  </si>
-  <si>
-    <t>iam_role_permission-47</t>
-  </si>
-  <si>
-    <t>iam_role_permission-48</t>
-  </si>
-  <si>
-    <t>iam_role_permission-49</t>
-  </si>
-  <si>
-    <t>iam_role_permission-50</t>
-  </si>
-  <si>
-    <t>iam_role_permission-51</t>
-  </si>
-  <si>
-    <t>iam_role_permission-52</t>
-  </si>
-  <si>
-    <t>iam_role_permission-53</t>
-  </si>
-  <si>
-    <t>iam_role_permission-54</t>
-  </si>
-  <si>
-    <t>iam_role_permission-55</t>
-  </si>
-  <si>
-    <t>iam_role_permission-56</t>
-  </si>
-  <si>
-    <t>iam_role_permission-57</t>
-  </si>
-  <si>
-    <t>iam_role_permission-58</t>
-  </si>
-  <si>
-    <t>iam_role_permission-59</t>
-  </si>
-  <si>
-    <t>iam_role_permission-60</t>
-  </si>
-  <si>
-    <t>iam_role_permission-61</t>
-  </si>
-  <si>
-    <t>iam_role_permission-62</t>
-  </si>
-  <si>
-    <t>iam_role_permission-63</t>
-  </si>
-  <si>
-    <t>iam_role_permission-64</t>
-  </si>
-  <si>
-    <t>iam_role_permission-65</t>
-  </si>
-  <si>
-    <t>iam_role_permission-66</t>
-  </si>
-  <si>
-    <t>iam_role_permission-67</t>
-  </si>
-  <si>
-    <t>iam_role_permission-68</t>
-  </si>
-  <si>
-    <t>iam_role_permission-69</t>
-  </si>
-  <si>
-    <t>iam_role_permission-70</t>
-  </si>
-  <si>
-    <t>iam_role_permission-71</t>
-  </si>
-  <si>
-    <t>iam_role_permission-72</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>HZERO菜单标签</t>
-  </si>
-  <si>
-    <t>Hzero menu label</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -4011,7 +3777,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="48"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4056,12 +3827,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5147,8 +4913,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -5203,14 +4970,18 @@
       <c r="H10" t="s">
         <v>106</v>
       </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
         <v>85</v>
@@ -5228,13 +4999,13 @@
         <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T10" t="s">
         <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
         <v>88</v>
@@ -5243,30 +5014,34 @@
         <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -5284,13 +5059,13 @@
         <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s">
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -5299,30 +5074,34 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5340,13 +5119,13 @@
         <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T12" t="s">
         <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s">
         <v>88</v>
@@ -5355,30 +5134,34 @@
         <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
         <v>85</v>
@@ -5396,13 +5179,13 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X13" t="s">
         <v>88</v>
@@ -5411,30 +5194,31 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
         <v>99</v>
@@ -5449,7 +5233,7 @@
         <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
         <v>85</v>
@@ -5469,28 +5253,29 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
         <v>85</v>
@@ -5499,7 +5284,7 @@
         <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
         <v>85</v>
@@ -5508,7 +5293,7 @@
         <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T15" t="s">
         <v>85</v>
@@ -5528,25 +5313,26 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
         <v>99</v>
@@ -5561,7 +5347,7 @@
         <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T16" t="s">
         <v>85</v>
@@ -5581,25 +5367,26 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <f>菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
         <v>99</v>
@@ -5614,7 +5401,7 @@
         <v>85</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T17" t="s">
         <v>85</v>
@@ -5634,40 +5421,41 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
         <v>84</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <f>菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
         <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s">
         <v>88</v>
       </c>
       <c r="O18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18" t="s">
         <v>85</v>
@@ -5676,7 +5464,7 @@
         <v>85</v>
       </c>
       <c r="S18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T18" t="s">
         <v>85</v>
@@ -5696,25 +5484,26 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <f>菜单!$E$18</f>
+        <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
         <v>85</v>
@@ -5729,7 +5518,7 @@
         <v>85</v>
       </c>
       <c r="S19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T19" t="s">
         <v>85</v>
@@ -5749,34 +5538,35 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
         <v>84</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <f>菜单!$E$18</f>
+        <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
         <v>88</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5785,7 +5575,7 @@
         <v>85</v>
       </c>
       <c r="S20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T20" t="s">
         <v>85</v>
@@ -5805,37 +5595,38 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
         <v>84</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <f>菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L21" t="s">
         <v>98</v>
       </c>
       <c r="M21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s">
         <v>88</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21" t="s">
         <v>85</v>
@@ -5844,7 +5635,7 @@
         <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T21" t="s">
         <v>85</v>
@@ -5864,25 +5655,29 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
       </c>
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <f>菜单!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s">
         <v>85</v>
@@ -5897,13 +5692,13 @@
         <v>85</v>
       </c>
       <c r="S22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T22" t="s">
         <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s">
         <v>88</v>
@@ -5912,30 +5707,34 @@
         <v>91</v>
       </c>
       <c r="AC22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
       </c>
       <c r="J23" t="s">
         <v>84</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <f>菜单!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
         <v>85</v>
@@ -5950,13 +5749,13 @@
         <v>85</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T23" t="s">
         <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s">
         <v>88</v>
@@ -5965,30 +5764,31 @@
         <v>91</v>
       </c>
       <c r="AC23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
         <v>84</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <f>菜单!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
         <v>99</v>
@@ -6003,13 +5803,13 @@
         <v>85</v>
       </c>
       <c r="S24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T24" t="s">
         <v>85</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V24" t="s">
         <v>90</v>
@@ -6026,10 +5826,10 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -6041,7 +5841,7 @@
         <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
         <v>85</v>
@@ -6050,7 +5850,7 @@
         <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s">
         <v>88</v>
@@ -6065,7 +5865,7 @@
         <v>85</v>
       </c>
       <c r="S25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T25" t="s">
         <v>85</v>
@@ -6085,31 +5885,32 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I26" t="s">
         <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
-      </c>
-      <c r="K26">
+        <v>193</v>
+      </c>
+      <c r="K26" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L26" t="s">
         <v>98</v>
       </c>
       <c r="M26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" t="s">
         <v>88</v>
@@ -6127,7 +5928,7 @@
         <v>85</v>
       </c>
       <c r="S26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s">
         <v>85</v>
@@ -6147,10 +5948,10 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>105</v>
@@ -6158,14 +5959,18 @@
       <c r="H27" t="s">
         <v>106</v>
       </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
       <c r="J27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K27">
+        <v>193</v>
+      </c>
+      <c r="K27" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
         <v>85</v>
@@ -6183,13 +5988,13 @@
         <v>85</v>
       </c>
       <c r="S27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T27" t="s">
         <v>85</v>
       </c>
       <c r="V27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X27" t="s">
         <v>88</v>
@@ -6198,30 +6003,34 @@
         <v>91</v>
       </c>
       <c r="AC27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>192</v>
-      </c>
-      <c r="K28">
+        <v>193</v>
+      </c>
+      <c r="K28" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
         <v>85</v>
@@ -6239,13 +6048,13 @@
         <v>85</v>
       </c>
       <c r="S28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T28" t="s">
         <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X28" t="s">
         <v>88</v>
@@ -6254,30 +6063,34 @@
         <v>91</v>
       </c>
       <c r="AC28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29">
+        <v>193</v>
+      </c>
+      <c r="K29" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
         <v>85</v>
@@ -6295,13 +6108,13 @@
         <v>85</v>
       </c>
       <c r="S29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T29" t="s">
         <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X29" t="s">
         <v>88</v>
@@ -6310,30 +6123,34 @@
         <v>91</v>
       </c>
       <c r="AC29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30">
+        <v>193</v>
+      </c>
+      <c r="K30" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
         <v>85</v>
@@ -6351,13 +6168,13 @@
         <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T30" t="s">
         <v>85</v>
       </c>
       <c r="V30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X30" t="s">
         <v>88</v>
@@ -6366,30 +6183,31 @@
         <v>91</v>
       </c>
       <c r="AC30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
-      </c>
-      <c r="K31">
+        <v>193</v>
+      </c>
+      <c r="K31" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
         <v>99</v>
@@ -6404,7 +6222,7 @@
         <v>85</v>
       </c>
       <c r="S31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T31" t="s">
         <v>85</v>
@@ -6424,25 +6242,26 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32">
+        <v>193</v>
+      </c>
+      <c r="K32" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
         <v>85</v>
@@ -6457,7 +6276,7 @@
         <v>85</v>
       </c>
       <c r="S32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T32" t="s">
         <v>85</v>
@@ -6477,25 +6296,26 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J33" t="s">
-        <v>192</v>
-      </c>
-      <c r="K33">
+        <v>193</v>
+      </c>
+      <c r="K33" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
         <v>99</v>
@@ -6510,7 +6330,7 @@
         <v>85</v>
       </c>
       <c r="S33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T33" t="s">
         <v>85</v>
@@ -6530,25 +6350,26 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34">
+        <v>193</v>
+      </c>
+      <c r="K34" t="n">
         <f>菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
         <v>99</v>
@@ -6563,7 +6384,7 @@
         <v>85</v>
       </c>
       <c r="S34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T34" t="s">
         <v>85</v>
@@ -6583,40 +6404,41 @@
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35">
+        <v>193</v>
+      </c>
+      <c r="K35" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L35" t="s">
         <v>98</v>
       </c>
       <c r="M35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N35" t="s">
         <v>88</v>
       </c>
       <c r="O35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35" t="s">
         <v>85</v>
@@ -6625,7 +6447,7 @@
         <v>85</v>
       </c>
       <c r="S35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T35" t="s">
         <v>85</v>
@@ -6645,25 +6467,29 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="I36" t="s">
+        <v>107</v>
       </c>
       <c r="J36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36">
+        <v>193</v>
+      </c>
+      <c r="K36" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
         <v>85</v>
@@ -6672,7 +6498,7 @@
         <v>88</v>
       </c>
       <c r="O36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36" t="s">
         <v>85</v>
@@ -6681,13 +6507,13 @@
         <v>85</v>
       </c>
       <c r="S36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T36" t="s">
         <v>85</v>
       </c>
       <c r="V36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X36" t="s">
         <v>88</v>
@@ -6696,30 +6522,34 @@
         <v>91</v>
       </c>
       <c r="AC36" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="I37" t="s">
+        <v>107</v>
       </c>
       <c r="J37" t="s">
-        <v>192</v>
-      </c>
-      <c r="K37">
+        <v>193</v>
+      </c>
+      <c r="K37" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
         <v>85</v>
@@ -6728,7 +6558,7 @@
         <v>88</v>
       </c>
       <c r="O37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q37" t="s">
         <v>85</v>
@@ -6737,13 +6567,13 @@
         <v>85</v>
       </c>
       <c r="S37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T37" t="s">
         <v>85</v>
       </c>
       <c r="V37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X37" t="s">
         <v>88</v>
@@ -6752,30 +6582,34 @@
         <v>91</v>
       </c>
       <c r="AC37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="I38" t="s">
+        <v>107</v>
       </c>
       <c r="J38" t="s">
-        <v>192</v>
-      </c>
-      <c r="K38">
+        <v>193</v>
+      </c>
+      <c r="K38" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
         <v>85</v>
@@ -6784,7 +6618,7 @@
         <v>88</v>
       </c>
       <c r="O38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38" t="s">
         <v>85</v>
@@ -6793,13 +6627,13 @@
         <v>85</v>
       </c>
       <c r="S38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T38" t="s">
         <v>85</v>
       </c>
       <c r="V38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s">
         <v>88</v>
@@ -6808,30 +6642,34 @@
         <v>91</v>
       </c>
       <c r="AC38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
       </c>
       <c r="J39" t="s">
-        <v>192</v>
-      </c>
-      <c r="K39">
+        <v>193</v>
+      </c>
+      <c r="K39" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s">
         <v>85</v>
@@ -6840,7 +6678,7 @@
         <v>88</v>
       </c>
       <c r="O39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q39" t="s">
         <v>85</v>
@@ -6849,13 +6687,13 @@
         <v>85</v>
       </c>
       <c r="S39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T39" t="s">
         <v>85</v>
       </c>
       <c r="V39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s">
         <v>88</v>
@@ -6864,30 +6702,31 @@
         <v>91</v>
       </c>
       <c r="AC39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
-      </c>
-      <c r="K40">
+        <v>193</v>
+      </c>
+      <c r="K40" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
         <v>99</v>
@@ -6902,7 +6741,7 @@
         <v>85</v>
       </c>
       <c r="S40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T40" t="s">
         <v>85</v>
@@ -6922,25 +6761,26 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J41" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41">
+        <v>193</v>
+      </c>
+      <c r="K41" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
         <v>85</v>
@@ -6949,7 +6789,7 @@
         <v>88</v>
       </c>
       <c r="O41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="s">
         <v>85</v>
@@ -6958,7 +6798,7 @@
         <v>85</v>
       </c>
       <c r="S41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T41" t="s">
         <v>85</v>
@@ -6978,25 +6818,26 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J42" t="s">
-        <v>192</v>
-      </c>
-      <c r="K42">
+        <v>193</v>
+      </c>
+      <c r="K42" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
         <v>99</v>
@@ -7011,7 +6852,7 @@
         <v>85</v>
       </c>
       <c r="S42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T42" t="s">
         <v>85</v>
@@ -7031,25 +6872,26 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J43" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43">
+        <v>193</v>
+      </c>
+      <c r="K43" t="n">
         <f>菜单!$E$35</f>
+        <v>0.0</v>
       </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
         <v>99</v>
@@ -7064,7 +6906,7 @@
         <v>85</v>
       </c>
       <c r="S43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T43" t="s">
         <v>85</v>
@@ -7084,25 +6926,26 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J44" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44">
+        <v>193</v>
+      </c>
+      <c r="K44" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L44" t="s">
         <v>98</v>
@@ -7114,10 +6957,10 @@
         <v>88</v>
       </c>
       <c r="O44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q44" t="s">
         <v>85</v>
@@ -7126,7 +6969,7 @@
         <v>85</v>
       </c>
       <c r="S44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T44" t="s">
         <v>85</v>
@@ -7146,25 +6989,29 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="I45" t="s">
+        <v>107</v>
       </c>
       <c r="J45" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45">
+        <v>193</v>
+      </c>
+      <c r="K45" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
         <v>85</v>
@@ -7173,7 +7020,7 @@
         <v>88</v>
       </c>
       <c r="O45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45" t="s">
         <v>85</v>
@@ -7182,13 +7029,13 @@
         <v>85</v>
       </c>
       <c r="S45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T45" t="s">
         <v>85</v>
       </c>
       <c r="V45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X45" t="s">
         <v>88</v>
@@ -7197,30 +7044,34 @@
         <v>91</v>
       </c>
       <c r="AC45" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H46" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="I46" t="s">
+        <v>107</v>
       </c>
       <c r="J46" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46">
+        <v>193</v>
+      </c>
+      <c r="K46" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s">
         <v>85</v>
@@ -7229,7 +7080,7 @@
         <v>88</v>
       </c>
       <c r="O46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q46" t="s">
         <v>85</v>
@@ -7238,13 +7089,13 @@
         <v>85</v>
       </c>
       <c r="S46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T46" t="s">
         <v>85</v>
       </c>
       <c r="V46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X46" t="s">
         <v>88</v>
@@ -7253,30 +7104,34 @@
         <v>91</v>
       </c>
       <c r="AC46" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H47" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="I47" t="s">
+        <v>107</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
-      </c>
-      <c r="K47">
+        <v>193</v>
+      </c>
+      <c r="K47" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
         <v>85</v>
@@ -7285,7 +7140,7 @@
         <v>88</v>
       </c>
       <c r="O47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q47" t="s">
         <v>85</v>
@@ -7294,13 +7149,13 @@
         <v>85</v>
       </c>
       <c r="S47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T47" t="s">
         <v>85</v>
       </c>
       <c r="V47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s">
         <v>88</v>
@@ -7309,30 +7164,34 @@
         <v>91</v>
       </c>
       <c r="AC47" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="I48" t="s">
+        <v>107</v>
       </c>
       <c r="J48" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48">
+        <v>193</v>
+      </c>
+      <c r="K48" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s">
         <v>85</v>
@@ -7341,7 +7200,7 @@
         <v>88</v>
       </c>
       <c r="O48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q48" t="s">
         <v>85</v>
@@ -7350,13 +7209,13 @@
         <v>85</v>
       </c>
       <c r="S48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T48" t="s">
         <v>85</v>
       </c>
       <c r="V48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X48" t="s">
         <v>88</v>
@@ -7365,30 +7224,34 @@
         <v>91</v>
       </c>
       <c r="AC48" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H49" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="I49" t="s">
+        <v>107</v>
       </c>
       <c r="J49" t="s">
-        <v>192</v>
-      </c>
-      <c r="K49">
+        <v>193</v>
+      </c>
+      <c r="K49" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s">
         <v>85</v>
@@ -7397,7 +7260,7 @@
         <v>88</v>
       </c>
       <c r="O49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q49" t="s">
         <v>85</v>
@@ -7406,13 +7269,13 @@
         <v>85</v>
       </c>
       <c r="S49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T49" t="s">
         <v>85</v>
       </c>
       <c r="V49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X49" t="s">
         <v>88</v>
@@ -7421,30 +7284,34 @@
         <v>91</v>
       </c>
       <c r="AC49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H50" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="I50" t="s">
+        <v>107</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50">
+        <v>193</v>
+      </c>
+      <c r="K50" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
         <v>85</v>
@@ -7453,7 +7320,7 @@
         <v>88</v>
       </c>
       <c r="O50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q50" t="s">
         <v>85</v>
@@ -7462,13 +7329,13 @@
         <v>85</v>
       </c>
       <c r="S50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T50" t="s">
         <v>85</v>
       </c>
       <c r="V50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s">
         <v>88</v>
@@ -7477,39 +7344,40 @@
         <v>91</v>
       </c>
       <c r="AC50" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J51" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51">
+        <v>193</v>
+      </c>
+      <c r="K51" t="n">
         <f>菜单!$E$44</f>
+        <v>0.0</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N51" t="s">
         <v>88</v>
       </c>
       <c r="O51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q51" t="s">
         <v>85</v>
@@ -7518,7 +7386,7 @@
         <v>85</v>
       </c>
       <c r="S51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T51" t="s">
         <v>85</v>
@@ -7538,40 +7406,41 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J52" t="s">
-        <v>192</v>
-      </c>
-      <c r="K52">
+        <v>193</v>
+      </c>
+      <c r="K52" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L52" t="s">
         <v>98</v>
       </c>
       <c r="M52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N52" t="s">
         <v>88</v>
       </c>
       <c r="O52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52" t="s">
         <v>85</v>
@@ -7580,7 +7449,7 @@
         <v>85</v>
       </c>
       <c r="S52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T52" t="s">
         <v>85</v>
@@ -7600,34 +7469,35 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>192</v>
-      </c>
-      <c r="K53">
+        <v>193</v>
+      </c>
+      <c r="K53" t="n">
         <f>菜单!$E$52</f>
+        <v>0.0</v>
       </c>
       <c r="L53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N53" t="s">
         <v>88</v>
       </c>
       <c r="O53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q53" t="s">
         <v>85</v>
@@ -7636,7 +7506,7 @@
         <v>85</v>
       </c>
       <c r="S53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T53" t="s">
         <v>85</v>
@@ -7656,25 +7526,26 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J54" t="s">
-        <v>192</v>
-      </c>
-      <c r="K54">
+        <v>193</v>
+      </c>
+      <c r="K54" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L54" t="s">
         <v>98</v>
@@ -7686,10 +7557,10 @@
         <v>88</v>
       </c>
       <c r="O54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q54" t="s">
         <v>85</v>
@@ -7698,7 +7569,7 @@
         <v>85</v>
       </c>
       <c r="S54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T54" t="s">
         <v>85</v>
@@ -7718,25 +7589,29 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="I55" t="s">
+        <v>107</v>
       </c>
       <c r="J55" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55">
+        <v>193</v>
+      </c>
+      <c r="K55" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M55" t="s">
         <v>85</v>
@@ -7745,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="O55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q55" t="s">
         <v>85</v>
@@ -7754,13 +7629,13 @@
         <v>85</v>
       </c>
       <c r="S55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T55" t="s">
         <v>85</v>
       </c>
       <c r="V55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X55" t="s">
         <v>88</v>
@@ -7769,30 +7644,34 @@
         <v>91</v>
       </c>
       <c r="AC55" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="I56" t="s">
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>192</v>
-      </c>
-      <c r="K56">
+        <v>193</v>
+      </c>
+      <c r="K56" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s">
         <v>85</v>
@@ -7801,7 +7680,7 @@
         <v>88</v>
       </c>
       <c r="O56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q56" t="s">
         <v>85</v>
@@ -7810,13 +7689,13 @@
         <v>85</v>
       </c>
       <c r="S56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T56" t="s">
         <v>85</v>
       </c>
       <c r="V56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X56" t="s">
         <v>88</v>
@@ -7825,30 +7704,34 @@
         <v>91</v>
       </c>
       <c r="AC56" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="I57" t="s">
+        <v>107</v>
       </c>
       <c r="J57" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57">
+        <v>193</v>
+      </c>
+      <c r="K57" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s">
         <v>85</v>
@@ -7857,7 +7740,7 @@
         <v>88</v>
       </c>
       <c r="O57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q57" t="s">
         <v>85</v>
@@ -7866,13 +7749,13 @@
         <v>85</v>
       </c>
       <c r="S57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T57" t="s">
         <v>85</v>
       </c>
       <c r="V57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X57" t="s">
         <v>88</v>
@@ -7881,30 +7764,31 @@
         <v>91</v>
       </c>
       <c r="AC57" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J58" t="s">
-        <v>192</v>
-      </c>
-      <c r="K58">
+        <v>193</v>
+      </c>
+      <c r="K58" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s">
         <v>99</v>
@@ -7919,7 +7803,7 @@
         <v>85</v>
       </c>
       <c r="S58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T58" t="s">
         <v>85</v>
@@ -7939,28 +7823,29 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J59" t="s">
-        <v>192</v>
-      </c>
-      <c r="K59">
+        <v>193</v>
+      </c>
+      <c r="K59" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s">
         <v>85</v>
@@ -7969,7 +7854,7 @@
         <v>88</v>
       </c>
       <c r="O59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q59" t="s">
         <v>85</v>
@@ -7978,7 +7863,7 @@
         <v>85</v>
       </c>
       <c r="S59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T59" t="s">
         <v>85</v>
@@ -7998,25 +7883,26 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G60" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J60" t="s">
-        <v>192</v>
-      </c>
-      <c r="K60">
+        <v>193</v>
+      </c>
+      <c r="K60" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s">
         <v>99</v>
@@ -8031,7 +7917,7 @@
         <v>85</v>
       </c>
       <c r="S60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T60" t="s">
         <v>85</v>
@@ -8051,25 +7937,26 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J61" t="s">
-        <v>192</v>
-      </c>
-      <c r="K61">
+        <v>193</v>
+      </c>
+      <c r="K61" t="n">
         <f>菜单!$E$54</f>
+        <v>0.0</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M61" t="s">
         <v>99</v>
@@ -8084,7 +7971,7 @@
         <v>85</v>
       </c>
       <c r="S61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T61" t="s">
         <v>85</v>
@@ -8104,37 +7991,38 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J62" t="s">
-        <v>192</v>
-      </c>
-      <c r="K62">
+        <v>193</v>
+      </c>
+      <c r="K62" t="n">
         <f>菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="L62" t="s">
         <v>98</v>
       </c>
       <c r="M62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N62" t="s">
         <v>88</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62" t="s">
         <v>85</v>
@@ -8143,7 +8031,7 @@
         <v>85</v>
       </c>
       <c r="S62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T62" t="s">
         <v>85</v>
@@ -8163,25 +8051,29 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F63" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="I63" t="s">
+        <v>107</v>
       </c>
       <c r="J63" t="s">
-        <v>192</v>
-      </c>
-      <c r="K63">
+        <v>193</v>
+      </c>
+      <c r="K63" t="n">
         <f>菜单!$E$62</f>
+        <v>0.0</v>
       </c>
       <c r="L63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
         <v>85</v>
@@ -8196,13 +8088,13 @@
         <v>85</v>
       </c>
       <c r="S63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T63" t="s">
         <v>85</v>
       </c>
       <c r="V63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s">
         <v>88</v>
@@ -8211,30 +8103,34 @@
         <v>91</v>
       </c>
       <c r="AC63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="I64" t="s">
+        <v>107</v>
       </c>
       <c r="J64" t="s">
-        <v>192</v>
-      </c>
-      <c r="K64">
+        <v>193</v>
+      </c>
+      <c r="K64" t="n">
         <f>菜单!$E$62</f>
+        <v>0.0</v>
       </c>
       <c r="L64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s">
         <v>85</v>
@@ -8249,13 +8145,13 @@
         <v>85</v>
       </c>
       <c r="S64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T64" t="s">
         <v>85</v>
       </c>
       <c r="V64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X64" t="s">
         <v>88</v>
@@ -8264,30 +8160,31 @@
         <v>91</v>
       </c>
       <c r="AC64" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F65" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J65" t="s">
-        <v>192</v>
-      </c>
-      <c r="K65">
+        <v>193</v>
+      </c>
+      <c r="K65" t="n">
         <f>菜单!$E$62</f>
+        <v>0.0</v>
       </c>
       <c r="L65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M65" t="s">
         <v>99</v>
@@ -8302,13 +8199,13 @@
         <v>85</v>
       </c>
       <c r="S65" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T65" t="s">
         <v>85</v>
       </c>
       <c r="U65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V65" t="s">
         <v>90</v>
@@ -8330,7 +8227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8369,22 +8266,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -8395,13 +8292,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8">
-        <f>菜单!$E$13</f>
+        <v>385</v>
+      </c>
+      <c r="F8" t="n">
+        <f>菜单!$E$15</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -8410,18 +8308,19 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9">
-        <f>菜单!$E$15</f>
+        <v>387</v>
+      </c>
+      <c r="F9" t="n">
+        <f>菜单!$E$19</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -8435,13 +8334,14 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10">
-        <f>菜单!$E$19</f>
+        <v>389</v>
+      </c>
+      <c r="F10" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -8455,13 +8355,14 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>390</v>
-      </c>
-      <c r="F11">
-        <f>菜单!$E$20</f>
+        <v>391</v>
+      </c>
+      <c r="F11" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -8475,13 +8376,14 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12">
-        <f>菜单!$E$21</f>
+        <v>393</v>
+      </c>
+      <c r="F12" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -8495,13 +8397,14 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13">
-        <f>菜单!$E$21</f>
+        <v>395</v>
+      </c>
+      <c r="F13" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -8515,13 +8418,14 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>395</v>
-      </c>
-      <c r="F14">
-        <f>菜单!$E$21</f>
+        <v>397</v>
+      </c>
+      <c r="F14" t="n">
+        <f>菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -8535,13 +8439,14 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>397</v>
-      </c>
-      <c r="F15">
-        <f>菜单!$E$21</f>
+        <v>399</v>
+      </c>
+      <c r="F15" t="n">
+        <f>菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -8555,13 +8460,14 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16">
-        <f>菜单!$E$21</f>
+        <v>401</v>
+      </c>
+      <c r="F16" t="n">
+        <f>菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -8570,18 +8476,19 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17">
-        <f>菜单!$E$21</f>
+        <v>403</v>
+      </c>
+      <c r="F17" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -8595,13 +8502,14 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>403</v>
-      </c>
-      <c r="F18">
-        <f>菜单!$E$21</f>
+        <v>404</v>
+      </c>
+      <c r="F18" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -8617,8 +8525,9 @@
       <c r="E19" t="s">
         <v>405</v>
       </c>
-      <c r="F19">
-        <f>菜单!$E$21</f>
+      <c r="F19" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
         <v>406</v>
@@ -8637,8 +8546,9 @@
       <c r="E20" t="s">
         <v>407</v>
       </c>
-      <c r="F20">
-        <f>菜单!$E$21</f>
+      <c r="F20" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
         <v>408</v>
@@ -8657,8 +8567,9 @@
       <c r="E21" t="s">
         <v>409</v>
       </c>
-      <c r="F21">
-        <f>菜单!$E$21</f>
+      <c r="F21" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
         <v>410</v>
@@ -8677,8 +8588,9 @@
       <c r="E22" t="s">
         <v>411</v>
       </c>
-      <c r="F22">
-        <f>菜单!$E$24</f>
+      <c r="F22" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
         <v>412</v>
@@ -8690,18 +8602,19 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>413</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="s">
         <v>414</v>
-      </c>
-      <c r="F23">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="G23" t="s">
-        <v>415</v>
       </c>
       <c r="H23" t="s">
         <v>85</v>
@@ -8715,13 +8628,14 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="s">
         <v>416</v>
-      </c>
-      <c r="F24">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="G24" t="s">
-        <v>417</v>
       </c>
       <c r="H24" t="s">
         <v>85</v>
@@ -8735,13 +8649,14 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="s">
         <v>418</v>
-      </c>
-      <c r="F25">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="G25" t="s">
-        <v>419</v>
       </c>
       <c r="H25" t="s">
         <v>85</v>
@@ -8755,13 +8670,14 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="s">
         <v>420</v>
-      </c>
-      <c r="F26">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="G26" t="s">
-        <v>421</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
@@ -8775,13 +8691,14 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27">
-        <f>菜单!$E$32</f>
+        <v>421</v>
+      </c>
+      <c r="F27" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
@@ -8795,13 +8712,14 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>424</v>
-      </c>
-      <c r="F28">
-        <f>菜单!$E$32</f>
+        <v>422</v>
+      </c>
+      <c r="F28" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H28" t="s">
         <v>85</v>
@@ -8815,13 +8733,14 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>426</v>
-      </c>
-      <c r="F29">
-        <f>菜单!$E$32</f>
+        <v>424</v>
+      </c>
+      <c r="F29" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H29" t="s">
         <v>85</v>
@@ -8835,13 +8754,14 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>428</v>
-      </c>
-      <c r="F30">
-        <f>菜单!$E$40</f>
+        <v>426</v>
+      </c>
+      <c r="F30" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
@@ -8855,13 +8775,14 @@
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F31">
-        <f>菜单!$E$40</f>
+        <v>428</v>
+      </c>
+      <c r="F31" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H31" t="s">
         <v>85</v>
@@ -8875,13 +8796,14 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>432</v>
-      </c>
-      <c r="F32">
-        <f>菜单!$E$40</f>
+        <v>430</v>
+      </c>
+      <c r="F32" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
       </c>
       <c r="G32" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
@@ -8895,13 +8817,14 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F33">
-        <f>菜单!$E$41</f>
+        <v>431</v>
+      </c>
+      <c r="F33" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H33" t="s">
         <v>85</v>
@@ -8915,13 +8838,14 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>435</v>
-      </c>
-      <c r="F34">
-        <f>菜单!$E$41</f>
+        <v>433</v>
+      </c>
+      <c r="F34" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H34" t="s">
         <v>85</v>
@@ -8935,13 +8859,14 @@
     </row>
     <row r="35">
       <c r="E35" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="s">
         <v>436</v>
-      </c>
-      <c r="F35">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="G35" t="s">
-        <v>437</v>
       </c>
       <c r="H35" t="s">
         <v>85</v>
@@ -8955,13 +8880,14 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
+        <v>437</v>
+      </c>
+      <c r="F36" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="s">
         <v>438</v>
-      </c>
-      <c r="F36">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="G36" t="s">
-        <v>429</v>
       </c>
       <c r="H36" t="s">
         <v>85</v>
@@ -8977,11 +8903,12 @@
       <c r="E37" t="s">
         <v>439</v>
       </c>
-      <c r="F37">
-        <f>菜单!$E$41</f>
+      <c r="F37" t="n">
+        <f>菜单!$E$59</f>
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="H37" t="s">
         <v>85</v>
@@ -8997,11 +8924,12 @@
       <c r="E38" t="s">
         <v>440</v>
       </c>
-      <c r="F38">
-        <f>菜单!$E$41</f>
+      <c r="F38" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
       </c>
       <c r="G38" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="H38" t="s">
         <v>85</v>
@@ -9015,13 +8943,14 @@
     </row>
     <row r="39">
       <c r="E39" t="s">
+        <v>441</v>
+      </c>
+      <c r="F39" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="s">
         <v>442</v>
-      </c>
-      <c r="F39">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="G39" t="s">
-        <v>443</v>
       </c>
       <c r="H39" t="s">
         <v>85</v>
@@ -9035,13 +8964,14 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
+        <v>443</v>
+      </c>
+      <c r="F40" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="s">
         <v>444</v>
-      </c>
-      <c r="F40">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="G40" t="s">
-        <v>433</v>
       </c>
       <c r="H40" t="s">
         <v>85</v>
@@ -9057,11 +8987,12 @@
       <c r="E41" t="s">
         <v>445</v>
       </c>
-      <c r="F41">
-        <f>菜单!$E$42</f>
+      <c r="F41" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
       </c>
       <c r="G41" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -9075,13 +9006,14 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>446</v>
-      </c>
-      <c r="F42">
-        <f>菜单!$E$43</f>
+        <v>447</v>
+      </c>
+      <c r="F42" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
       </c>
       <c r="G42" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
@@ -9090,406 +9022,6 @@
         <v>91</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>447</v>
-      </c>
-      <c r="F43">
-        <f>菜单!$E$43</f>
-      </c>
-      <c r="G43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>448</v>
-      </c>
-      <c r="F44">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G44" t="s">
-        <v>449</v>
-      </c>
-      <c r="H44" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>450</v>
-      </c>
-      <c r="F45">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G45" t="s">
-        <v>451</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G46" t="s">
-        <v>425</v>
-      </c>
-      <c r="H46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" t="s">
-        <v>91</v>
-      </c>
-      <c r="J46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>453</v>
-      </c>
-      <c r="F47">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G47" t="s">
-        <v>454</v>
-      </c>
-      <c r="H47" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>455</v>
-      </c>
-      <c r="F48">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G48" t="s">
-        <v>456</v>
-      </c>
-      <c r="H48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>457</v>
-      </c>
-      <c r="F49">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G49" t="s">
-        <v>458</v>
-      </c>
-      <c r="H49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>459</v>
-      </c>
-      <c r="F50">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="G50" t="s">
-        <v>460</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>461</v>
-      </c>
-      <c r="F51">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="G51" t="s">
-        <v>425</v>
-      </c>
-      <c r="H51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>462</v>
-      </c>
-      <c r="F52">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="G52" t="s">
-        <v>463</v>
-      </c>
-      <c r="H52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>464</v>
-      </c>
-      <c r="F53">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="G53" t="s">
-        <v>465</v>
-      </c>
-      <c r="H53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>466</v>
-      </c>
-      <c r="F54">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="G54" t="s">
-        <v>467</v>
-      </c>
-      <c r="H54" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>468</v>
-      </c>
-      <c r="F55">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="G55" t="s">
-        <v>469</v>
-      </c>
-      <c r="H55" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" t="s">
-        <v>91</v>
-      </c>
-      <c r="J55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>470</v>
-      </c>
-      <c r="F56">
-        <f>菜单!$E$59</f>
-      </c>
-      <c r="G56" t="s">
-        <v>425</v>
-      </c>
-      <c r="H56" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>471</v>
-      </c>
-      <c r="F57">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G57" t="s">
-        <v>412</v>
-      </c>
-      <c r="H57" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>472</v>
-      </c>
-      <c r="F58">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G58" t="s">
-        <v>425</v>
-      </c>
-      <c r="H58" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
-      <c r="J58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>473</v>
-      </c>
-      <c r="F59">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G59" t="s">
-        <v>474</v>
-      </c>
-      <c r="H59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" t="s">
-        <v>91</v>
-      </c>
-      <c r="J59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>475</v>
-      </c>
-      <c r="F60">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G60" t="s">
-        <v>476</v>
-      </c>
-      <c r="H60" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>477</v>
-      </c>
-      <c r="F61">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G61" t="s">
-        <v>478</v>
-      </c>
-      <c r="H61" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="G62" t="s">
-        <v>480</v>
-      </c>
-      <c r="H62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-      <c r="J62" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9500,7 +9032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9539,2069 +9071,946 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s" s="72">
-        <v>55</v>
+      <c r="F7" t="s" s="72">
+        <v>451</v>
+      </c>
+      <c r="G7" t="s" s="73">
+        <v>452</v>
+      </c>
+      <c r="H7" t="s">
+        <v>453</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
-      </c>
-      <c r="K7" t="s" s="73">
-        <v>67</v>
+        <v>455</v>
+      </c>
+      <c r="K7" t="s">
+        <v>456</v>
       </c>
       <c r="L7" t="s">
-        <v>485</v>
-      </c>
-      <c r="M7" t="s" s="74">
-        <v>486</v>
-      </c>
-      <c r="N7" t="s" s="75">
-        <v>487</v>
-      </c>
-      <c r="O7" t="s" s="76">
-        <v>488</v>
+        <v>457</v>
+      </c>
+      <c r="M7" t="s">
+        <v>458</v>
+      </c>
+      <c r="N7" t="s">
+        <v>459</v>
+      </c>
+      <c r="O7" t="s">
+        <v>460</v>
       </c>
       <c r="P7" t="s">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
-        <v>490</v>
-      </c>
-      <c r="R7" t="s">
-        <v>491</v>
-      </c>
-      <c r="S7" t="s">
-        <v>492</v>
-      </c>
-      <c r="T7" t="s">
-        <v>493</v>
-      </c>
-      <c r="U7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" t="s">
-        <v>494</v>
-      </c>
-      <c r="W7" t="s" s="77">
-        <v>495</v>
-      </c>
-      <c r="X7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>465</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
+        <v>466</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" t="s">
-        <v>502</v>
-      </c>
-      <c r="V8" t="s">
-        <v>502</v>
-      </c>
-      <c r="W8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" t="s">
-        <v>506</v>
-      </c>
-      <c r="H9" t="s">
-        <v>507</v>
-      </c>
-      <c r="I9" t="s">
-        <v>503</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" t="s">
-        <v>507</v>
-      </c>
-      <c r="V9" t="s">
-        <v>507</v>
-      </c>
-      <c r="W9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" t="s">
-        <v>508</v>
-      </c>
-      <c r="F10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G10" t="s">
-        <v>510</v>
-      </c>
-      <c r="H10" t="s">
-        <v>511</v>
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" t="s" s="74">
+        <v>468</v>
+      </c>
+      <c r="E10" t="s" s="75">
+        <v>469</v>
+      </c>
+      <c r="F10" t="s" s="76">
+        <v>470</v>
+      </c>
+      <c r="G10" t="s" s="77">
+        <v>471</v>
+      </c>
+      <c r="H10" t="s" s="78">
+        <v>472</v>
+      </c>
+      <c r="I10" t="s">
+        <v>473</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" t="s">
-        <v>512</v>
-      </c>
-      <c r="V10" t="s">
-        <v>511</v>
-      </c>
-      <c r="W10" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" t="n">
+        <f>菜单!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>475</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" t="s" s="78">
-        <v>515</v>
-      </c>
-      <c r="E12" t="s" s="79">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s" s="80">
-        <v>516</v>
-      </c>
-      <c r="G12" t="s" s="81">
-        <v>517</v>
-      </c>
-      <c r="H12" t="s">
-        <v>518</v>
+      <c r="E12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G12" t="n">
+        <f>菜单!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>519</v>
-      </c>
-      <c r="J12" t="s" s="82">
-        <v>520</v>
+        <v>475</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>521</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
-        <f>菜单!$E$10</f>
-      </c>
-      <c r="H13" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G13" t="n">
+        <f>菜单!$E$14</f>
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J13" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>525</v>
-      </c>
-      <c r="F14">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
-        <f>菜单!$E$10</f>
-      </c>
-      <c r="H14" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G14" t="n">
+        <f>菜单!$E$15</f>
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J14" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F15">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="H15" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F15" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" t="n">
+        <f>菜单!$E$16</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J15" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>527</v>
-      </c>
-      <c r="F16">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
-        <f>菜单!$E$11</f>
-      </c>
-      <c r="H16" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" t="n">
+        <f>菜单!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J16" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>528</v>
-      </c>
-      <c r="F17">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
-        <f>菜单!$E$12</f>
-      </c>
-      <c r="H17" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F17" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" t="n">
+        <f>菜单!$E$25</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J17" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>529</v>
-      </c>
-      <c r="F18">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
-        <f>菜单!$E$12</f>
-      </c>
-      <c r="H18" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F18" t="s">
+        <v>463</v>
+      </c>
+      <c r="G18" t="n">
+        <f>菜单!$E$26</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J18" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F19">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
-        <f>菜单!$E$13</f>
-      </c>
-      <c r="H19" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F19" t="s">
+        <v>463</v>
+      </c>
+      <c r="G19" t="n">
+        <f>菜单!$E$31</f>
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J19" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>531</v>
-      </c>
-      <c r="F20">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
-        <f>菜单!$E$13</f>
-      </c>
-      <c r="H20" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" t="n">
+        <f>菜单!$E$32</f>
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J20" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>532</v>
-      </c>
-      <c r="F21">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G21">
-        <f>菜单!$E$14</f>
-      </c>
-      <c r="H21" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G21" t="n">
+        <f>菜单!$E$33</f>
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I21" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J21" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>533</v>
-      </c>
-      <c r="F22">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G22">
-        <f>菜单!$E$14</f>
-      </c>
-      <c r="H22" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F22" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" t="n">
+        <f>菜单!$E$34</f>
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I22" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J22" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>534</v>
-      </c>
-      <c r="F23">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G23">
-        <f>菜单!$E$15</f>
-      </c>
-      <c r="H23" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F23" t="s">
+        <v>463</v>
+      </c>
+      <c r="G23" t="n">
+        <f>菜单!$E$35</f>
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I23" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J23" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>535</v>
-      </c>
-      <c r="F24">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G24">
-        <f>菜单!$E$15</f>
-      </c>
-      <c r="H24" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G24" t="n">
+        <f>菜单!$E$40</f>
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I24" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J24" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>536</v>
-      </c>
-      <c r="F25">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G25">
-        <f>菜单!$E$16</f>
-      </c>
-      <c r="H25" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F25" t="s">
+        <v>463</v>
+      </c>
+      <c r="G25" t="n">
+        <f>菜单!$E$41</f>
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I25" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J25" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>537</v>
-      </c>
-      <c r="F26">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G26">
-        <f>菜单!$E$16</f>
-      </c>
-      <c r="H26" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F26" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" t="n">
+        <f>菜单!$E$42</f>
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I26" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J26" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>538</v>
-      </c>
-      <c r="F27">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G27">
-        <f>菜单!$E$17</f>
-      </c>
-      <c r="H27" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F27" t="s">
+        <v>463</v>
+      </c>
+      <c r="G27" t="n">
+        <f>菜单!$E$43</f>
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I27" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J27" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>539</v>
-      </c>
-      <c r="F28">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G28">
-        <f>菜单!$E$17</f>
-      </c>
-      <c r="H28" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F28" t="s">
+        <v>463</v>
+      </c>
+      <c r="G28" t="n">
+        <f>菜单!$E$54</f>
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I28" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J28" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>540</v>
-      </c>
-      <c r="F29">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G29">
-        <f>菜单!$E$19</f>
-      </c>
-      <c r="H29" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F29" t="s">
+        <v>463</v>
+      </c>
+      <c r="G29" t="n">
+        <f>菜单!$E$58</f>
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I29" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J29" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>541</v>
-      </c>
-      <c r="F30">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G30">
-        <f>菜单!$E$19</f>
-      </c>
-      <c r="H30" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G30" t="n">
+        <f>菜单!$E$59</f>
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I30" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J30" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>542</v>
-      </c>
-      <c r="F31">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G31">
-        <f>菜单!$E$20</f>
-      </c>
-      <c r="H31" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G31" t="n">
+        <f>菜单!$E$60</f>
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I31" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J31" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>543</v>
-      </c>
-      <c r="F32">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G32">
-        <f>菜单!$E$20</f>
-      </c>
-      <c r="H32" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G32" t="n">
+        <f>菜单!$E$61</f>
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I32" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J32" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>544</v>
-      </c>
-      <c r="F33">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G33">
-        <f>菜单!$E$22</f>
-      </c>
-      <c r="H33" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F33" t="s">
+        <v>463</v>
+      </c>
+      <c r="G33" t="n">
+        <f>菜单!$E$52</f>
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I33" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J33" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L33" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>545</v>
-      </c>
-      <c r="F34">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G34">
-        <f>菜单!$E$22</f>
-      </c>
-      <c r="H34" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G34" t="n">
+        <f>菜单!$E$53</f>
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I34" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J34" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>546</v>
-      </c>
-      <c r="F35">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G35">
-        <f>菜单!$E$23</f>
-      </c>
-      <c r="H35" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F35" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" t="n">
+        <f>菜单!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I35" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J35" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>547</v>
-      </c>
-      <c r="F36">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G36">
-        <f>菜单!$E$23</f>
-      </c>
-      <c r="H36" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G36" t="n">
+        <f>菜单!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I36" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J36" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
-      </c>
-      <c r="L36" t="s">
-        <v>91</v>
-      </c>
-      <c r="M36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>548</v>
-      </c>
-      <c r="F37">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G37">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="H37" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F37" t="s">
+        <v>463</v>
+      </c>
+      <c r="G37" t="n">
+        <f>菜单!$E$44</f>
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I37" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J37" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>549</v>
-      </c>
-      <c r="F38">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G38">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="H38" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F38" t="s">
+        <v>463</v>
+      </c>
+      <c r="G38" t="n">
+        <f>菜单!$E$51</f>
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I38" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J38" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>550</v>
-      </c>
-      <c r="F39">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G39">
-        <f>菜单!$E$27</f>
-      </c>
-      <c r="H39" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F39" t="s">
+        <v>463</v>
+      </c>
+      <c r="G39" t="n">
+        <f>菜单!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I39" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J39" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>551</v>
-      </c>
-      <c r="F40">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G40">
-        <f>菜单!$E$28</f>
-      </c>
-      <c r="H40" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F40" t="s">
+        <v>463</v>
+      </c>
+      <c r="G40" t="n">
+        <f>菜单!$E$62</f>
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I40" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J40" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L40" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>552</v>
-      </c>
-      <c r="F41">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G41">
-        <f>菜单!$E$29</f>
-      </c>
-      <c r="H41" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F41" t="s">
+        <v>463</v>
+      </c>
+      <c r="G41" t="n">
+        <f>菜单!$E$65</f>
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I41" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J41" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" t="s">
-        <v>91</v>
-      </c>
-      <c r="M41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>553</v>
-      </c>
-      <c r="F42">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G42">
-        <f>菜单!$E$30</f>
-      </c>
-      <c r="H42" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F42" t="s">
+        <v>463</v>
+      </c>
+      <c r="G42" t="n">
+        <f>菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I42" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J42" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>554</v>
-      </c>
-      <c r="F43">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G43">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="H43" t="s">
-        <v>522</v>
+        <v>474</v>
+      </c>
+      <c r="F43" t="s">
+        <v>463</v>
+      </c>
+      <c r="G43" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I43" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="J43" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
-      </c>
-      <c r="L43" t="s">
-        <v>91</v>
-      </c>
-      <c r="M43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>555</v>
-      </c>
-      <c r="F44">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G44">
-        <f>菜单!$E$32</f>
-      </c>
-      <c r="H44" t="s">
-        <v>522</v>
-      </c>
-      <c r="I44" t="s">
-        <v>523</v>
-      </c>
-      <c r="J44" t="s">
-        <v>524</v>
-      </c>
-      <c r="K44" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>556</v>
-      </c>
-      <c r="F45">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G45">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="H45" t="s">
-        <v>522</v>
-      </c>
-      <c r="I45" t="s">
-        <v>523</v>
-      </c>
-      <c r="J45" t="s">
-        <v>524</v>
-      </c>
-      <c r="K45" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>557</v>
-      </c>
-      <c r="F46">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G46">
-        <f>菜单!$E$34</f>
-      </c>
-      <c r="H46" t="s">
-        <v>522</v>
-      </c>
-      <c r="I46" t="s">
-        <v>523</v>
-      </c>
-      <c r="J46" t="s">
-        <v>524</v>
-      </c>
-      <c r="K46" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>558</v>
-      </c>
-      <c r="F47">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G47">
-        <f>菜单!$E$36</f>
-      </c>
-      <c r="H47" t="s">
-        <v>522</v>
-      </c>
-      <c r="I47" t="s">
-        <v>523</v>
-      </c>
-      <c r="J47" t="s">
-        <v>524</v>
-      </c>
-      <c r="K47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>559</v>
-      </c>
-      <c r="F48">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G48">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="H48" t="s">
-        <v>522</v>
-      </c>
-      <c r="I48" t="s">
-        <v>523</v>
-      </c>
-      <c r="J48" t="s">
-        <v>524</v>
-      </c>
-      <c r="K48" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>560</v>
-      </c>
-      <c r="F49">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G49">
-        <f>菜单!$E$38</f>
-      </c>
-      <c r="H49" t="s">
-        <v>522</v>
-      </c>
-      <c r="I49" t="s">
-        <v>523</v>
-      </c>
-      <c r="J49" t="s">
-        <v>524</v>
-      </c>
-      <c r="K49" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" t="s">
-        <v>91</v>
-      </c>
-      <c r="M49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>561</v>
-      </c>
-      <c r="F50">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G50">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="H50" t="s">
-        <v>522</v>
-      </c>
-      <c r="I50" t="s">
-        <v>523</v>
-      </c>
-      <c r="J50" t="s">
-        <v>524</v>
-      </c>
-      <c r="K50" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>562</v>
-      </c>
-      <c r="F51">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G51">
-        <f>菜单!$E$40</f>
-      </c>
-      <c r="H51" t="s">
-        <v>522</v>
-      </c>
-      <c r="I51" t="s">
-        <v>523</v>
-      </c>
-      <c r="J51" t="s">
-        <v>524</v>
-      </c>
-      <c r="K51" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>563</v>
-      </c>
-      <c r="F52">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G52">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="H52" t="s">
-        <v>522</v>
-      </c>
-      <c r="I52" t="s">
-        <v>523</v>
-      </c>
-      <c r="J52" t="s">
-        <v>524</v>
-      </c>
-      <c r="K52" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>564</v>
-      </c>
-      <c r="F53">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G53">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="H53" t="s">
-        <v>522</v>
-      </c>
-      <c r="I53" t="s">
-        <v>523</v>
-      </c>
-      <c r="J53" t="s">
-        <v>524</v>
-      </c>
-      <c r="K53" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" t="s">
-        <v>91</v>
-      </c>
-      <c r="M53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>565</v>
-      </c>
-      <c r="F54">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G54">
-        <f>菜单!$E$43</f>
-      </c>
-      <c r="H54" t="s">
-        <v>522</v>
-      </c>
-      <c r="I54" t="s">
-        <v>523</v>
-      </c>
-      <c r="J54" t="s">
-        <v>524</v>
-      </c>
-      <c r="K54" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" t="s">
-        <v>91</v>
-      </c>
-      <c r="M54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>566</v>
-      </c>
-      <c r="F55">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G55">
-        <f>菜单!$E$45</f>
-      </c>
-      <c r="H55" t="s">
-        <v>522</v>
-      </c>
-      <c r="I55" t="s">
-        <v>523</v>
-      </c>
-      <c r="J55" t="s">
-        <v>524</v>
-      </c>
-      <c r="K55" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>567</v>
-      </c>
-      <c r="F56">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G56">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="H56" t="s">
-        <v>522</v>
-      </c>
-      <c r="I56" t="s">
-        <v>523</v>
-      </c>
-      <c r="J56" t="s">
-        <v>524</v>
-      </c>
-      <c r="K56" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>568</v>
-      </c>
-      <c r="F57">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G57">
-        <f>菜单!$E$47</f>
-      </c>
-      <c r="H57" t="s">
-        <v>522</v>
-      </c>
-      <c r="I57" t="s">
-        <v>523</v>
-      </c>
-      <c r="J57" t="s">
-        <v>524</v>
-      </c>
-      <c r="K57" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" t="s">
-        <v>91</v>
-      </c>
-      <c r="M57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>569</v>
-      </c>
-      <c r="F58">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G58">
-        <f>菜单!$E$48</f>
-      </c>
-      <c r="H58" t="s">
-        <v>522</v>
-      </c>
-      <c r="I58" t="s">
-        <v>523</v>
-      </c>
-      <c r="J58" t="s">
-        <v>524</v>
-      </c>
-      <c r="K58" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" t="s">
-        <v>91</v>
-      </c>
-      <c r="M58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>570</v>
-      </c>
-      <c r="F59">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G59">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="H59" t="s">
-        <v>522</v>
-      </c>
-      <c r="I59" t="s">
-        <v>523</v>
-      </c>
-      <c r="J59" t="s">
-        <v>524</v>
-      </c>
-      <c r="K59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L59" t="s">
-        <v>91</v>
-      </c>
-      <c r="M59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>571</v>
-      </c>
-      <c r="F60">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G60">
-        <f>菜单!$E$50</f>
-      </c>
-      <c r="H60" t="s">
-        <v>522</v>
-      </c>
-      <c r="I60" t="s">
-        <v>523</v>
-      </c>
-      <c r="J60" t="s">
-        <v>524</v>
-      </c>
-      <c r="K60" t="s">
-        <v>85</v>
-      </c>
-      <c r="L60" t="s">
-        <v>91</v>
-      </c>
-      <c r="M60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>572</v>
-      </c>
-      <c r="F61">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G61">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="H61" t="s">
-        <v>522</v>
-      </c>
-      <c r="I61" t="s">
-        <v>523</v>
-      </c>
-      <c r="J61" t="s">
-        <v>524</v>
-      </c>
-      <c r="K61" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" t="s">
-        <v>91</v>
-      </c>
-      <c r="M61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>573</v>
-      </c>
-      <c r="F62">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G62">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="H62" t="s">
-        <v>522</v>
-      </c>
-      <c r="I62" t="s">
-        <v>523</v>
-      </c>
-      <c r="J62" t="s">
-        <v>524</v>
-      </c>
-      <c r="K62" t="s">
-        <v>85</v>
-      </c>
-      <c r="L62" t="s">
-        <v>91</v>
-      </c>
-      <c r="M62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>574</v>
-      </c>
-      <c r="F63">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G63">
-        <f>菜单!$E$55</f>
-      </c>
-      <c r="H63" t="s">
-        <v>522</v>
-      </c>
-      <c r="I63" t="s">
-        <v>523</v>
-      </c>
-      <c r="J63" t="s">
-        <v>524</v>
-      </c>
-      <c r="K63" t="s">
-        <v>85</v>
-      </c>
-      <c r="L63" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>575</v>
-      </c>
-      <c r="F64">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G64">
-        <f>菜单!$E$56</f>
-      </c>
-      <c r="H64" t="s">
-        <v>522</v>
-      </c>
-      <c r="I64" t="s">
-        <v>523</v>
-      </c>
-      <c r="J64" t="s">
-        <v>524</v>
-      </c>
-      <c r="K64" t="s">
-        <v>85</v>
-      </c>
-      <c r="L64" t="s">
-        <v>91</v>
-      </c>
-      <c r="M64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>576</v>
-      </c>
-      <c r="F65">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G65">
-        <f>菜单!$E$57</f>
-      </c>
-      <c r="H65" t="s">
-        <v>522</v>
-      </c>
-      <c r="I65" t="s">
-        <v>523</v>
-      </c>
-      <c r="J65" t="s">
-        <v>524</v>
-      </c>
-      <c r="K65" t="s">
-        <v>85</v>
-      </c>
-      <c r="L65" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>577</v>
-      </c>
-      <c r="F66">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G66">
-        <f>菜单!$E$58</f>
-      </c>
-      <c r="H66" t="s">
-        <v>522</v>
-      </c>
-      <c r="I66" t="s">
-        <v>523</v>
-      </c>
-      <c r="J66" t="s">
-        <v>524</v>
-      </c>
-      <c r="K66" t="s">
-        <v>85</v>
-      </c>
-      <c r="L66" t="s">
-        <v>91</v>
-      </c>
-      <c r="M66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>578</v>
-      </c>
-      <c r="F67">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G67">
-        <f>菜单!$E$59</f>
-      </c>
-      <c r="H67" t="s">
-        <v>522</v>
-      </c>
-      <c r="I67" t="s">
-        <v>523</v>
-      </c>
-      <c r="J67" t="s">
-        <v>524</v>
-      </c>
-      <c r="K67" t="s">
-        <v>85</v>
-      </c>
-      <c r="L67" t="s">
-        <v>91</v>
-      </c>
-      <c r="M67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>579</v>
-      </c>
-      <c r="F68">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G68">
-        <f>菜单!$E$60</f>
-      </c>
-      <c r="H68" t="s">
-        <v>522</v>
-      </c>
-      <c r="I68" t="s">
-        <v>523</v>
-      </c>
-      <c r="J68" t="s">
-        <v>524</v>
-      </c>
-      <c r="K68" t="s">
-        <v>85</v>
-      </c>
-      <c r="L68" t="s">
-        <v>91</v>
-      </c>
-      <c r="M68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>580</v>
-      </c>
-      <c r="F69">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G69">
-        <f>菜单!$E$61</f>
-      </c>
-      <c r="H69" t="s">
-        <v>522</v>
-      </c>
-      <c r="I69" t="s">
-        <v>523</v>
-      </c>
-      <c r="J69" t="s">
-        <v>524</v>
-      </c>
-      <c r="K69" t="s">
-        <v>85</v>
-      </c>
-      <c r="L69" t="s">
-        <v>91</v>
-      </c>
-      <c r="M69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>581</v>
-      </c>
-      <c r="F70">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G70">
-        <f>菜单!$E$63</f>
-      </c>
-      <c r="H70" t="s">
-        <v>522</v>
-      </c>
-      <c r="I70" t="s">
-        <v>523</v>
-      </c>
-      <c r="J70" t="s">
-        <v>524</v>
-      </c>
-      <c r="K70" t="s">
-        <v>85</v>
-      </c>
-      <c r="L70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>582</v>
-      </c>
-      <c r="F71">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G71">
-        <f>菜单!$E$64</f>
-      </c>
-      <c r="H71" t="s">
-        <v>522</v>
-      </c>
-      <c r="I71" t="s">
-        <v>523</v>
-      </c>
-      <c r="J71" t="s">
-        <v>524</v>
-      </c>
-      <c r="K71" t="s">
-        <v>85</v>
-      </c>
-      <c r="L71" t="s">
-        <v>91</v>
-      </c>
-      <c r="M71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>583</v>
-      </c>
-      <c r="F72">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G72">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="H72" t="s">
-        <v>522</v>
-      </c>
-      <c r="I72" t="s">
-        <v>523</v>
-      </c>
-      <c r="J72" t="s">
-        <v>524</v>
-      </c>
-      <c r="K72" t="s">
-        <v>85</v>
-      </c>
-      <c r="L72" t="s">
-        <v>91</v>
-      </c>
-      <c r="M72" t="s">
         <v>92</v>
       </c>
     </row>
@@ -11612,7 +10021,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11651,1455 +10060,727 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>584</v>
-      </c>
-      <c r="D7" t="s" s="83">
-        <v>585</v>
-      </c>
-      <c r="E7" t="s" s="84">
+        <v>476</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>477</v>
+      </c>
+      <c r="E7" t="s" s="80">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="85">
-        <v>586</v>
-      </c>
-      <c r="G7" t="s" s="86">
-        <v>520</v>
-      </c>
-      <c r="H7" t="s">
-        <v>587</v>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="81">
+        <v>55</v>
       </c>
       <c r="I7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K7" t="s" s="82">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M7" t="s" s="83">
+        <v>480</v>
+      </c>
+      <c r="N7" t="s" s="84">
+        <v>481</v>
+      </c>
+      <c r="O7" t="s" s="85">
+        <v>482</v>
+      </c>
+      <c r="P7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q7" t="s">
         <v>484</v>
       </c>
-      <c r="J7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K7" t="s">
-        <v>589</v>
-      </c>
-      <c r="L7" t="s">
-        <v>590</v>
-      </c>
-      <c r="M7" t="s">
-        <v>591</v>
-      </c>
-      <c r="N7" t="s">
-        <v>592</v>
-      </c>
-      <c r="O7" t="s">
-        <v>593</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
+        <v>485</v>
+      </c>
+      <c r="S7" t="s">
+        <v>486</v>
+      </c>
+      <c r="T7" t="s">
+        <v>487</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>488</v>
+      </c>
+      <c r="W7" t="s" s="86">
+        <v>489</v>
+      </c>
+      <c r="X7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA7" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AB7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>594</v>
+        <v>493</v>
       </c>
       <c r="F8" t="s">
-        <v>595</v>
+        <v>494</v>
       </c>
       <c r="G8" t="s">
-        <v>596</v>
+        <v>495</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" t="s">
-        <v>597</v>
+        <v>496</v>
       </c>
       <c r="J8" t="s">
-        <v>598</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>599</v>
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" t="s">
+        <v>496</v>
+      </c>
+      <c r="V8" t="s">
+        <v>496</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>501</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" t="s">
+        <v>501</v>
+      </c>
+      <c r="V9" t="s">
+        <v>501</v>
+      </c>
+      <c r="W9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" t="s">
+        <v>504</v>
+      </c>
+      <c r="H10" t="s">
+        <v>505</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <f>角色权限!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" t="s">
+        <v>506</v>
+      </c>
+      <c r="V10" t="s">
+        <v>505</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>600</v>
-      </c>
-      <c r="D10" t="s" s="87">
-        <v>601</v>
-      </c>
-      <c r="E10" t="s" s="88">
-        <v>602</v>
-      </c>
-      <c r="F10" t="s" s="89">
-        <v>603</v>
-      </c>
-      <c r="G10" t="s" s="90">
-        <v>604</v>
-      </c>
-      <c r="H10" t="s" s="91">
-        <v>605</v>
-      </c>
-      <c r="I10" t="s">
-        <v>606</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="C12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D12" t="s" s="87">
+        <v>509</v>
+      </c>
+      <c r="E12" t="s" s="88">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="89">
+        <v>510</v>
+      </c>
+      <c r="G12" t="s" s="90">
+        <v>511</v>
+      </c>
+      <c r="H12" t="s">
+        <v>512</v>
+      </c>
+      <c r="I12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12" t="s" s="91">
+        <v>452</v>
+      </c>
+      <c r="K12" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M12" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>607</v>
-      </c>
-      <c r="F11" t="s">
-        <v>596</v>
-      </c>
-      <c r="G11">
-        <f>菜单!$E$8</f>
-      </c>
-      <c r="H11">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I11" t="s">
-        <v>608</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>607</v>
-      </c>
-      <c r="F12" t="s">
-        <v>596</v>
-      </c>
-      <c r="G12">
-        <f>菜单!$E$9</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I12" t="s">
-        <v>608</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>607</v>
-      </c>
-      <c r="F13" t="s">
-        <v>596</v>
-      </c>
-      <c r="G13">
+        <v>514</v>
+      </c>
+      <c r="F13" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <f>菜单!$E$10</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>515</v>
       </c>
       <c r="I13" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>607</v>
-      </c>
-      <c r="F14" t="s">
-        <v>596</v>
-      </c>
-      <c r="G14">
+        <v>519</v>
+      </c>
+      <c r="F14" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
         <f>菜单!$E$11</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>515</v>
       </c>
       <c r="I14" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>607</v>
-      </c>
-      <c r="F15" t="s">
-        <v>596</v>
-      </c>
-      <c r="G15">
+        <v>520</v>
+      </c>
+      <c r="F15" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
         <f>菜单!$E$12</f>
-      </c>
-      <c r="H15">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>515</v>
       </c>
       <c r="I15" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>607</v>
-      </c>
-      <c r="F16" t="s">
-        <v>596</v>
-      </c>
-      <c r="G16">
+        <v>521</v>
+      </c>
+      <c r="F16" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
         <f>菜单!$E$13</f>
-      </c>
-      <c r="H16">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>515</v>
       </c>
       <c r="I16" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>607</v>
-      </c>
-      <c r="F17" t="s">
-        <v>596</v>
-      </c>
-      <c r="G17">
+        <v>522</v>
+      </c>
+      <c r="F17" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
         <f>菜单!$E$14</f>
-      </c>
-      <c r="H17">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>515</v>
       </c>
       <c r="I17" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>607</v>
-      </c>
-      <c r="F18" t="s">
-        <v>596</v>
-      </c>
-      <c r="G18">
+        <v>523</v>
+      </c>
+      <c r="F18" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
         <f>菜单!$E$15</f>
-      </c>
-      <c r="H18">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>515</v>
       </c>
       <c r="I18" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>607</v>
-      </c>
-      <c r="F19" t="s">
-        <v>596</v>
-      </c>
-      <c r="G19">
+        <v>524</v>
+      </c>
+      <c r="F19" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
         <f>菜单!$E$16</f>
-      </c>
-      <c r="H19">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>515</v>
       </c>
       <c r="I19" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>607</v>
-      </c>
-      <c r="F20" t="s">
-        <v>596</v>
-      </c>
-      <c r="G20">
+        <v>525</v>
+      </c>
+      <c r="F20" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
         <f>菜单!$E$17</f>
-      </c>
-      <c r="H20">
-        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>515</v>
       </c>
       <c r="I20" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F21" t="s">
-        <v>596</v>
-      </c>
-      <c r="G21">
-        <f>菜单!$E$18</f>
-      </c>
-      <c r="H21">
-        <f>菜单标签数据!$E$8</f>
+        <v>526</v>
+      </c>
+      <c r="F21" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <f>菜单!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>515</v>
       </c>
       <c r="I21" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>607</v>
-      </c>
-      <c r="F22" t="s">
-        <v>596</v>
-      </c>
-      <c r="G22">
-        <f>菜单!$E$19</f>
-      </c>
-      <c r="H22">
-        <f>菜单标签数据!$E$8</f>
+        <v>527</v>
+      </c>
+      <c r="F22" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <f>菜单!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>515</v>
       </c>
       <c r="I22" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>607</v>
-      </c>
-      <c r="F23" t="s">
-        <v>596</v>
-      </c>
-      <c r="G23">
-        <f>菜单!$E$20</f>
-      </c>
-      <c r="H23">
-        <f>菜单标签数据!$E$8</f>
+        <v>528</v>
+      </c>
+      <c r="F23" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <f>菜单!$E$22</f>
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>515</v>
       </c>
       <c r="I23" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>607</v>
-      </c>
-      <c r="F24" t="s">
-        <v>596</v>
-      </c>
-      <c r="G24">
-        <f>菜单!$E$21</f>
-      </c>
-      <c r="H24">
-        <f>菜单标签数据!$E$8</f>
+        <v>529</v>
+      </c>
+      <c r="F24" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <f>菜单!$E$23</f>
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>515</v>
       </c>
       <c r="I24" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>607</v>
-      </c>
-      <c r="F25" t="s">
-        <v>596</v>
-      </c>
-      <c r="G25">
-        <f>菜单!$E$22</f>
-      </c>
-      <c r="H25">
-        <f>菜单标签数据!$E$8</f>
+        <v>530</v>
+      </c>
+      <c r="F25" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <f>菜单!$E$24</f>
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>515</v>
       </c>
       <c r="I25" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>517</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>607</v>
-      </c>
-      <c r="F26" t="s">
-        <v>596</v>
-      </c>
-      <c r="G26">
-        <f>菜单!$E$23</f>
-      </c>
-      <c r="H26">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I26" t="s">
-        <v>608</v>
-      </c>
-      <c r="J26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F27" t="s">
-        <v>596</v>
-      </c>
-      <c r="G27">
-        <f>菜单!$E$24</f>
-      </c>
-      <c r="H27">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I27" t="s">
-        <v>608</v>
-      </c>
-      <c r="J27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>607</v>
-      </c>
-      <c r="F28" t="s">
-        <v>596</v>
-      </c>
-      <c r="G28">
-        <f>菜单!$E$25</f>
-      </c>
-      <c r="H28">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J28" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>607</v>
-      </c>
-      <c r="F29" t="s">
-        <v>596</v>
-      </c>
-      <c r="G29">
-        <f>菜单!$E$26</f>
-      </c>
-      <c r="H29">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I29" t="s">
-        <v>608</v>
-      </c>
-      <c r="J29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>607</v>
-      </c>
-      <c r="F30" t="s">
-        <v>596</v>
-      </c>
-      <c r="G30">
-        <f>菜单!$E$27</f>
-      </c>
-      <c r="H30">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I30" t="s">
-        <v>608</v>
-      </c>
-      <c r="J30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>607</v>
-      </c>
-      <c r="F31" t="s">
-        <v>596</v>
-      </c>
-      <c r="G31">
-        <f>菜单!$E$28</f>
-      </c>
-      <c r="H31">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I31" t="s">
-        <v>608</v>
-      </c>
-      <c r="J31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>607</v>
-      </c>
-      <c r="F32" t="s">
-        <v>596</v>
-      </c>
-      <c r="G32">
-        <f>菜单!$E$29</f>
-      </c>
-      <c r="H32">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I32" t="s">
-        <v>608</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F33" t="s">
-        <v>596</v>
-      </c>
-      <c r="G33">
-        <f>菜单!$E$30</f>
-      </c>
-      <c r="H33">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I33" t="s">
-        <v>608</v>
-      </c>
-      <c r="J33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>607</v>
-      </c>
-      <c r="F34" t="s">
-        <v>596</v>
-      </c>
-      <c r="G34">
-        <f>菜单!$E$31</f>
-      </c>
-      <c r="H34">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I34" t="s">
-        <v>608</v>
-      </c>
-      <c r="J34" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>607</v>
-      </c>
-      <c r="F35" t="s">
-        <v>596</v>
-      </c>
-      <c r="G35">
-        <f>菜单!$E$32</f>
-      </c>
-      <c r="H35">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I35" t="s">
-        <v>608</v>
-      </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>607</v>
-      </c>
-      <c r="F36" t="s">
-        <v>596</v>
-      </c>
-      <c r="G36">
-        <f>菜单!$E$33</f>
-      </c>
-      <c r="H36">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I36" t="s">
-        <v>608</v>
-      </c>
-      <c r="J36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>607</v>
-      </c>
-      <c r="F37" t="s">
-        <v>596</v>
-      </c>
-      <c r="G37">
-        <f>菜单!$E$34</f>
-      </c>
-      <c r="H37">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I37" t="s">
-        <v>608</v>
-      </c>
-      <c r="J37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>607</v>
-      </c>
-      <c r="F38" t="s">
-        <v>596</v>
-      </c>
-      <c r="G38">
-        <f>菜单!$E$35</f>
-      </c>
-      <c r="H38">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I38" t="s">
-        <v>608</v>
-      </c>
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>607</v>
-      </c>
-      <c r="F39" t="s">
-        <v>596</v>
-      </c>
-      <c r="G39">
-        <f>菜单!$E$36</f>
-      </c>
-      <c r="H39">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I39" t="s">
-        <v>608</v>
-      </c>
-      <c r="J39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>607</v>
-      </c>
-      <c r="F40" t="s">
-        <v>596</v>
-      </c>
-      <c r="G40">
-        <f>菜单!$E$37</f>
-      </c>
-      <c r="H40">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I40" t="s">
-        <v>608</v>
-      </c>
-      <c r="J40" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>607</v>
-      </c>
-      <c r="F41" t="s">
-        <v>596</v>
-      </c>
-      <c r="G41">
-        <f>菜单!$E$38</f>
-      </c>
-      <c r="H41">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I41" t="s">
-        <v>608</v>
-      </c>
-      <c r="J41" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>607</v>
-      </c>
-      <c r="F42" t="s">
-        <v>596</v>
-      </c>
-      <c r="G42">
-        <f>菜单!$E$39</f>
-      </c>
-      <c r="H42">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I42" t="s">
-        <v>608</v>
-      </c>
-      <c r="J42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>607</v>
-      </c>
-      <c r="F43" t="s">
-        <v>596</v>
-      </c>
-      <c r="G43">
-        <f>菜单!$E$40</f>
-      </c>
-      <c r="H43">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I43" t="s">
-        <v>608</v>
-      </c>
-      <c r="J43" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>607</v>
-      </c>
-      <c r="F44" t="s">
-        <v>596</v>
-      </c>
-      <c r="G44">
-        <f>菜单!$E$41</f>
-      </c>
-      <c r="H44">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I44" t="s">
-        <v>608</v>
-      </c>
-      <c r="J44" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>607</v>
-      </c>
-      <c r="F45" t="s">
-        <v>596</v>
-      </c>
-      <c r="G45">
-        <f>菜单!$E$42</f>
-      </c>
-      <c r="H45">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I45" t="s">
-        <v>608</v>
-      </c>
-      <c r="J45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>607</v>
-      </c>
-      <c r="F46" t="s">
-        <v>596</v>
-      </c>
-      <c r="G46">
-        <f>菜单!$E$43</f>
-      </c>
-      <c r="H46">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I46" t="s">
-        <v>608</v>
-      </c>
-      <c r="J46" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>607</v>
-      </c>
-      <c r="F47" t="s">
-        <v>596</v>
-      </c>
-      <c r="G47">
-        <f>菜单!$E$44</f>
-      </c>
-      <c r="H47">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I47" t="s">
-        <v>608</v>
-      </c>
-      <c r="J47" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>607</v>
-      </c>
-      <c r="F48" t="s">
-        <v>596</v>
-      </c>
-      <c r="G48">
-        <f>菜单!$E$45</f>
-      </c>
-      <c r="H48">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I48" t="s">
-        <v>608</v>
-      </c>
-      <c r="J48" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>607</v>
-      </c>
-      <c r="F49" t="s">
-        <v>596</v>
-      </c>
-      <c r="G49">
-        <f>菜单!$E$46</f>
-      </c>
-      <c r="H49">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I49" t="s">
-        <v>608</v>
-      </c>
-      <c r="J49" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>607</v>
-      </c>
-      <c r="F50" t="s">
-        <v>596</v>
-      </c>
-      <c r="G50">
-        <f>菜单!$E$47</f>
-      </c>
-      <c r="H50">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I50" t="s">
-        <v>608</v>
-      </c>
-      <c r="J50" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>607</v>
-      </c>
-      <c r="F51" t="s">
-        <v>596</v>
-      </c>
-      <c r="G51">
-        <f>菜单!$E$48</f>
-      </c>
-      <c r="H51">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I51" t="s">
-        <v>608</v>
-      </c>
-      <c r="J51" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>607</v>
-      </c>
-      <c r="F52" t="s">
-        <v>596</v>
-      </c>
-      <c r="G52">
-        <f>菜单!$E$49</f>
-      </c>
-      <c r="H52">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I52" t="s">
-        <v>608</v>
-      </c>
-      <c r="J52" t="s">
-        <v>91</v>
-      </c>
-      <c r="K52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>607</v>
-      </c>
-      <c r="F53" t="s">
-        <v>596</v>
-      </c>
-      <c r="G53">
-        <f>菜单!$E$50</f>
-      </c>
-      <c r="H53">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I53" t="s">
-        <v>608</v>
-      </c>
-      <c r="J53" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>607</v>
-      </c>
-      <c r="F54" t="s">
-        <v>596</v>
-      </c>
-      <c r="G54">
-        <f>菜单!$E$51</f>
-      </c>
-      <c r="H54">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I54" t="s">
-        <v>608</v>
-      </c>
-      <c r="J54" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>607</v>
-      </c>
-      <c r="F55" t="s">
-        <v>596</v>
-      </c>
-      <c r="G55">
-        <f>菜单!$E$52</f>
-      </c>
-      <c r="H55">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I55" t="s">
-        <v>608</v>
-      </c>
-      <c r="J55" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>607</v>
-      </c>
-      <c r="F56" t="s">
-        <v>596</v>
-      </c>
-      <c r="G56">
-        <f>菜单!$E$53</f>
-      </c>
-      <c r="H56">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I56" t="s">
-        <v>608</v>
-      </c>
-      <c r="J56" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>607</v>
-      </c>
-      <c r="F57" t="s">
-        <v>596</v>
-      </c>
-      <c r="G57">
-        <f>菜单!$E$54</f>
-      </c>
-      <c r="H57">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I57" t="s">
-        <v>608</v>
-      </c>
-      <c r="J57" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>607</v>
-      </c>
-      <c r="F58" t="s">
-        <v>596</v>
-      </c>
-      <c r="G58">
-        <f>菜单!$E$55</f>
-      </c>
-      <c r="H58">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I58" t="s">
-        <v>608</v>
-      </c>
-      <c r="J58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>607</v>
-      </c>
-      <c r="F59" t="s">
-        <v>596</v>
-      </c>
-      <c r="G59">
-        <f>菜单!$E$56</f>
-      </c>
-      <c r="H59">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I59" t="s">
-        <v>608</v>
-      </c>
-      <c r="J59" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>607</v>
-      </c>
-      <c r="F60" t="s">
-        <v>596</v>
-      </c>
-      <c r="G60">
-        <f>菜单!$E$57</f>
-      </c>
-      <c r="H60">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I60" t="s">
-        <v>608</v>
-      </c>
-      <c r="J60" t="s">
-        <v>91</v>
-      </c>
-      <c r="K60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>607</v>
-      </c>
-      <c r="F61" t="s">
-        <v>596</v>
-      </c>
-      <c r="G61">
-        <f>菜单!$E$58</f>
-      </c>
-      <c r="H61">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I61" t="s">
-        <v>608</v>
-      </c>
-      <c r="J61" t="s">
-        <v>91</v>
-      </c>
-      <c r="K61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>607</v>
-      </c>
-      <c r="F62" t="s">
-        <v>596</v>
-      </c>
-      <c r="G62">
-        <f>菜单!$E$59</f>
-      </c>
-      <c r="H62">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I62" t="s">
-        <v>608</v>
-      </c>
-      <c r="J62" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>607</v>
-      </c>
-      <c r="F63" t="s">
-        <v>596</v>
-      </c>
-      <c r="G63">
-        <f>菜单!$E$60</f>
-      </c>
-      <c r="H63">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I63" t="s">
-        <v>608</v>
-      </c>
-      <c r="J63" t="s">
-        <v>91</v>
-      </c>
-      <c r="K63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>607</v>
-      </c>
-      <c r="F64" t="s">
-        <v>596</v>
-      </c>
-      <c r="G64">
-        <f>菜单!$E$61</f>
-      </c>
-      <c r="H64">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I64" t="s">
-        <v>608</v>
-      </c>
-      <c r="J64" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>607</v>
-      </c>
-      <c r="F65" t="s">
-        <v>596</v>
-      </c>
-      <c r="G65">
-        <f>菜单!$E$62</f>
-      </c>
-      <c r="H65">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I65" t="s">
-        <v>608</v>
-      </c>
-      <c r="J65" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>607</v>
-      </c>
-      <c r="F66" t="s">
-        <v>596</v>
-      </c>
-      <c r="G66">
-        <f>菜单!$E$63</f>
-      </c>
-      <c r="H66">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I66" t="s">
-        <v>608</v>
-      </c>
-      <c r="J66" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>607</v>
-      </c>
-      <c r="F67" t="s">
-        <v>596</v>
-      </c>
-      <c r="G67">
-        <f>菜单!$E$64</f>
-      </c>
-      <c r="H67">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I67" t="s">
-        <v>608</v>
-      </c>
-      <c r="J67" t="s">
-        <v>91</v>
-      </c>
-      <c r="K67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>607</v>
-      </c>
-      <c r="F68" t="s">
-        <v>596</v>
-      </c>
-      <c r="G68">
-        <f>菜单!$E$65</f>
-      </c>
-      <c r="H68">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I68" t="s">
-        <v>608</v>
-      </c>
-      <c r="J68" t="s">
-        <v>91</v>
-      </c>
-      <c r="K68" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" t="s">
         <v>92</v>
       </c>
     </row>
